--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA2B6B-5FF6-408A-A417-90F72349F54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482A0CC-CAAC-4D2C-847E-878D52C427F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -921,9 +921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C985E-F91F-471A-B04D-0671E5EAB4DD}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
       </c>
       <c r="D2">
         <f>D1-COUNTIF(D6:D501,TRUE)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
       </c>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
-        <v>0.7</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,9 @@
       <c r="C78" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
@@ -1964,7 +1966,9 @@
       <c r="C79" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
@@ -2190,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1624F770-3A47-4A3C-9E99-AD9A3641B76D}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat-circuitpython\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482A0CC-CAAC-4D2C-847E-878D52C427F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3634FE8D-F6C4-45BF-8C8A-C2607C840C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" r:id="rId2"/>
     <sheet name="Files" sheetId="3" r:id="rId3"/>
+    <sheet name="Channels" sheetId="4" r:id="rId4"/>
+    <sheet name="Regions" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
   <si>
     <t>Screen</t>
   </si>
@@ -472,6 +474,114 @@
   </si>
   <si>
     <t>config.theme</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Channel Separation</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>freqStart</t>
+  </si>
+  <si>
+    <t>freqEnd</t>
+  </si>
+  <si>
+    <t>dutyCycle</t>
+  </si>
+  <si>
+    <t>spacing</t>
+  </si>
+  <si>
+    <t>powerLimit</t>
+  </si>
+  <si>
+    <t>audioPermitted</t>
+  </si>
+  <si>
+    <t>freqSwitching</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>EU433</t>
+  </si>
+  <si>
+    <t>EU868</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>NZ865</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Unset</t>
+  </si>
+  <si>
+    <t>numChannels</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>Min Freq</t>
+  </si>
+  <si>
+    <t>Max Freq</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>KHz</t>
+  </si>
+  <si>
+    <t>freqCenter</t>
+  </si>
+  <si>
+    <t>Module</t>
   </si>
 </sst>
 </file>
@@ -482,7 +592,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,8 +615,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +640,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +696,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,10 +727,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +752,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -919,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C985E-F91F-471A-B04D-0671E5EAB4DD}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
@@ -938,8 +1092,8 @@
         <v>94</v>
       </c>
       <c r="D1">
-        <f>COUNTA(A6:A501)</f>
-        <v>90</v>
+        <f>COUNTA(A6:A502)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,8 +1101,8 @@
         <v>95</v>
       </c>
       <c r="D2">
-        <f>D1-COUNTIF(D6:D501,TRUE)</f>
-        <v>25</v>
+        <f>D1-COUNTIF(D6:D502,TRUE)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,7 +1111,7 @@
       </c>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
-        <v>0.72222222222222221</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1610,11 +1764,11 @@
       <c r="A53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>45</v>
+      <c r="B53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -1623,10 +1777,10 @@
         <v>42</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="4"/>
     </row>
@@ -1635,36 +1789,34 @@
         <v>42</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" s="4" t="b">
         <v>1</v>
@@ -1675,10 +1827,10 @@
         <v>47</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" s="4" t="b">
         <v>1</v>
@@ -1689,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="4" t="b">
         <v>1</v>
@@ -1703,10 +1855,10 @@
         <v>47</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="4" t="b">
         <v>1</v>
@@ -1717,10 +1869,10 @@
         <v>47</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" s="4" t="b">
         <v>1</v>
@@ -1730,11 +1882,11 @@
       <c r="A62" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>35</v>
+      <c r="B62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D62" s="4" t="b">
         <v>1</v>
@@ -1744,11 +1896,11 @@
       <c r="A63" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>37</v>
+      <c r="B63" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D63" s="4" t="b">
         <v>1</v>
@@ -1759,10 +1911,10 @@
         <v>47</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D64" s="4" t="b">
         <v>1</v>
@@ -1773,22 +1925,24 @@
         <v>47</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D65" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D66" s="4"/>
     </row>
@@ -1797,10 +1951,10 @@
         <v>47</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D67" s="4"/>
     </row>
@@ -1809,36 +1963,34 @@
         <v>47</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" s="4" t="b">
         <v>1</v>
@@ -1849,10 +2001,10 @@
         <v>54</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" s="4" t="b">
         <v>1</v>
@@ -1863,10 +2015,10 @@
         <v>54</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="4" t="b">
         <v>1</v>
@@ -1877,10 +2029,10 @@
         <v>54</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" s="4" t="b">
         <v>1</v>
@@ -1891,10 +2043,10 @@
         <v>54</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74" s="4" t="b">
         <v>1</v>
@@ -1904,11 +2056,11 @@
       <c r="A75" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>35</v>
+      <c r="B75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D75" s="4" t="b">
         <v>1</v>
@@ -1918,11 +2070,11 @@
       <c r="A76" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>37</v>
+      <c r="B76" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D76" s="4" t="b">
         <v>1</v>
@@ -1933,10 +2085,10 @@
         <v>54</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D77" s="4" t="b">
         <v>1</v>
@@ -1947,10 +2099,10 @@
         <v>54</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D78" s="4" t="b">
         <v>1</v>
@@ -1961,10 +2113,10 @@
         <v>54</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D79" s="4" t="b">
         <v>1</v>
@@ -1975,48 +2127,48 @@
         <v>54</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="D80" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" s="4" t="b">
         <v>1</v>
@@ -2027,10 +2179,10 @@
         <v>60</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84" s="4" t="b">
         <v>1</v>
@@ -2041,10 +2193,10 @@
         <v>60</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85" s="4" t="b">
         <v>1</v>
@@ -2055,10 +2207,10 @@
         <v>60</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" s="4" t="b">
         <v>1</v>
@@ -2069,10 +2221,10 @@
         <v>60</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D87" s="4" t="b">
         <v>1</v>
@@ -2082,11 +2234,11 @@
       <c r="A88" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>35</v>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D88" s="4" t="b">
         <v>1</v>
@@ -2096,11 +2248,11 @@
       <c r="A89" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>37</v>
+      <c r="B89" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D89" s="4" t="b">
         <v>1</v>
@@ -2111,10 +2263,10 @@
         <v>60</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D90" s="4" t="b">
         <v>1</v>
@@ -2125,10 +2277,10 @@
         <v>60</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D91" s="4" t="b">
         <v>1</v>
@@ -2139,10 +2291,10 @@
         <v>60</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D92" s="4" t="b">
         <v>1</v>
@@ -2150,25 +2302,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D93" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D93" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D94" s="4"/>
     </row>
@@ -2177,12 +2331,24 @@
         <v>65</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D96" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,30 +2374,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="20"/>
       <c r="D1">
         <f>COUNTA(A6:A501)</f>
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="20"/>
       <c r="D2">
         <f>D1-COUNTIF(D6:D501,TRUE)</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
         <v>0.77777777777777779</v>
@@ -2704,12 +2870,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2786,12 +2952,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3055,4 +3221,5214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF93ECA-C690-4B39-9562-29175E5C2593}">
+  <dimension ref="A1:E214"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="4">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="4">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17">
+        <f>$C$2+(($C$1+C6)/2)</f>
+        <v>902.1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="D6" s="17">
+        <f>B6-(C6/2)</f>
+        <v>902.03750000000002</v>
+      </c>
+      <c r="E6" s="17">
+        <f>D6+C6</f>
+        <v>902.16250000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <f>A6+1</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="17">
+        <f>B6+$C$1+C7</f>
+        <v>902.30000000000007</v>
+      </c>
+      <c r="C7" s="17">
+        <f>C6</f>
+        <v>0.125</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" ref="D7:D70" si="0">B7-(C7/2)</f>
+        <v>902.23750000000007</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" ref="E7:E70" si="1">D7+C7</f>
+        <v>902.36250000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <f t="shared" ref="A8:A26" si="2">A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" ref="B8:B71" si="3">B7+$C$1+C8</f>
+        <v>902.50000000000011</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" ref="C8:C71" si="4">C7</f>
+        <v>0.125</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>902.43750000000011</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="1"/>
+        <v>902.56250000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="3"/>
+        <v>902.70000000000016</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>902.63750000000016</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="1"/>
+        <v>902.76250000000016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="3"/>
+        <v>902.9000000000002</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>902.8375000000002</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="1"/>
+        <v>902.9625000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" si="3"/>
+        <v>903.10000000000025</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>903.03750000000025</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="1"/>
+        <v>903.16250000000025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="3"/>
+        <v>903.3000000000003</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>903.2375000000003</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="1"/>
+        <v>903.3625000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="3"/>
+        <v>903.50000000000034</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="0"/>
+        <v>903.43750000000034</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="1"/>
+        <v>903.56250000000034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="3"/>
+        <v>903.70000000000039</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="0"/>
+        <v>903.63750000000039</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="1"/>
+        <v>903.76250000000039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="3"/>
+        <v>903.90000000000043</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="0"/>
+        <v>903.83750000000043</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="1"/>
+        <v>903.96250000000043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="3"/>
+        <v>904.10000000000048</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="0"/>
+        <v>904.03750000000048</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>904.16250000000048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="3"/>
+        <v>904.30000000000052</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="0"/>
+        <v>904.23750000000052</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="1"/>
+        <v>904.36250000000052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="3"/>
+        <v>904.50000000000057</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D18" s="17">
+        <f t="shared" si="0"/>
+        <v>904.43750000000057</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="1"/>
+        <v>904.56250000000057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="17">
+        <f t="shared" si="3"/>
+        <v>904.70000000000061</v>
+      </c>
+      <c r="C19" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="0"/>
+        <v>904.63750000000061</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="1"/>
+        <v>904.76250000000061</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" si="3"/>
+        <v>904.90000000000066</v>
+      </c>
+      <c r="C20" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D20" s="17">
+        <f t="shared" si="0"/>
+        <v>904.83750000000066</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" si="1"/>
+        <v>904.96250000000066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="3"/>
+        <v>905.1000000000007</v>
+      </c>
+      <c r="C21" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D21" s="17">
+        <f t="shared" si="0"/>
+        <v>905.0375000000007</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="1"/>
+        <v>905.1625000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="3"/>
+        <v>905.30000000000075</v>
+      </c>
+      <c r="C22" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D22" s="17">
+        <f t="shared" si="0"/>
+        <v>905.23750000000075</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="1"/>
+        <v>905.36250000000075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="3"/>
+        <v>905.5000000000008</v>
+      </c>
+      <c r="C23" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" si="0"/>
+        <v>905.4375000000008</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="1"/>
+        <v>905.5625000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="3"/>
+        <v>905.70000000000084</v>
+      </c>
+      <c r="C24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D24" s="17">
+        <f t="shared" si="0"/>
+        <v>905.63750000000084</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="1"/>
+        <v>905.76250000000084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="3"/>
+        <v>905.90000000000089</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="0"/>
+        <v>905.83750000000089</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="1"/>
+        <v>905.96250000000089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="3"/>
+        <v>906.10000000000093</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="0"/>
+        <v>906.03750000000093</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="1"/>
+        <v>906.16250000000093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <f t="shared" ref="A27:A65" si="5">A26+1</f>
+        <v>21</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="3"/>
+        <v>906.30000000000098</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="0"/>
+        <v>906.23750000000098</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="1"/>
+        <v>906.36250000000098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="17">
+        <f t="shared" si="3"/>
+        <v>906.50000000000102</v>
+      </c>
+      <c r="C28" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="0"/>
+        <v>906.43750000000102</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="1"/>
+        <v>906.56250000000102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" si="3"/>
+        <v>906.70000000000107</v>
+      </c>
+      <c r="C29" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="0"/>
+        <v>906.63750000000107</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" si="1"/>
+        <v>906.76250000000107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="3"/>
+        <v>906.90000000000111</v>
+      </c>
+      <c r="C30" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="0"/>
+        <v>906.83750000000111</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="1"/>
+        <v>906.96250000000111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="3"/>
+        <v>907.10000000000116</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="0"/>
+        <v>907.03750000000116</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="1"/>
+        <v>907.16250000000116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="3"/>
+        <v>907.30000000000121</v>
+      </c>
+      <c r="C32" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="0"/>
+        <v>907.23750000000121</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="1"/>
+        <v>907.36250000000121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="3"/>
+        <v>907.50000000000125</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="0"/>
+        <v>907.43750000000125</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="1"/>
+        <v>907.56250000000125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="3"/>
+        <v>907.7000000000013</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="0"/>
+        <v>907.6375000000013</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="1"/>
+        <v>907.7625000000013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="3"/>
+        <v>907.90000000000134</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="0"/>
+        <v>907.83750000000134</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="1"/>
+        <v>907.96250000000134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="17">
+        <f t="shared" si="3"/>
+        <v>908.10000000000139</v>
+      </c>
+      <c r="C36" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="0"/>
+        <v>908.03750000000139</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="1"/>
+        <v>908.16250000000139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="17">
+        <f t="shared" si="3"/>
+        <v>908.30000000000143</v>
+      </c>
+      <c r="C37" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="0"/>
+        <v>908.23750000000143</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="1"/>
+        <v>908.36250000000143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" si="3"/>
+        <v>908.50000000000148</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="0"/>
+        <v>908.43750000000148</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="1"/>
+        <v>908.56250000000148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="17">
+        <f t="shared" si="3"/>
+        <v>908.70000000000152</v>
+      </c>
+      <c r="C39" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="0"/>
+        <v>908.63750000000152</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="1"/>
+        <v>908.76250000000152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="17">
+        <f t="shared" si="3"/>
+        <v>908.90000000000157</v>
+      </c>
+      <c r="C40" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="0"/>
+        <v>908.83750000000157</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="1"/>
+        <v>908.96250000000157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="17">
+        <f t="shared" si="3"/>
+        <v>909.10000000000161</v>
+      </c>
+      <c r="C41" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="0"/>
+        <v>909.03750000000161</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="1"/>
+        <v>909.16250000000161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="17">
+        <f t="shared" si="3"/>
+        <v>909.30000000000166</v>
+      </c>
+      <c r="C42" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="0"/>
+        <v>909.23750000000166</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="1"/>
+        <v>909.36250000000166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="17">
+        <f t="shared" si="3"/>
+        <v>909.50000000000171</v>
+      </c>
+      <c r="C43" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="0"/>
+        <v>909.43750000000171</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" si="1"/>
+        <v>909.56250000000171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="3"/>
+        <v>909.70000000000175</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="0"/>
+        <v>909.63750000000175</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" si="1"/>
+        <v>909.76250000000175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="17">
+        <f t="shared" si="3"/>
+        <v>909.9000000000018</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="0"/>
+        <v>909.8375000000018</v>
+      </c>
+      <c r="E45" s="17">
+        <f t="shared" si="1"/>
+        <v>909.9625000000018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="17">
+        <f t="shared" si="3"/>
+        <v>910.10000000000184</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="0"/>
+        <v>910.03750000000184</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" si="1"/>
+        <v>910.16250000000184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="17">
+        <f t="shared" si="3"/>
+        <v>910.30000000000189</v>
+      </c>
+      <c r="C47" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="0"/>
+        <v>910.23750000000189</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" si="1"/>
+        <v>910.36250000000189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="17">
+        <f t="shared" si="3"/>
+        <v>910.50000000000193</v>
+      </c>
+      <c r="C48" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="0"/>
+        <v>910.43750000000193</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" si="1"/>
+        <v>910.56250000000193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="17">
+        <f t="shared" si="3"/>
+        <v>910.70000000000198</v>
+      </c>
+      <c r="C49" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="0"/>
+        <v>910.63750000000198</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" si="1"/>
+        <v>910.76250000000198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="B50" s="17">
+        <f t="shared" si="3"/>
+        <v>910.90000000000202</v>
+      </c>
+      <c r="C50" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="0"/>
+        <v>910.83750000000202</v>
+      </c>
+      <c r="E50" s="17">
+        <f t="shared" si="1"/>
+        <v>910.96250000000202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="B51" s="17">
+        <f t="shared" si="3"/>
+        <v>911.10000000000207</v>
+      </c>
+      <c r="C51" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="0"/>
+        <v>911.03750000000207</v>
+      </c>
+      <c r="E51" s="17">
+        <f t="shared" si="1"/>
+        <v>911.16250000000207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="B52" s="17">
+        <f t="shared" si="3"/>
+        <v>911.30000000000211</v>
+      </c>
+      <c r="C52" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="0"/>
+        <v>911.23750000000211</v>
+      </c>
+      <c r="E52" s="17">
+        <f t="shared" si="1"/>
+        <v>911.36250000000211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="B53" s="17">
+        <f t="shared" si="3"/>
+        <v>911.50000000000216</v>
+      </c>
+      <c r="C53" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="0"/>
+        <v>911.43750000000216</v>
+      </c>
+      <c r="E53" s="17">
+        <f t="shared" si="1"/>
+        <v>911.56250000000216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="B54" s="17">
+        <f t="shared" si="3"/>
+        <v>911.70000000000221</v>
+      </c>
+      <c r="C54" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="0"/>
+        <v>911.63750000000221</v>
+      </c>
+      <c r="E54" s="17">
+        <f t="shared" si="1"/>
+        <v>911.76250000000221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="B55" s="17">
+        <f t="shared" si="3"/>
+        <v>911.90000000000225</v>
+      </c>
+      <c r="C55" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="0"/>
+        <v>911.83750000000225</v>
+      </c>
+      <c r="E55" s="17">
+        <f t="shared" si="1"/>
+        <v>911.96250000000225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="B56" s="17">
+        <f t="shared" si="3"/>
+        <v>912.1000000000023</v>
+      </c>
+      <c r="C56" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="0"/>
+        <v>912.0375000000023</v>
+      </c>
+      <c r="E56" s="17">
+        <f t="shared" si="1"/>
+        <v>912.1625000000023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="B57" s="17">
+        <f t="shared" si="3"/>
+        <v>912.30000000000234</v>
+      </c>
+      <c r="C57" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="0"/>
+        <v>912.23750000000234</v>
+      </c>
+      <c r="E57" s="17">
+        <f t="shared" si="1"/>
+        <v>912.36250000000234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="B58" s="17">
+        <f t="shared" si="3"/>
+        <v>912.50000000000239</v>
+      </c>
+      <c r="C58" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="0"/>
+        <v>912.43750000000239</v>
+      </c>
+      <c r="E58" s="17">
+        <f t="shared" si="1"/>
+        <v>912.56250000000239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="B59" s="17">
+        <f t="shared" si="3"/>
+        <v>912.70000000000243</v>
+      </c>
+      <c r="C59" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="0"/>
+        <v>912.63750000000243</v>
+      </c>
+      <c r="E59" s="17">
+        <f t="shared" si="1"/>
+        <v>912.76250000000243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="B60" s="17">
+        <f t="shared" si="3"/>
+        <v>912.90000000000248</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="0"/>
+        <v>912.83750000000248</v>
+      </c>
+      <c r="E60" s="17">
+        <f t="shared" si="1"/>
+        <v>912.96250000000248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="B61" s="17">
+        <f t="shared" si="3"/>
+        <v>913.10000000000252</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" si="0"/>
+        <v>913.03750000000252</v>
+      </c>
+      <c r="E61" s="17">
+        <f t="shared" si="1"/>
+        <v>913.16250000000252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="B62" s="17">
+        <f t="shared" si="3"/>
+        <v>913.30000000000257</v>
+      </c>
+      <c r="C62" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D62" s="17">
+        <f t="shared" si="0"/>
+        <v>913.23750000000257</v>
+      </c>
+      <c r="E62" s="17">
+        <f t="shared" si="1"/>
+        <v>913.36250000000257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="17">
+        <f t="shared" si="3"/>
+        <v>913.50000000000261</v>
+      </c>
+      <c r="C63" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D63" s="17">
+        <f t="shared" si="0"/>
+        <v>913.43750000000261</v>
+      </c>
+      <c r="E63" s="17">
+        <f t="shared" si="1"/>
+        <v>913.56250000000261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="B64" s="17">
+        <f t="shared" si="3"/>
+        <v>913.70000000000266</v>
+      </c>
+      <c r="C64" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D64" s="17">
+        <f t="shared" si="0"/>
+        <v>913.63750000000266</v>
+      </c>
+      <c r="E64" s="17">
+        <f t="shared" si="1"/>
+        <v>913.76250000000266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="B65" s="17">
+        <f t="shared" si="3"/>
+        <v>913.90000000000271</v>
+      </c>
+      <c r="C65" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D65" s="17">
+        <f t="shared" si="0"/>
+        <v>913.83750000000271</v>
+      </c>
+      <c r="E65" s="17">
+        <f t="shared" si="1"/>
+        <v>913.96250000000271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <f t="shared" ref="A66:A69" si="6">A65+1</f>
+        <v>60</v>
+      </c>
+      <c r="B66" s="17">
+        <f t="shared" si="3"/>
+        <v>914.10000000000275</v>
+      </c>
+      <c r="C66" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D66" s="17">
+        <f t="shared" si="0"/>
+        <v>914.03750000000275</v>
+      </c>
+      <c r="E66" s="17">
+        <f t="shared" si="1"/>
+        <v>914.16250000000275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="B67" s="17">
+        <f t="shared" si="3"/>
+        <v>914.3000000000028</v>
+      </c>
+      <c r="C67" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D67" s="17">
+        <f t="shared" si="0"/>
+        <v>914.2375000000028</v>
+      </c>
+      <c r="E67" s="17">
+        <f t="shared" si="1"/>
+        <v>914.3625000000028</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="B68" s="17">
+        <f t="shared" si="3"/>
+        <v>914.50000000000284</v>
+      </c>
+      <c r="C68" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D68" s="17">
+        <f t="shared" si="0"/>
+        <v>914.43750000000284</v>
+      </c>
+      <c r="E68" s="17">
+        <f t="shared" si="1"/>
+        <v>914.56250000000284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="B69" s="17">
+        <f t="shared" si="3"/>
+        <v>914.70000000000289</v>
+      </c>
+      <c r="C69" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D69" s="17">
+        <f t="shared" si="0"/>
+        <v>914.63750000000289</v>
+      </c>
+      <c r="E69" s="17">
+        <f t="shared" si="1"/>
+        <v>914.76250000000289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <f t="shared" ref="A70:A108" si="7">A69+1</f>
+        <v>64</v>
+      </c>
+      <c r="B70" s="17">
+        <f t="shared" si="3"/>
+        <v>914.90000000000293</v>
+      </c>
+      <c r="C70" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D70" s="17">
+        <f t="shared" si="0"/>
+        <v>914.83750000000293</v>
+      </c>
+      <c r="E70" s="17">
+        <f t="shared" si="1"/>
+        <v>914.96250000000293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="B71" s="17">
+        <f t="shared" si="3"/>
+        <v>915.10000000000298</v>
+      </c>
+      <c r="C71" s="17">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="D71" s="17">
+        <f t="shared" ref="D71:D134" si="8">B71-(C71/2)</f>
+        <v>915.03750000000298</v>
+      </c>
+      <c r="E71" s="17">
+        <f t="shared" ref="E71:E134" si="9">D71+C71</f>
+        <v>915.16250000000298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="B72" s="17">
+        <f t="shared" ref="B72:B135" si="10">B71+$C$1+C72</f>
+        <v>915.30000000000302</v>
+      </c>
+      <c r="C72" s="17">
+        <f t="shared" ref="C72:C135" si="11">C71</f>
+        <v>0.125</v>
+      </c>
+      <c r="D72" s="17">
+        <f t="shared" si="8"/>
+        <v>915.23750000000302</v>
+      </c>
+      <c r="E72" s="17">
+        <f t="shared" si="9"/>
+        <v>915.36250000000302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="B73" s="17">
+        <f t="shared" si="10"/>
+        <v>915.50000000000307</v>
+      </c>
+      <c r="C73" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D73" s="17">
+        <f t="shared" si="8"/>
+        <v>915.43750000000307</v>
+      </c>
+      <c r="E73" s="17">
+        <f t="shared" si="9"/>
+        <v>915.56250000000307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="B74" s="17">
+        <f t="shared" si="10"/>
+        <v>915.70000000000312</v>
+      </c>
+      <c r="C74" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D74" s="17">
+        <f t="shared" si="8"/>
+        <v>915.63750000000312</v>
+      </c>
+      <c r="E74" s="17">
+        <f t="shared" si="9"/>
+        <v>915.76250000000312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="B75" s="17">
+        <f t="shared" si="10"/>
+        <v>915.90000000000316</v>
+      </c>
+      <c r="C75" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D75" s="17">
+        <f t="shared" si="8"/>
+        <v>915.83750000000316</v>
+      </c>
+      <c r="E75" s="17">
+        <f t="shared" si="9"/>
+        <v>915.96250000000316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="B76" s="17">
+        <f t="shared" si="10"/>
+        <v>916.10000000000321</v>
+      </c>
+      <c r="C76" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D76" s="17">
+        <f t="shared" si="8"/>
+        <v>916.03750000000321</v>
+      </c>
+      <c r="E76" s="17">
+        <f t="shared" si="9"/>
+        <v>916.16250000000321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="B77" s="17">
+        <f t="shared" si="10"/>
+        <v>916.30000000000325</v>
+      </c>
+      <c r="C77" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D77" s="17">
+        <f t="shared" si="8"/>
+        <v>916.23750000000325</v>
+      </c>
+      <c r="E77" s="17">
+        <f t="shared" si="9"/>
+        <v>916.36250000000325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="B78" s="17">
+        <f t="shared" si="10"/>
+        <v>916.5000000000033</v>
+      </c>
+      <c r="C78" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D78" s="17">
+        <f t="shared" si="8"/>
+        <v>916.4375000000033</v>
+      </c>
+      <c r="E78" s="17">
+        <f t="shared" si="9"/>
+        <v>916.5625000000033</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="B79" s="17">
+        <f t="shared" si="10"/>
+        <v>916.70000000000334</v>
+      </c>
+      <c r="C79" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D79" s="17">
+        <f t="shared" si="8"/>
+        <v>916.63750000000334</v>
+      </c>
+      <c r="E79" s="17">
+        <f t="shared" si="9"/>
+        <v>916.76250000000334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="B80" s="17">
+        <f t="shared" si="10"/>
+        <v>916.90000000000339</v>
+      </c>
+      <c r="C80" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D80" s="17">
+        <f t="shared" si="8"/>
+        <v>916.83750000000339</v>
+      </c>
+      <c r="E80" s="17">
+        <f t="shared" si="9"/>
+        <v>916.96250000000339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="B81" s="17">
+        <f t="shared" si="10"/>
+        <v>917.10000000000343</v>
+      </c>
+      <c r="C81" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D81" s="17">
+        <f t="shared" si="8"/>
+        <v>917.03750000000343</v>
+      </c>
+      <c r="E81" s="17">
+        <f t="shared" si="9"/>
+        <v>917.16250000000343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="B82" s="17">
+        <f t="shared" si="10"/>
+        <v>917.30000000000348</v>
+      </c>
+      <c r="C82" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D82" s="17">
+        <f t="shared" si="8"/>
+        <v>917.23750000000348</v>
+      </c>
+      <c r="E82" s="17">
+        <f t="shared" si="9"/>
+        <v>917.36250000000348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="B83" s="17">
+        <f t="shared" si="10"/>
+        <v>917.50000000000352</v>
+      </c>
+      <c r="C83" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D83" s="17">
+        <f t="shared" si="8"/>
+        <v>917.43750000000352</v>
+      </c>
+      <c r="E83" s="17">
+        <f t="shared" si="9"/>
+        <v>917.56250000000352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="B84" s="17">
+        <f t="shared" si="10"/>
+        <v>917.70000000000357</v>
+      </c>
+      <c r="C84" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D84" s="17">
+        <f t="shared" si="8"/>
+        <v>917.63750000000357</v>
+      </c>
+      <c r="E84" s="17">
+        <f t="shared" si="9"/>
+        <v>917.76250000000357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="B85" s="17">
+        <f t="shared" si="10"/>
+        <v>917.90000000000362</v>
+      </c>
+      <c r="C85" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D85" s="17">
+        <f t="shared" si="8"/>
+        <v>917.83750000000362</v>
+      </c>
+      <c r="E85" s="17">
+        <f t="shared" si="9"/>
+        <v>917.96250000000362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="B86" s="17">
+        <f t="shared" si="10"/>
+        <v>918.10000000000366</v>
+      </c>
+      <c r="C86" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D86" s="17">
+        <f t="shared" si="8"/>
+        <v>918.03750000000366</v>
+      </c>
+      <c r="E86" s="17">
+        <f t="shared" si="9"/>
+        <v>918.16250000000366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="17">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="B87" s="17">
+        <f t="shared" si="10"/>
+        <v>918.30000000000371</v>
+      </c>
+      <c r="C87" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D87" s="17">
+        <f t="shared" si="8"/>
+        <v>918.23750000000371</v>
+      </c>
+      <c r="E87" s="17">
+        <f t="shared" si="9"/>
+        <v>918.36250000000371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="17">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="B88" s="17">
+        <f t="shared" si="10"/>
+        <v>918.50000000000375</v>
+      </c>
+      <c r="C88" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D88" s="17">
+        <f t="shared" si="8"/>
+        <v>918.43750000000375</v>
+      </c>
+      <c r="E88" s="17">
+        <f t="shared" si="9"/>
+        <v>918.56250000000375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="17">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="B89" s="17">
+        <f t="shared" si="10"/>
+        <v>918.7000000000038</v>
+      </c>
+      <c r="C89" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D89" s="17">
+        <f t="shared" si="8"/>
+        <v>918.6375000000038</v>
+      </c>
+      <c r="E89" s="17">
+        <f t="shared" si="9"/>
+        <v>918.7625000000038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="17">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="B90" s="17">
+        <f t="shared" si="10"/>
+        <v>918.90000000000384</v>
+      </c>
+      <c r="C90" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D90" s="17">
+        <f t="shared" si="8"/>
+        <v>918.83750000000384</v>
+      </c>
+      <c r="E90" s="17">
+        <f t="shared" si="9"/>
+        <v>918.96250000000384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="17">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="B91" s="17">
+        <f t="shared" si="10"/>
+        <v>919.10000000000389</v>
+      </c>
+      <c r="C91" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D91" s="17">
+        <f t="shared" si="8"/>
+        <v>919.03750000000389</v>
+      </c>
+      <c r="E91" s="17">
+        <f t="shared" si="9"/>
+        <v>919.16250000000389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="17">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="B92" s="17">
+        <f t="shared" si="10"/>
+        <v>919.30000000000393</v>
+      </c>
+      <c r="C92" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D92" s="17">
+        <f t="shared" si="8"/>
+        <v>919.23750000000393</v>
+      </c>
+      <c r="E92" s="17">
+        <f t="shared" si="9"/>
+        <v>919.36250000000393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="B93" s="17">
+        <f t="shared" si="10"/>
+        <v>919.50000000000398</v>
+      </c>
+      <c r="C93" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D93" s="17">
+        <f t="shared" si="8"/>
+        <v>919.43750000000398</v>
+      </c>
+      <c r="E93" s="17">
+        <f t="shared" si="9"/>
+        <v>919.56250000000398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="17">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="B94" s="17">
+        <f t="shared" si="10"/>
+        <v>919.70000000000402</v>
+      </c>
+      <c r="C94" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D94" s="17">
+        <f t="shared" si="8"/>
+        <v>919.63750000000402</v>
+      </c>
+      <c r="E94" s="17">
+        <f t="shared" si="9"/>
+        <v>919.76250000000402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="B95" s="17">
+        <f t="shared" si="10"/>
+        <v>919.90000000000407</v>
+      </c>
+      <c r="C95" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D95" s="17">
+        <f t="shared" si="8"/>
+        <v>919.83750000000407</v>
+      </c>
+      <c r="E95" s="17">
+        <f t="shared" si="9"/>
+        <v>919.96250000000407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="17">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="B96" s="17">
+        <f t="shared" si="10"/>
+        <v>920.10000000000412</v>
+      </c>
+      <c r="C96" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D96" s="17">
+        <f t="shared" si="8"/>
+        <v>920.03750000000412</v>
+      </c>
+      <c r="E96" s="17">
+        <f t="shared" si="9"/>
+        <v>920.16250000000412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="17">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="B97" s="17">
+        <f t="shared" si="10"/>
+        <v>920.30000000000416</v>
+      </c>
+      <c r="C97" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D97" s="17">
+        <f t="shared" si="8"/>
+        <v>920.23750000000416</v>
+      </c>
+      <c r="E97" s="17">
+        <f t="shared" si="9"/>
+        <v>920.36250000000416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="17">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="B98" s="17">
+        <f t="shared" si="10"/>
+        <v>920.50000000000421</v>
+      </c>
+      <c r="C98" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D98" s="17">
+        <f t="shared" si="8"/>
+        <v>920.43750000000421</v>
+      </c>
+      <c r="E98" s="17">
+        <f t="shared" si="9"/>
+        <v>920.56250000000421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="17">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="B99" s="17">
+        <f t="shared" si="10"/>
+        <v>920.70000000000425</v>
+      </c>
+      <c r="C99" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D99" s="17">
+        <f t="shared" si="8"/>
+        <v>920.63750000000425</v>
+      </c>
+      <c r="E99" s="17">
+        <f t="shared" si="9"/>
+        <v>920.76250000000425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="17">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="B100" s="17">
+        <f t="shared" si="10"/>
+        <v>920.9000000000043</v>
+      </c>
+      <c r="C100" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D100" s="17">
+        <f t="shared" si="8"/>
+        <v>920.8375000000043</v>
+      </c>
+      <c r="E100" s="17">
+        <f t="shared" si="9"/>
+        <v>920.9625000000043</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="B101" s="17">
+        <f t="shared" si="10"/>
+        <v>921.10000000000434</v>
+      </c>
+      <c r="C101" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D101" s="17">
+        <f t="shared" si="8"/>
+        <v>921.03750000000434</v>
+      </c>
+      <c r="E101" s="17">
+        <f t="shared" si="9"/>
+        <v>921.16250000000434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="B102" s="17">
+        <f t="shared" si="10"/>
+        <v>921.30000000000439</v>
+      </c>
+      <c r="C102" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D102" s="17">
+        <f t="shared" si="8"/>
+        <v>921.23750000000439</v>
+      </c>
+      <c r="E102" s="17">
+        <f t="shared" si="9"/>
+        <v>921.36250000000439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="17">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="B103" s="17">
+        <f t="shared" si="10"/>
+        <v>921.50000000000443</v>
+      </c>
+      <c r="C103" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D103" s="17">
+        <f t="shared" si="8"/>
+        <v>921.43750000000443</v>
+      </c>
+      <c r="E103" s="17">
+        <f t="shared" si="9"/>
+        <v>921.56250000000443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="17">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="B104" s="17">
+        <f t="shared" si="10"/>
+        <v>921.70000000000448</v>
+      </c>
+      <c r="C104" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D104" s="17">
+        <f t="shared" si="8"/>
+        <v>921.63750000000448</v>
+      </c>
+      <c r="E104" s="17">
+        <f t="shared" si="9"/>
+        <v>921.76250000000448</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="17">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="B105" s="17">
+        <f t="shared" si="10"/>
+        <v>921.90000000000452</v>
+      </c>
+      <c r="C105" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D105" s="17">
+        <f t="shared" si="8"/>
+        <v>921.83750000000452</v>
+      </c>
+      <c r="E105" s="17">
+        <f t="shared" si="9"/>
+        <v>921.96250000000452</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="B106" s="17">
+        <f t="shared" si="10"/>
+        <v>922.10000000000457</v>
+      </c>
+      <c r="C106" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D106" s="17">
+        <f t="shared" si="8"/>
+        <v>922.03750000000457</v>
+      </c>
+      <c r="E106" s="17">
+        <f t="shared" si="9"/>
+        <v>922.16250000000457</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="17">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="B107" s="17">
+        <f t="shared" si="10"/>
+        <v>922.30000000000462</v>
+      </c>
+      <c r="C107" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D107" s="17">
+        <f t="shared" si="8"/>
+        <v>922.23750000000462</v>
+      </c>
+      <c r="E107" s="17">
+        <f t="shared" si="9"/>
+        <v>922.36250000000462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="17">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="B108" s="17">
+        <f t="shared" si="10"/>
+        <v>922.50000000000466</v>
+      </c>
+      <c r="C108" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D108" s="17">
+        <f t="shared" si="8"/>
+        <v>922.43750000000466</v>
+      </c>
+      <c r="E108" s="17">
+        <f t="shared" si="9"/>
+        <v>922.56250000000466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="17">
+        <f t="shared" ref="A109:A126" si="12">A108+1</f>
+        <v>103</v>
+      </c>
+      <c r="B109" s="17">
+        <f t="shared" si="10"/>
+        <v>922.70000000000471</v>
+      </c>
+      <c r="C109" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D109" s="17">
+        <f t="shared" si="8"/>
+        <v>922.63750000000471</v>
+      </c>
+      <c r="E109" s="17">
+        <f t="shared" si="9"/>
+        <v>922.76250000000471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="17">
+        <f t="shared" si="12"/>
+        <v>104</v>
+      </c>
+      <c r="B110" s="17">
+        <f t="shared" si="10"/>
+        <v>922.90000000000475</v>
+      </c>
+      <c r="C110" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D110" s="17">
+        <f t="shared" si="8"/>
+        <v>922.83750000000475</v>
+      </c>
+      <c r="E110" s="17">
+        <f t="shared" si="9"/>
+        <v>922.96250000000475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="17">
+        <f t="shared" si="12"/>
+        <v>105</v>
+      </c>
+      <c r="B111" s="17">
+        <f t="shared" si="10"/>
+        <v>923.1000000000048</v>
+      </c>
+      <c r="C111" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D111" s="17">
+        <f t="shared" si="8"/>
+        <v>923.0375000000048</v>
+      </c>
+      <c r="E111" s="17">
+        <f t="shared" si="9"/>
+        <v>923.1625000000048</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="17">
+        <f t="shared" si="12"/>
+        <v>106</v>
+      </c>
+      <c r="B112" s="17">
+        <f t="shared" si="10"/>
+        <v>923.30000000000484</v>
+      </c>
+      <c r="C112" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D112" s="17">
+        <f t="shared" si="8"/>
+        <v>923.23750000000484</v>
+      </c>
+      <c r="E112" s="17">
+        <f t="shared" si="9"/>
+        <v>923.36250000000484</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="17">
+        <f t="shared" si="12"/>
+        <v>107</v>
+      </c>
+      <c r="B113" s="17">
+        <f t="shared" si="10"/>
+        <v>923.50000000000489</v>
+      </c>
+      <c r="C113" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D113" s="17">
+        <f t="shared" si="8"/>
+        <v>923.43750000000489</v>
+      </c>
+      <c r="E113" s="17">
+        <f t="shared" si="9"/>
+        <v>923.56250000000489</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="17">
+        <f t="shared" si="12"/>
+        <v>108</v>
+      </c>
+      <c r="B114" s="17">
+        <f t="shared" si="10"/>
+        <v>923.70000000000493</v>
+      </c>
+      <c r="C114" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D114" s="17">
+        <f t="shared" si="8"/>
+        <v>923.63750000000493</v>
+      </c>
+      <c r="E114" s="17">
+        <f t="shared" si="9"/>
+        <v>923.76250000000493</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="17">
+        <f t="shared" si="12"/>
+        <v>109</v>
+      </c>
+      <c r="B115" s="17">
+        <f t="shared" si="10"/>
+        <v>923.90000000000498</v>
+      </c>
+      <c r="C115" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D115" s="17">
+        <f t="shared" si="8"/>
+        <v>923.83750000000498</v>
+      </c>
+      <c r="E115" s="17">
+        <f t="shared" si="9"/>
+        <v>923.96250000000498</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="17">
+        <f t="shared" si="12"/>
+        <v>110</v>
+      </c>
+      <c r="B116" s="17">
+        <f t="shared" si="10"/>
+        <v>924.10000000000502</v>
+      </c>
+      <c r="C116" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D116" s="17">
+        <f t="shared" si="8"/>
+        <v>924.03750000000502</v>
+      </c>
+      <c r="E116" s="17">
+        <f t="shared" si="9"/>
+        <v>924.16250000000502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="17">
+        <f t="shared" si="12"/>
+        <v>111</v>
+      </c>
+      <c r="B117" s="17">
+        <f t="shared" si="10"/>
+        <v>924.30000000000507</v>
+      </c>
+      <c r="C117" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D117" s="17">
+        <f t="shared" si="8"/>
+        <v>924.23750000000507</v>
+      </c>
+      <c r="E117" s="17">
+        <f t="shared" si="9"/>
+        <v>924.36250000000507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="17">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="B118" s="17">
+        <f t="shared" si="10"/>
+        <v>924.50000000000512</v>
+      </c>
+      <c r="C118" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D118" s="17">
+        <f t="shared" si="8"/>
+        <v>924.43750000000512</v>
+      </c>
+      <c r="E118" s="17">
+        <f t="shared" si="9"/>
+        <v>924.56250000000512</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="17">
+        <f t="shared" si="12"/>
+        <v>113</v>
+      </c>
+      <c r="B119" s="17">
+        <f t="shared" si="10"/>
+        <v>924.70000000000516</v>
+      </c>
+      <c r="C119" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D119" s="17">
+        <f t="shared" si="8"/>
+        <v>924.63750000000516</v>
+      </c>
+      <c r="E119" s="17">
+        <f t="shared" si="9"/>
+        <v>924.76250000000516</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="17">
+        <f t="shared" si="12"/>
+        <v>114</v>
+      </c>
+      <c r="B120" s="17">
+        <f t="shared" si="10"/>
+        <v>924.90000000000521</v>
+      </c>
+      <c r="C120" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D120" s="17">
+        <f t="shared" si="8"/>
+        <v>924.83750000000521</v>
+      </c>
+      <c r="E120" s="17">
+        <f t="shared" si="9"/>
+        <v>924.96250000000521</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="17">
+        <f t="shared" si="12"/>
+        <v>115</v>
+      </c>
+      <c r="B121" s="17">
+        <f t="shared" si="10"/>
+        <v>925.10000000000525</v>
+      </c>
+      <c r="C121" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D121" s="17">
+        <f t="shared" si="8"/>
+        <v>925.03750000000525</v>
+      </c>
+      <c r="E121" s="17">
+        <f t="shared" si="9"/>
+        <v>925.16250000000525</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="17">
+        <f t="shared" si="12"/>
+        <v>116</v>
+      </c>
+      <c r="B122" s="17">
+        <f t="shared" si="10"/>
+        <v>925.3000000000053</v>
+      </c>
+      <c r="C122" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D122" s="17">
+        <f t="shared" si="8"/>
+        <v>925.2375000000053</v>
+      </c>
+      <c r="E122" s="17">
+        <f t="shared" si="9"/>
+        <v>925.3625000000053</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="17">
+        <f t="shared" si="12"/>
+        <v>117</v>
+      </c>
+      <c r="B123" s="17">
+        <f t="shared" si="10"/>
+        <v>925.50000000000534</v>
+      </c>
+      <c r="C123" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D123" s="17">
+        <f t="shared" si="8"/>
+        <v>925.43750000000534</v>
+      </c>
+      <c r="E123" s="17">
+        <f t="shared" si="9"/>
+        <v>925.56250000000534</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="17">
+        <f t="shared" si="12"/>
+        <v>118</v>
+      </c>
+      <c r="B124" s="17">
+        <f t="shared" si="10"/>
+        <v>925.70000000000539</v>
+      </c>
+      <c r="C124" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D124" s="17">
+        <f t="shared" si="8"/>
+        <v>925.63750000000539</v>
+      </c>
+      <c r="E124" s="17">
+        <f t="shared" si="9"/>
+        <v>925.76250000000539</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="17">
+        <f t="shared" si="12"/>
+        <v>119</v>
+      </c>
+      <c r="B125" s="17">
+        <f t="shared" si="10"/>
+        <v>925.90000000000543</v>
+      </c>
+      <c r="C125" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D125" s="17">
+        <f t="shared" si="8"/>
+        <v>925.83750000000543</v>
+      </c>
+      <c r="E125" s="17">
+        <f t="shared" si="9"/>
+        <v>925.96250000000543</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="17">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="B126" s="17">
+        <f t="shared" si="10"/>
+        <v>926.10000000000548</v>
+      </c>
+      <c r="C126" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D126" s="17">
+        <f t="shared" si="8"/>
+        <v>926.03750000000548</v>
+      </c>
+      <c r="E126" s="17">
+        <f t="shared" si="9"/>
+        <v>926.16250000000548</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="17">
+        <f t="shared" ref="A127:A145" si="13">A126+1</f>
+        <v>121</v>
+      </c>
+      <c r="B127" s="17">
+        <f t="shared" si="10"/>
+        <v>926.30000000000553</v>
+      </c>
+      <c r="C127" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D127" s="17">
+        <f t="shared" si="8"/>
+        <v>926.23750000000553</v>
+      </c>
+      <c r="E127" s="17">
+        <f t="shared" si="9"/>
+        <v>926.36250000000553</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="17">
+        <f t="shared" si="13"/>
+        <v>122</v>
+      </c>
+      <c r="B128" s="17">
+        <f t="shared" si="10"/>
+        <v>926.50000000000557</v>
+      </c>
+      <c r="C128" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D128" s="17">
+        <f t="shared" si="8"/>
+        <v>926.43750000000557</v>
+      </c>
+      <c r="E128" s="17">
+        <f t="shared" si="9"/>
+        <v>926.56250000000557</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="17">
+        <f t="shared" si="13"/>
+        <v>123</v>
+      </c>
+      <c r="B129" s="17">
+        <f t="shared" si="10"/>
+        <v>926.70000000000562</v>
+      </c>
+      <c r="C129" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D129" s="17">
+        <f t="shared" si="8"/>
+        <v>926.63750000000562</v>
+      </c>
+      <c r="E129" s="17">
+        <f t="shared" si="9"/>
+        <v>926.76250000000562</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="17">
+        <f t="shared" si="13"/>
+        <v>124</v>
+      </c>
+      <c r="B130" s="17">
+        <f t="shared" si="10"/>
+        <v>926.90000000000566</v>
+      </c>
+      <c r="C130" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D130" s="17">
+        <f t="shared" si="8"/>
+        <v>926.83750000000566</v>
+      </c>
+      <c r="E130" s="17">
+        <f t="shared" si="9"/>
+        <v>926.96250000000566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="17">
+        <f t="shared" si="13"/>
+        <v>125</v>
+      </c>
+      <c r="B131" s="17">
+        <f t="shared" si="10"/>
+        <v>927.10000000000571</v>
+      </c>
+      <c r="C131" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D131" s="17">
+        <f t="shared" si="8"/>
+        <v>927.03750000000571</v>
+      </c>
+      <c r="E131" s="17">
+        <f t="shared" si="9"/>
+        <v>927.16250000000571</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="17">
+        <f t="shared" si="13"/>
+        <v>126</v>
+      </c>
+      <c r="B132" s="17">
+        <f t="shared" si="10"/>
+        <v>927.30000000000575</v>
+      </c>
+      <c r="C132" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D132" s="17">
+        <f t="shared" si="8"/>
+        <v>927.23750000000575</v>
+      </c>
+      <c r="E132" s="17">
+        <f t="shared" si="9"/>
+        <v>927.36250000000575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="17">
+        <f t="shared" si="13"/>
+        <v>127</v>
+      </c>
+      <c r="B133" s="17">
+        <f t="shared" si="10"/>
+        <v>927.5000000000058</v>
+      </c>
+      <c r="C133" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D133" s="17">
+        <f t="shared" si="8"/>
+        <v>927.4375000000058</v>
+      </c>
+      <c r="E133" s="17">
+        <f t="shared" si="9"/>
+        <v>927.5625000000058</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="17">
+        <f t="shared" si="13"/>
+        <v>128</v>
+      </c>
+      <c r="B134" s="17">
+        <f t="shared" si="10"/>
+        <v>927.70000000000584</v>
+      </c>
+      <c r="C134" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D134" s="17">
+        <f t="shared" si="8"/>
+        <v>927.63750000000584</v>
+      </c>
+      <c r="E134" s="17">
+        <f t="shared" si="9"/>
+        <v>927.76250000000584</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="17">
+        <f t="shared" si="13"/>
+        <v>129</v>
+      </c>
+      <c r="B135" s="17">
+        <f t="shared" si="10"/>
+        <v>927.90000000000589</v>
+      </c>
+      <c r="C135" s="17">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="D135" s="17">
+        <f t="shared" ref="D135:D198" si="14">B135-(C135/2)</f>
+        <v>927.83750000000589</v>
+      </c>
+      <c r="E135" s="17">
+        <f t="shared" ref="E135:E198" si="15">D135+C135</f>
+        <v>927.96250000000589</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="17">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="B136" s="17">
+        <f t="shared" ref="B136:B199" si="16">B135+$C$1+C136</f>
+        <v>928.10000000000593</v>
+      </c>
+      <c r="C136" s="17">
+        <f t="shared" ref="C136:C199" si="17">C135</f>
+        <v>0.125</v>
+      </c>
+      <c r="D136" s="17">
+        <f t="shared" si="14"/>
+        <v>928.03750000000593</v>
+      </c>
+      <c r="E136" s="17">
+        <f t="shared" si="15"/>
+        <v>928.16250000000593</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="17">
+        <f t="shared" si="13"/>
+        <v>131</v>
+      </c>
+      <c r="B137" s="17">
+        <f t="shared" si="16"/>
+        <v>928.30000000000598</v>
+      </c>
+      <c r="C137" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D137" s="17">
+        <f t="shared" si="14"/>
+        <v>928.23750000000598</v>
+      </c>
+      <c r="E137" s="17">
+        <f t="shared" si="15"/>
+        <v>928.36250000000598</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="17">
+        <f t="shared" si="13"/>
+        <v>132</v>
+      </c>
+      <c r="B138" s="17">
+        <f t="shared" si="16"/>
+        <v>928.50000000000603</v>
+      </c>
+      <c r="C138" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D138" s="17">
+        <f t="shared" si="14"/>
+        <v>928.43750000000603</v>
+      </c>
+      <c r="E138" s="17">
+        <f t="shared" si="15"/>
+        <v>928.56250000000603</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="17">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+      <c r="B139" s="17">
+        <f t="shared" si="16"/>
+        <v>928.70000000000607</v>
+      </c>
+      <c r="C139" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D139" s="17">
+        <f t="shared" si="14"/>
+        <v>928.63750000000607</v>
+      </c>
+      <c r="E139" s="17">
+        <f t="shared" si="15"/>
+        <v>928.76250000000607</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="17">
+        <f t="shared" si="13"/>
+        <v>134</v>
+      </c>
+      <c r="B140" s="17">
+        <f t="shared" si="16"/>
+        <v>928.90000000000612</v>
+      </c>
+      <c r="C140" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D140" s="17">
+        <f t="shared" si="14"/>
+        <v>928.83750000000612</v>
+      </c>
+      <c r="E140" s="17">
+        <f t="shared" si="15"/>
+        <v>928.96250000000612</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="17">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="B141" s="17">
+        <f t="shared" si="16"/>
+        <v>929.10000000000616</v>
+      </c>
+      <c r="C141" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D141" s="17">
+        <f t="shared" si="14"/>
+        <v>929.03750000000616</v>
+      </c>
+      <c r="E141" s="17">
+        <f t="shared" si="15"/>
+        <v>929.16250000000616</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="17">
+        <f t="shared" si="13"/>
+        <v>136</v>
+      </c>
+      <c r="B142" s="17">
+        <f t="shared" si="16"/>
+        <v>929.30000000000621</v>
+      </c>
+      <c r="C142" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D142" s="17">
+        <f t="shared" si="14"/>
+        <v>929.23750000000621</v>
+      </c>
+      <c r="E142" s="17">
+        <f t="shared" si="15"/>
+        <v>929.36250000000621</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="17">
+        <f t="shared" si="13"/>
+        <v>137</v>
+      </c>
+      <c r="B143" s="17">
+        <f t="shared" si="16"/>
+        <v>929.50000000000625</v>
+      </c>
+      <c r="C143" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D143" s="17">
+        <f t="shared" si="14"/>
+        <v>929.43750000000625</v>
+      </c>
+      <c r="E143" s="17">
+        <f t="shared" si="15"/>
+        <v>929.56250000000625</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="17">
+        <f t="shared" si="13"/>
+        <v>138</v>
+      </c>
+      <c r="B144" s="17">
+        <f t="shared" si="16"/>
+        <v>929.7000000000063</v>
+      </c>
+      <c r="C144" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D144" s="17">
+        <f t="shared" si="14"/>
+        <v>929.6375000000063</v>
+      </c>
+      <c r="E144" s="17">
+        <f t="shared" si="15"/>
+        <v>929.7625000000063</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="17">
+        <f t="shared" si="13"/>
+        <v>139</v>
+      </c>
+      <c r="B145" s="17">
+        <f t="shared" si="16"/>
+        <v>929.90000000000634</v>
+      </c>
+      <c r="C145" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D145" s="17">
+        <f t="shared" si="14"/>
+        <v>929.83750000000634</v>
+      </c>
+      <c r="E145" s="17">
+        <f t="shared" si="15"/>
+        <v>929.96250000000634</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="17">
+        <f t="shared" ref="A146:A166" si="18">A145+1</f>
+        <v>140</v>
+      </c>
+      <c r="B146" s="17">
+        <f t="shared" si="16"/>
+        <v>930.10000000000639</v>
+      </c>
+      <c r="C146" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D146" s="17">
+        <f t="shared" si="14"/>
+        <v>930.03750000000639</v>
+      </c>
+      <c r="E146" s="17">
+        <f t="shared" si="15"/>
+        <v>930.16250000000639</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="17">
+        <f t="shared" si="18"/>
+        <v>141</v>
+      </c>
+      <c r="B147" s="17">
+        <f t="shared" si="16"/>
+        <v>930.30000000000643</v>
+      </c>
+      <c r="C147" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D147" s="17">
+        <f t="shared" si="14"/>
+        <v>930.23750000000643</v>
+      </c>
+      <c r="E147" s="17">
+        <f t="shared" si="15"/>
+        <v>930.36250000000643</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="17">
+        <f t="shared" si="18"/>
+        <v>142</v>
+      </c>
+      <c r="B148" s="17">
+        <f t="shared" si="16"/>
+        <v>930.50000000000648</v>
+      </c>
+      <c r="C148" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D148" s="17">
+        <f t="shared" si="14"/>
+        <v>930.43750000000648</v>
+      </c>
+      <c r="E148" s="17">
+        <f t="shared" si="15"/>
+        <v>930.56250000000648</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="17">
+        <f t="shared" si="18"/>
+        <v>143</v>
+      </c>
+      <c r="B149" s="17">
+        <f t="shared" si="16"/>
+        <v>930.70000000000653</v>
+      </c>
+      <c r="C149" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D149" s="17">
+        <f t="shared" si="14"/>
+        <v>930.63750000000653</v>
+      </c>
+      <c r="E149" s="17">
+        <f t="shared" si="15"/>
+        <v>930.76250000000653</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="17">
+        <f t="shared" si="18"/>
+        <v>144</v>
+      </c>
+      <c r="B150" s="17">
+        <f t="shared" si="16"/>
+        <v>930.90000000000657</v>
+      </c>
+      <c r="C150" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D150" s="17">
+        <f t="shared" si="14"/>
+        <v>930.83750000000657</v>
+      </c>
+      <c r="E150" s="17">
+        <f t="shared" si="15"/>
+        <v>930.96250000000657</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="17">
+        <f t="shared" si="18"/>
+        <v>145</v>
+      </c>
+      <c r="B151" s="17">
+        <f t="shared" si="16"/>
+        <v>931.10000000000662</v>
+      </c>
+      <c r="C151" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D151" s="17">
+        <f t="shared" si="14"/>
+        <v>931.03750000000662</v>
+      </c>
+      <c r="E151" s="17">
+        <f t="shared" si="15"/>
+        <v>931.16250000000662</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="17">
+        <f t="shared" si="18"/>
+        <v>146</v>
+      </c>
+      <c r="B152" s="17">
+        <f t="shared" si="16"/>
+        <v>931.30000000000666</v>
+      </c>
+      <c r="C152" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D152" s="17">
+        <f t="shared" si="14"/>
+        <v>931.23750000000666</v>
+      </c>
+      <c r="E152" s="17">
+        <f t="shared" si="15"/>
+        <v>931.36250000000666</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="17">
+        <f t="shared" si="18"/>
+        <v>147</v>
+      </c>
+      <c r="B153" s="17">
+        <f t="shared" si="16"/>
+        <v>931.50000000000671</v>
+      </c>
+      <c r="C153" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D153" s="17">
+        <f t="shared" si="14"/>
+        <v>931.43750000000671</v>
+      </c>
+      <c r="E153" s="17">
+        <f t="shared" si="15"/>
+        <v>931.56250000000671</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="17">
+        <f t="shared" si="18"/>
+        <v>148</v>
+      </c>
+      <c r="B154" s="17">
+        <f t="shared" si="16"/>
+        <v>931.70000000000675</v>
+      </c>
+      <c r="C154" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D154" s="17">
+        <f t="shared" si="14"/>
+        <v>931.63750000000675</v>
+      </c>
+      <c r="E154" s="17">
+        <f t="shared" si="15"/>
+        <v>931.76250000000675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="17">
+        <f t="shared" si="18"/>
+        <v>149</v>
+      </c>
+      <c r="B155" s="17">
+        <f t="shared" si="16"/>
+        <v>931.9000000000068</v>
+      </c>
+      <c r="C155" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D155" s="17">
+        <f t="shared" si="14"/>
+        <v>931.8375000000068</v>
+      </c>
+      <c r="E155" s="17">
+        <f t="shared" si="15"/>
+        <v>931.9625000000068</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="17">
+        <f t="shared" si="18"/>
+        <v>150</v>
+      </c>
+      <c r="B156" s="17">
+        <f t="shared" si="16"/>
+        <v>932.10000000000684</v>
+      </c>
+      <c r="C156" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D156" s="17">
+        <f t="shared" si="14"/>
+        <v>932.03750000000684</v>
+      </c>
+      <c r="E156" s="17">
+        <f t="shared" si="15"/>
+        <v>932.16250000000684</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="17">
+        <f t="shared" si="18"/>
+        <v>151</v>
+      </c>
+      <c r="B157" s="17">
+        <f t="shared" si="16"/>
+        <v>932.30000000000689</v>
+      </c>
+      <c r="C157" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D157" s="17">
+        <f t="shared" si="14"/>
+        <v>932.23750000000689</v>
+      </c>
+      <c r="E157" s="17">
+        <f t="shared" si="15"/>
+        <v>932.36250000000689</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="17">
+        <f t="shared" si="18"/>
+        <v>152</v>
+      </c>
+      <c r="B158" s="17">
+        <f t="shared" si="16"/>
+        <v>932.50000000000693</v>
+      </c>
+      <c r="C158" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D158" s="17">
+        <f t="shared" si="14"/>
+        <v>932.43750000000693</v>
+      </c>
+      <c r="E158" s="17">
+        <f t="shared" si="15"/>
+        <v>932.56250000000693</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="17">
+        <f t="shared" si="18"/>
+        <v>153</v>
+      </c>
+      <c r="B159" s="17">
+        <f t="shared" si="16"/>
+        <v>932.70000000000698</v>
+      </c>
+      <c r="C159" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D159" s="17">
+        <f t="shared" si="14"/>
+        <v>932.63750000000698</v>
+      </c>
+      <c r="E159" s="17">
+        <f t="shared" si="15"/>
+        <v>932.76250000000698</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="17">
+        <f t="shared" si="18"/>
+        <v>154</v>
+      </c>
+      <c r="B160" s="17">
+        <f t="shared" si="16"/>
+        <v>932.90000000000703</v>
+      </c>
+      <c r="C160" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D160" s="17">
+        <f t="shared" si="14"/>
+        <v>932.83750000000703</v>
+      </c>
+      <c r="E160" s="17">
+        <f t="shared" si="15"/>
+        <v>932.96250000000703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="17">
+        <f t="shared" si="18"/>
+        <v>155</v>
+      </c>
+      <c r="B161" s="17">
+        <f t="shared" si="16"/>
+        <v>933.10000000000707</v>
+      </c>
+      <c r="C161" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D161" s="17">
+        <f t="shared" si="14"/>
+        <v>933.03750000000707</v>
+      </c>
+      <c r="E161" s="17">
+        <f t="shared" si="15"/>
+        <v>933.16250000000707</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="17">
+        <f t="shared" si="18"/>
+        <v>156</v>
+      </c>
+      <c r="B162" s="17">
+        <f t="shared" si="16"/>
+        <v>933.30000000000712</v>
+      </c>
+      <c r="C162" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D162" s="17">
+        <f t="shared" si="14"/>
+        <v>933.23750000000712</v>
+      </c>
+      <c r="E162" s="17">
+        <f t="shared" si="15"/>
+        <v>933.36250000000712</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="17">
+        <f t="shared" si="18"/>
+        <v>157</v>
+      </c>
+      <c r="B163" s="17">
+        <f t="shared" si="16"/>
+        <v>933.50000000000716</v>
+      </c>
+      <c r="C163" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D163" s="17">
+        <f t="shared" si="14"/>
+        <v>933.43750000000716</v>
+      </c>
+      <c r="E163" s="17">
+        <f t="shared" si="15"/>
+        <v>933.56250000000716</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="17">
+        <f t="shared" si="18"/>
+        <v>158</v>
+      </c>
+      <c r="B164" s="17">
+        <f t="shared" si="16"/>
+        <v>933.70000000000721</v>
+      </c>
+      <c r="C164" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D164" s="17">
+        <f t="shared" si="14"/>
+        <v>933.63750000000721</v>
+      </c>
+      <c r="E164" s="17">
+        <f t="shared" si="15"/>
+        <v>933.76250000000721</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="17">
+        <f t="shared" si="18"/>
+        <v>159</v>
+      </c>
+      <c r="B165" s="17">
+        <f t="shared" si="16"/>
+        <v>933.90000000000725</v>
+      </c>
+      <c r="C165" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D165" s="17">
+        <f t="shared" si="14"/>
+        <v>933.83750000000725</v>
+      </c>
+      <c r="E165" s="17">
+        <f t="shared" si="15"/>
+        <v>933.96250000000725</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="17">
+        <f t="shared" si="18"/>
+        <v>160</v>
+      </c>
+      <c r="B166" s="17">
+        <f t="shared" si="16"/>
+        <v>934.1000000000073</v>
+      </c>
+      <c r="C166" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D166" s="17">
+        <f t="shared" si="14"/>
+        <v>934.0375000000073</v>
+      </c>
+      <c r="E166" s="17">
+        <f t="shared" si="15"/>
+        <v>934.1625000000073</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="17">
+        <f t="shared" ref="A167:A210" si="19">A166+1</f>
+        <v>161</v>
+      </c>
+      <c r="B167" s="17">
+        <f t="shared" si="16"/>
+        <v>934.30000000000734</v>
+      </c>
+      <c r="C167" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D167" s="17">
+        <f t="shared" si="14"/>
+        <v>934.23750000000734</v>
+      </c>
+      <c r="E167" s="17">
+        <f t="shared" si="15"/>
+        <v>934.36250000000734</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="17">
+        <f t="shared" si="19"/>
+        <v>162</v>
+      </c>
+      <c r="B168" s="17">
+        <f t="shared" si="16"/>
+        <v>934.50000000000739</v>
+      </c>
+      <c r="C168" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D168" s="17">
+        <f t="shared" si="14"/>
+        <v>934.43750000000739</v>
+      </c>
+      <c r="E168" s="17">
+        <f t="shared" si="15"/>
+        <v>934.56250000000739</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="17">
+        <f t="shared" si="19"/>
+        <v>163</v>
+      </c>
+      <c r="B169" s="17">
+        <f t="shared" si="16"/>
+        <v>934.70000000000744</v>
+      </c>
+      <c r="C169" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D169" s="17">
+        <f t="shared" si="14"/>
+        <v>934.63750000000744</v>
+      </c>
+      <c r="E169" s="17">
+        <f t="shared" si="15"/>
+        <v>934.76250000000744</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="17">
+        <f t="shared" si="19"/>
+        <v>164</v>
+      </c>
+      <c r="B170" s="17">
+        <f t="shared" si="16"/>
+        <v>934.90000000000748</v>
+      </c>
+      <c r="C170" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D170" s="17">
+        <f t="shared" si="14"/>
+        <v>934.83750000000748</v>
+      </c>
+      <c r="E170" s="17">
+        <f t="shared" si="15"/>
+        <v>934.96250000000748</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="17">
+        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+      <c r="B171" s="17">
+        <f t="shared" si="16"/>
+        <v>935.10000000000753</v>
+      </c>
+      <c r="C171" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D171" s="17">
+        <f t="shared" si="14"/>
+        <v>935.03750000000753</v>
+      </c>
+      <c r="E171" s="17">
+        <f t="shared" si="15"/>
+        <v>935.16250000000753</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="17">
+        <f t="shared" si="19"/>
+        <v>166</v>
+      </c>
+      <c r="B172" s="17">
+        <f t="shared" si="16"/>
+        <v>935.30000000000757</v>
+      </c>
+      <c r="C172" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D172" s="17">
+        <f t="shared" si="14"/>
+        <v>935.23750000000757</v>
+      </c>
+      <c r="E172" s="17">
+        <f t="shared" si="15"/>
+        <v>935.36250000000757</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="17">
+        <f t="shared" si="19"/>
+        <v>167</v>
+      </c>
+      <c r="B173" s="17">
+        <f t="shared" si="16"/>
+        <v>935.50000000000762</v>
+      </c>
+      <c r="C173" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D173" s="17">
+        <f t="shared" si="14"/>
+        <v>935.43750000000762</v>
+      </c>
+      <c r="E173" s="17">
+        <f t="shared" si="15"/>
+        <v>935.56250000000762</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="17">
+        <f t="shared" si="19"/>
+        <v>168</v>
+      </c>
+      <c r="B174" s="17">
+        <f t="shared" si="16"/>
+        <v>935.70000000000766</v>
+      </c>
+      <c r="C174" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D174" s="17">
+        <f t="shared" si="14"/>
+        <v>935.63750000000766</v>
+      </c>
+      <c r="E174" s="17">
+        <f t="shared" si="15"/>
+        <v>935.76250000000766</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="17">
+        <f t="shared" si="19"/>
+        <v>169</v>
+      </c>
+      <c r="B175" s="17">
+        <f t="shared" si="16"/>
+        <v>935.90000000000771</v>
+      </c>
+      <c r="C175" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D175" s="17">
+        <f t="shared" si="14"/>
+        <v>935.83750000000771</v>
+      </c>
+      <c r="E175" s="17">
+        <f t="shared" si="15"/>
+        <v>935.96250000000771</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="17">
+        <f t="shared" si="19"/>
+        <v>170</v>
+      </c>
+      <c r="B176" s="17">
+        <f t="shared" si="16"/>
+        <v>936.10000000000775</v>
+      </c>
+      <c r="C176" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D176" s="17">
+        <f t="shared" si="14"/>
+        <v>936.03750000000775</v>
+      </c>
+      <c r="E176" s="17">
+        <f t="shared" si="15"/>
+        <v>936.16250000000775</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="17">
+        <f t="shared" si="19"/>
+        <v>171</v>
+      </c>
+      <c r="B177" s="17">
+        <f t="shared" si="16"/>
+        <v>936.3000000000078</v>
+      </c>
+      <c r="C177" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D177" s="17">
+        <f t="shared" si="14"/>
+        <v>936.2375000000078</v>
+      </c>
+      <c r="E177" s="17">
+        <f t="shared" si="15"/>
+        <v>936.3625000000078</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="17">
+        <f t="shared" si="19"/>
+        <v>172</v>
+      </c>
+      <c r="B178" s="17">
+        <f t="shared" si="16"/>
+        <v>936.50000000000784</v>
+      </c>
+      <c r="C178" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D178" s="17">
+        <f t="shared" si="14"/>
+        <v>936.43750000000784</v>
+      </c>
+      <c r="E178" s="17">
+        <f t="shared" si="15"/>
+        <v>936.56250000000784</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="17">
+        <f t="shared" si="19"/>
+        <v>173</v>
+      </c>
+      <c r="B179" s="17">
+        <f t="shared" si="16"/>
+        <v>936.70000000000789</v>
+      </c>
+      <c r="C179" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D179" s="17">
+        <f t="shared" si="14"/>
+        <v>936.63750000000789</v>
+      </c>
+      <c r="E179" s="17">
+        <f t="shared" si="15"/>
+        <v>936.76250000000789</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="17">
+        <f t="shared" si="19"/>
+        <v>174</v>
+      </c>
+      <c r="B180" s="17">
+        <f t="shared" si="16"/>
+        <v>936.90000000000794</v>
+      </c>
+      <c r="C180" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D180" s="17">
+        <f t="shared" si="14"/>
+        <v>936.83750000000794</v>
+      </c>
+      <c r="E180" s="17">
+        <f t="shared" si="15"/>
+        <v>936.96250000000794</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="17">
+        <f t="shared" si="19"/>
+        <v>175</v>
+      </c>
+      <c r="B181" s="17">
+        <f t="shared" si="16"/>
+        <v>937.10000000000798</v>
+      </c>
+      <c r="C181" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D181" s="17">
+        <f t="shared" si="14"/>
+        <v>937.03750000000798</v>
+      </c>
+      <c r="E181" s="17">
+        <f t="shared" si="15"/>
+        <v>937.16250000000798</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="17">
+        <f t="shared" si="19"/>
+        <v>176</v>
+      </c>
+      <c r="B182" s="17">
+        <f t="shared" si="16"/>
+        <v>937.30000000000803</v>
+      </c>
+      <c r="C182" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D182" s="17">
+        <f t="shared" si="14"/>
+        <v>937.23750000000803</v>
+      </c>
+      <c r="E182" s="17">
+        <f t="shared" si="15"/>
+        <v>937.36250000000803</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="17">
+        <f t="shared" si="19"/>
+        <v>177</v>
+      </c>
+      <c r="B183" s="17">
+        <f t="shared" si="16"/>
+        <v>937.50000000000807</v>
+      </c>
+      <c r="C183" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D183" s="17">
+        <f t="shared" si="14"/>
+        <v>937.43750000000807</v>
+      </c>
+      <c r="E183" s="17">
+        <f t="shared" si="15"/>
+        <v>937.56250000000807</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="17">
+        <f t="shared" si="19"/>
+        <v>178</v>
+      </c>
+      <c r="B184" s="17">
+        <f t="shared" si="16"/>
+        <v>937.70000000000812</v>
+      </c>
+      <c r="C184" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D184" s="17">
+        <f t="shared" si="14"/>
+        <v>937.63750000000812</v>
+      </c>
+      <c r="E184" s="17">
+        <f t="shared" si="15"/>
+        <v>937.76250000000812</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="17">
+        <f t="shared" si="19"/>
+        <v>179</v>
+      </c>
+      <c r="B185" s="17">
+        <f t="shared" si="16"/>
+        <v>937.90000000000816</v>
+      </c>
+      <c r="C185" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D185" s="17">
+        <f t="shared" si="14"/>
+        <v>937.83750000000816</v>
+      </c>
+      <c r="E185" s="17">
+        <f t="shared" si="15"/>
+        <v>937.96250000000816</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="17">
+        <f t="shared" si="19"/>
+        <v>180</v>
+      </c>
+      <c r="B186" s="17">
+        <f t="shared" si="16"/>
+        <v>938.10000000000821</v>
+      </c>
+      <c r="C186" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D186" s="17">
+        <f t="shared" si="14"/>
+        <v>938.03750000000821</v>
+      </c>
+      <c r="E186" s="17">
+        <f t="shared" si="15"/>
+        <v>938.16250000000821</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="17">
+        <f t="shared" si="19"/>
+        <v>181</v>
+      </c>
+      <c r="B187" s="17">
+        <f t="shared" si="16"/>
+        <v>938.30000000000825</v>
+      </c>
+      <c r="C187" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D187" s="17">
+        <f t="shared" si="14"/>
+        <v>938.23750000000825</v>
+      </c>
+      <c r="E187" s="17">
+        <f t="shared" si="15"/>
+        <v>938.36250000000825</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="17">
+        <f t="shared" si="19"/>
+        <v>182</v>
+      </c>
+      <c r="B188" s="17">
+        <f t="shared" si="16"/>
+        <v>938.5000000000083</v>
+      </c>
+      <c r="C188" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D188" s="17">
+        <f t="shared" si="14"/>
+        <v>938.4375000000083</v>
+      </c>
+      <c r="E188" s="17">
+        <f t="shared" si="15"/>
+        <v>938.5625000000083</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="17">
+        <f t="shared" si="19"/>
+        <v>183</v>
+      </c>
+      <c r="B189" s="17">
+        <f t="shared" si="16"/>
+        <v>938.70000000000834</v>
+      </c>
+      <c r="C189" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D189" s="17">
+        <f t="shared" si="14"/>
+        <v>938.63750000000834</v>
+      </c>
+      <c r="E189" s="17">
+        <f t="shared" si="15"/>
+        <v>938.76250000000834</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="17">
+        <f t="shared" si="19"/>
+        <v>184</v>
+      </c>
+      <c r="B190" s="17">
+        <f t="shared" si="16"/>
+        <v>938.90000000000839</v>
+      </c>
+      <c r="C190" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D190" s="17">
+        <f t="shared" si="14"/>
+        <v>938.83750000000839</v>
+      </c>
+      <c r="E190" s="17">
+        <f t="shared" si="15"/>
+        <v>938.96250000000839</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="17">
+        <f t="shared" si="19"/>
+        <v>185</v>
+      </c>
+      <c r="B191" s="17">
+        <f t="shared" si="16"/>
+        <v>939.10000000000844</v>
+      </c>
+      <c r="C191" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D191" s="17">
+        <f t="shared" si="14"/>
+        <v>939.03750000000844</v>
+      </c>
+      <c r="E191" s="17">
+        <f t="shared" si="15"/>
+        <v>939.16250000000844</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="17">
+        <f t="shared" si="19"/>
+        <v>186</v>
+      </c>
+      <c r="B192" s="17">
+        <f t="shared" si="16"/>
+        <v>939.30000000000848</v>
+      </c>
+      <c r="C192" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D192" s="17">
+        <f t="shared" si="14"/>
+        <v>939.23750000000848</v>
+      </c>
+      <c r="E192" s="17">
+        <f t="shared" si="15"/>
+        <v>939.36250000000848</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="17">
+        <f t="shared" si="19"/>
+        <v>187</v>
+      </c>
+      <c r="B193" s="17">
+        <f t="shared" si="16"/>
+        <v>939.50000000000853</v>
+      </c>
+      <c r="C193" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D193" s="17">
+        <f t="shared" si="14"/>
+        <v>939.43750000000853</v>
+      </c>
+      <c r="E193" s="17">
+        <f t="shared" si="15"/>
+        <v>939.56250000000853</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="17">
+        <f t="shared" si="19"/>
+        <v>188</v>
+      </c>
+      <c r="B194" s="17">
+        <f t="shared" si="16"/>
+        <v>939.70000000000857</v>
+      </c>
+      <c r="C194" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D194" s="17">
+        <f t="shared" si="14"/>
+        <v>939.63750000000857</v>
+      </c>
+      <c r="E194" s="17">
+        <f t="shared" si="15"/>
+        <v>939.76250000000857</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="17">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="B195" s="17">
+        <f t="shared" si="16"/>
+        <v>939.90000000000862</v>
+      </c>
+      <c r="C195" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D195" s="17">
+        <f t="shared" si="14"/>
+        <v>939.83750000000862</v>
+      </c>
+      <c r="E195" s="17">
+        <f t="shared" si="15"/>
+        <v>939.96250000000862</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="17">
+        <f t="shared" si="19"/>
+        <v>190</v>
+      </c>
+      <c r="B196" s="17">
+        <f t="shared" si="16"/>
+        <v>940.10000000000866</v>
+      </c>
+      <c r="C196" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D196" s="17">
+        <f t="shared" si="14"/>
+        <v>940.03750000000866</v>
+      </c>
+      <c r="E196" s="17">
+        <f t="shared" si="15"/>
+        <v>940.16250000000866</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="17">
+        <f t="shared" si="19"/>
+        <v>191</v>
+      </c>
+      <c r="B197" s="17">
+        <f t="shared" si="16"/>
+        <v>940.30000000000871</v>
+      </c>
+      <c r="C197" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D197" s="17">
+        <f t="shared" si="14"/>
+        <v>940.23750000000871</v>
+      </c>
+      <c r="E197" s="17">
+        <f t="shared" si="15"/>
+        <v>940.36250000000871</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="17">
+        <f t="shared" si="19"/>
+        <v>192</v>
+      </c>
+      <c r="B198" s="17">
+        <f t="shared" si="16"/>
+        <v>940.50000000000875</v>
+      </c>
+      <c r="C198" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D198" s="17">
+        <f t="shared" si="14"/>
+        <v>940.43750000000875</v>
+      </c>
+      <c r="E198" s="17">
+        <f t="shared" si="15"/>
+        <v>940.56250000000875</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="17">
+        <f t="shared" si="19"/>
+        <v>193</v>
+      </c>
+      <c r="B199" s="17">
+        <f t="shared" si="16"/>
+        <v>940.7000000000088</v>
+      </c>
+      <c r="C199" s="17">
+        <f t="shared" si="17"/>
+        <v>0.125</v>
+      </c>
+      <c r="D199" s="17">
+        <f t="shared" ref="D199:D214" si="20">B199-(C199/2)</f>
+        <v>940.6375000000088</v>
+      </c>
+      <c r="E199" s="17">
+        <f t="shared" ref="E199:E214" si="21">D199+C199</f>
+        <v>940.7625000000088</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="17">
+        <f t="shared" si="19"/>
+        <v>194</v>
+      </c>
+      <c r="B200" s="17">
+        <f t="shared" ref="B200:B214" si="22">B199+$C$1+C200</f>
+        <v>940.90000000000884</v>
+      </c>
+      <c r="C200" s="17">
+        <f t="shared" ref="C200:C214" si="23">C199</f>
+        <v>0.125</v>
+      </c>
+      <c r="D200" s="17">
+        <f t="shared" si="20"/>
+        <v>940.83750000000884</v>
+      </c>
+      <c r="E200" s="17">
+        <f t="shared" si="21"/>
+        <v>940.96250000000884</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="17">
+        <f t="shared" si="19"/>
+        <v>195</v>
+      </c>
+      <c r="B201" s="17">
+        <f t="shared" si="22"/>
+        <v>941.10000000000889</v>
+      </c>
+      <c r="C201" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D201" s="17">
+        <f t="shared" si="20"/>
+        <v>941.03750000000889</v>
+      </c>
+      <c r="E201" s="17">
+        <f t="shared" si="21"/>
+        <v>941.16250000000889</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="17">
+        <f t="shared" si="19"/>
+        <v>196</v>
+      </c>
+      <c r="B202" s="17">
+        <f t="shared" si="22"/>
+        <v>941.30000000000894</v>
+      </c>
+      <c r="C202" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D202" s="17">
+        <f t="shared" si="20"/>
+        <v>941.23750000000894</v>
+      </c>
+      <c r="E202" s="17">
+        <f t="shared" si="21"/>
+        <v>941.36250000000894</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="17">
+        <f t="shared" si="19"/>
+        <v>197</v>
+      </c>
+      <c r="B203" s="17">
+        <f t="shared" si="22"/>
+        <v>941.50000000000898</v>
+      </c>
+      <c r="C203" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D203" s="17">
+        <f t="shared" si="20"/>
+        <v>941.43750000000898</v>
+      </c>
+      <c r="E203" s="17">
+        <f t="shared" si="21"/>
+        <v>941.56250000000898</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="17">
+        <f t="shared" si="19"/>
+        <v>198</v>
+      </c>
+      <c r="B204" s="17">
+        <f t="shared" si="22"/>
+        <v>941.70000000000903</v>
+      </c>
+      <c r="C204" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D204" s="17">
+        <f t="shared" si="20"/>
+        <v>941.63750000000903</v>
+      </c>
+      <c r="E204" s="17">
+        <f t="shared" si="21"/>
+        <v>941.76250000000903</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="17">
+        <f t="shared" si="19"/>
+        <v>199</v>
+      </c>
+      <c r="B205" s="17">
+        <f t="shared" si="22"/>
+        <v>941.90000000000907</v>
+      </c>
+      <c r="C205" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D205" s="17">
+        <f t="shared" si="20"/>
+        <v>941.83750000000907</v>
+      </c>
+      <c r="E205" s="17">
+        <f t="shared" si="21"/>
+        <v>941.96250000000907</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="17">
+        <f t="shared" si="19"/>
+        <v>200</v>
+      </c>
+      <c r="B206" s="17">
+        <f t="shared" si="22"/>
+        <v>942.10000000000912</v>
+      </c>
+      <c r="C206" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D206" s="17">
+        <f t="shared" si="20"/>
+        <v>942.03750000000912</v>
+      </c>
+      <c r="E206" s="17">
+        <f t="shared" si="21"/>
+        <v>942.16250000000912</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="17">
+        <f t="shared" si="19"/>
+        <v>201</v>
+      </c>
+      <c r="B207" s="17">
+        <f t="shared" si="22"/>
+        <v>942.30000000000916</v>
+      </c>
+      <c r="C207" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D207" s="17">
+        <f t="shared" si="20"/>
+        <v>942.23750000000916</v>
+      </c>
+      <c r="E207" s="17">
+        <f t="shared" si="21"/>
+        <v>942.36250000000916</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="17">
+        <f t="shared" si="19"/>
+        <v>202</v>
+      </c>
+      <c r="B208" s="17">
+        <f t="shared" si="22"/>
+        <v>942.50000000000921</v>
+      </c>
+      <c r="C208" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D208" s="17">
+        <f t="shared" si="20"/>
+        <v>942.43750000000921</v>
+      </c>
+      <c r="E208" s="17">
+        <f t="shared" si="21"/>
+        <v>942.56250000000921</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="17">
+        <f t="shared" si="19"/>
+        <v>203</v>
+      </c>
+      <c r="B209" s="17">
+        <f t="shared" si="22"/>
+        <v>942.70000000000925</v>
+      </c>
+      <c r="C209" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D209" s="17">
+        <f t="shared" si="20"/>
+        <v>942.63750000000925</v>
+      </c>
+      <c r="E209" s="17">
+        <f t="shared" si="21"/>
+        <v>942.76250000000925</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="17">
+        <f t="shared" si="19"/>
+        <v>204</v>
+      </c>
+      <c r="B210" s="17">
+        <f t="shared" si="22"/>
+        <v>942.9000000000093</v>
+      </c>
+      <c r="C210" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D210" s="17">
+        <f t="shared" si="20"/>
+        <v>942.8375000000093</v>
+      </c>
+      <c r="E210" s="17">
+        <f t="shared" si="21"/>
+        <v>942.9625000000093</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="17">
+        <f t="shared" ref="A211:A213" si="24">A210+1</f>
+        <v>205</v>
+      </c>
+      <c r="B211" s="17">
+        <f t="shared" si="22"/>
+        <v>943.10000000000935</v>
+      </c>
+      <c r="C211" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D211" s="17">
+        <f t="shared" si="20"/>
+        <v>943.03750000000935</v>
+      </c>
+      <c r="E211" s="17">
+        <f t="shared" si="21"/>
+        <v>943.16250000000935</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="17">
+        <f t="shared" si="24"/>
+        <v>206</v>
+      </c>
+      <c r="B212" s="17">
+        <f t="shared" si="22"/>
+        <v>943.30000000000939</v>
+      </c>
+      <c r="C212" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D212" s="17">
+        <f t="shared" si="20"/>
+        <v>943.23750000000939</v>
+      </c>
+      <c r="E212" s="17">
+        <f t="shared" si="21"/>
+        <v>943.36250000000939</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="17">
+        <f t="shared" si="24"/>
+        <v>207</v>
+      </c>
+      <c r="B213" s="17">
+        <f t="shared" si="22"/>
+        <v>943.50000000000944</v>
+      </c>
+      <c r="C213" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D213" s="17">
+        <f t="shared" si="20"/>
+        <v>943.43750000000944</v>
+      </c>
+      <c r="E213" s="17">
+        <f t="shared" si="21"/>
+        <v>943.56250000000944</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="17">
+        <f t="shared" ref="A214" si="25">A213+1</f>
+        <v>208</v>
+      </c>
+      <c r="B214" s="17">
+        <f t="shared" si="22"/>
+        <v>943.70000000000948</v>
+      </c>
+      <c r="C214" s="17">
+        <f t="shared" si="23"/>
+        <v>0.125</v>
+      </c>
+      <c r="D214" s="17">
+        <f t="shared" si="20"/>
+        <v>943.63750000000948</v>
+      </c>
+      <c r="E214" s="17">
+        <f t="shared" si="21"/>
+        <v>943.76250000000948</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A6:E214">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E6&gt;$C$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0905176-8170-4141-BFF8-73C1F588C34D}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="4">
+        <v>125</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="4">
+        <v>902</v>
+      </c>
+      <c r="C5" s="4">
+        <v>928</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="17">
+        <f>_xlfn.FLOOR.MATH(((C5-B5)*1000)/(E5+($B$1)))</f>
+        <v>208</v>
+      </c>
+      <c r="K5" s="17">
+        <f>(B5+C5)/2</f>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="4">
+        <v>433</v>
+      </c>
+      <c r="C6" s="4">
+        <v>434</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="17">
+        <f t="shared" ref="J6:J17" si="0">_xlfn.FLOOR.MATH(((C6-B6)*1000)/(E6+($B$1)))</f>
+        <v>8</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" ref="K6:K17" si="1">(B6+C6)/2</f>
+        <v>433.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="4">
+        <v>869.4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>869.65</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="1"/>
+        <v>869.52499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="4">
+        <v>470</v>
+      </c>
+      <c r="C8" s="4">
+        <v>510</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="17">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="4">
+        <v>920.8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>927.8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="17">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="1"/>
+        <v>924.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="4">
+        <v>915</v>
+      </c>
+      <c r="C10" s="4">
+        <v>928</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="17">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="1"/>
+        <v>921.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="4">
+        <v>868.7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>869.2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="1"/>
+        <v>868.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="4">
+        <v>920</v>
+      </c>
+      <c r="C12" s="4">
+        <v>923</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="1"/>
+        <v>921.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="4">
+        <v>920</v>
+      </c>
+      <c r="C13" s="4">
+        <v>925</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="1"/>
+        <v>922.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="4">
+        <v>865</v>
+      </c>
+      <c r="C14" s="4">
+        <v>867</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="1"/>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="4">
+        <v>864</v>
+      </c>
+      <c r="C15" s="4">
+        <v>868</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="1"/>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="4">
+        <v>920</v>
+      </c>
+      <c r="C16" s="4">
+        <v>925</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="1"/>
+        <v>922.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="4">
+        <v>902</v>
+      </c>
+      <c r="C17" s="4">
+        <v>928</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="17">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="1"/>
+        <v>915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3634FE8D-F6C4-45BF-8C8A-C2607C840C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A556E9-4CC0-4BED-B472-FF84E742E5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="184">
   <si>
     <t>Screen</t>
   </si>
@@ -582,15 +582,25 @@
   </si>
   <si>
     <t>Module</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -696,7 +706,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -737,6 +747,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -745,6 +758,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1075,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C985E-F91F-471A-B04D-0671E5EAB4DD}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -2374,30 +2392,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="21"/>
       <c r="D1">
         <f>COUNTA(A6:A501)</f>
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2">
         <f>D1-COUNTIF(D6:D501,TRUE)</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
         <v>0.77777777777777779</v>
@@ -2870,12 +2888,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2952,12 +2970,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3237,28 +3255,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="4">
         <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="4">
         <v>928</v>
       </c>
@@ -7894,25 +7912,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0905176-8170-4141-BFF8-73C1F588C34D}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8392,7 +8411,7 @@
         <v>922.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>172</v>
       </c>
@@ -8427,7 +8446,512 @@
         <v>915</v>
       </c>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="7">
+        <v>915</v>
+      </c>
+      <c r="C21" s="24">
+        <v>915</v>
+      </c>
+      <c r="D21" s="25">
+        <v>902</v>
+      </c>
+      <c r="E21" s="25">
+        <v>928</v>
+      </c>
+      <c r="F21" s="4">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>30</v>
+      </c>
+      <c r="I21" s="26" t="str">
+        <f>"{""" &amp;$A$20 &amp; """: """ &amp; A21 &amp; """, """  &amp; $C$20 &amp; """: " &amp; C21 &amp; ", """ &amp; $D$20 &amp; """: " &amp;D21 &amp; ", """ &amp; $E$20 &amp; """: " &amp; E21 &amp; ", """ &amp; $F$20 &amp; """: " &amp; F21 &amp; ", """ &amp; $G$20 &amp; """: " &amp; G21 &amp; ", """ &amp; $H$20 &amp; """: " &amp; H21 &amp; "},"</f>
+        <v>{"region": "US", "freqCenter": 915, "freqStart": 902, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="7">
+        <v>433</v>
+      </c>
+      <c r="C22" s="24">
+        <v>433.5</v>
+      </c>
+      <c r="D22" s="25">
+        <v>433</v>
+      </c>
+      <c r="E22" s="25">
+        <v>434</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>12</v>
+      </c>
+      <c r="I22" s="26" t="str">
+        <f t="shared" ref="I22:I33" si="2">"{""" &amp;$A$20 &amp; """: """ &amp; A22 &amp; """, """  &amp; $C$20 &amp; """: " &amp; C22 &amp; ", """ &amp; $D$20 &amp; """: " &amp;D22 &amp; ", """ &amp; $E$20 &amp; """: " &amp; E22 &amp; ", """ &amp; $F$20 &amp; """: " &amp; F22 &amp; ", """ &amp; $G$20 &amp; """: " &amp; G22 &amp; ", """ &amp; $H$20 &amp; """: " &amp; H22 &amp; "},"</f>
+        <v>{"region": "EU433", "freqCenter": 433.5, "freqStart": 433, "freqEnd": 434, "dutyCycle": 10, "spacing": 0, "powerLimit": 12},</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="7">
+        <v>868</v>
+      </c>
+      <c r="C23" s="24">
+        <v>869.52499999999998</v>
+      </c>
+      <c r="D23" s="25">
+        <v>869.4</v>
+      </c>
+      <c r="E23" s="25">
+        <v>869.65</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>16</v>
+      </c>
+      <c r="I23" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "EU868", "freqCenter": 869.525, "freqStart": 869.4, "freqEnd": 869.65, "dutyCycle": 10, "spacing": 0, "powerLimit": 16},</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="7">
+        <v>433</v>
+      </c>
+      <c r="C24" s="24">
+        <v>490</v>
+      </c>
+      <c r="D24" s="25">
+        <v>470</v>
+      </c>
+      <c r="E24" s="25">
+        <v>510</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>19</v>
+      </c>
+      <c r="I24" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "CN", "freqCenter": 490, "freqStart": 470, "freqEnd": 510, "dutyCycle": 100, "spacing": 0, "powerLimit": 19},</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="7">
+        <v>915</v>
+      </c>
+      <c r="C25" s="24">
+        <v>924.3</v>
+      </c>
+      <c r="D25" s="25">
+        <v>920.8</v>
+      </c>
+      <c r="E25" s="25">
+        <v>927.8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>16</v>
+      </c>
+      <c r="I25" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "JP", "freqCenter": 924.3, "freqStart": 920.8, "freqEnd": 927.8, "dutyCycle": 100, "spacing": 0, "powerLimit": 16},</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="7">
+        <v>915</v>
+      </c>
+      <c r="C26" s="24">
+        <v>921.5</v>
+      </c>
+      <c r="D26" s="25">
+        <v>915</v>
+      </c>
+      <c r="E26" s="25">
+        <v>928</v>
+      </c>
+      <c r="F26" s="4">
+        <v>100</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>30</v>
+      </c>
+      <c r="I26" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "ANZ", "freqCenter": 921.5, "freqStart": 915, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="7">
+        <v>868</v>
+      </c>
+      <c r="C27" s="24">
+        <v>868.95</v>
+      </c>
+      <c r="D27" s="25">
+        <v>868.7</v>
+      </c>
+      <c r="E27" s="25">
+        <v>869.2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>20</v>
+      </c>
+      <c r="I27" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "RU", "freqCenter": 868.95, "freqStart": 868.7, "freqEnd": 869.2, "dutyCycle": 100, "spacing": 0, "powerLimit": 20},</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="7">
+        <v>915</v>
+      </c>
+      <c r="C28" s="24">
+        <v>921.5</v>
+      </c>
+      <c r="D28" s="25">
+        <v>920</v>
+      </c>
+      <c r="E28" s="25">
+        <v>923</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "KR", "freqCenter": 921.5, "freqStart": 920, "freqEnd": 923, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="7">
+        <v>915</v>
+      </c>
+      <c r="C29" s="24">
+        <v>922.5</v>
+      </c>
+      <c r="D29" s="25">
+        <v>920</v>
+      </c>
+      <c r="E29" s="25">
+        <v>925</v>
+      </c>
+      <c r="F29" s="4">
+        <v>100</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "TW", "freqCenter": 922.5, "freqStart": 920, "freqEnd": 925, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="7">
+        <v>866</v>
+      </c>
+      <c r="C30" s="24">
+        <v>866</v>
+      </c>
+      <c r="D30" s="25">
+        <v>865</v>
+      </c>
+      <c r="E30" s="25">
+        <v>867</v>
+      </c>
+      <c r="F30" s="4">
+        <v>100</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>30</v>
+      </c>
+      <c r="I30" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "IN", "freqCenter": 866, "freqStart": 865, "freqEnd": 867, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="7">
+        <v>866</v>
+      </c>
+      <c r="C31" s="24">
+        <v>866</v>
+      </c>
+      <c r="D31" s="25">
+        <v>864</v>
+      </c>
+      <c r="E31" s="25">
+        <v>868</v>
+      </c>
+      <c r="F31" s="4">
+        <v>100</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "NZ865", "freqCenter": 866, "freqStart": 864, "freqEnd": 868, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="7">
+        <v>915</v>
+      </c>
+      <c r="C32" s="24">
+        <v>922.5</v>
+      </c>
+      <c r="D32" s="25">
+        <v>920</v>
+      </c>
+      <c r="E32" s="25">
+        <v>925</v>
+      </c>
+      <c r="F32" s="4">
+        <v>100</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>16</v>
+      </c>
+      <c r="I32" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "TH", "freqCenter": 922.5, "freqStart": 920, "freqEnd": 925, "dutyCycle": 100, "spacing": 0, "powerLimit": 16},</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="7">
+        <v>915</v>
+      </c>
+      <c r="C33" s="24">
+        <v>915</v>
+      </c>
+      <c r="D33" s="25">
+        <v>902</v>
+      </c>
+      <c r="E33" s="25">
+        <v>928</v>
+      </c>
+      <c r="F33" s="4">
+        <v>100</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>30</v>
+      </c>
+      <c r="I33" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>{"region": "Unset", "freqCenter": 915, "freqStart": 902, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+    </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A556E9-4CC0-4BED-B472-FF84E742E5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009C190-854C-4AA8-B191-F23D1848AB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Files" sheetId="3" r:id="rId3"/>
     <sheet name="Channels" sheetId="4" r:id="rId4"/>
     <sheet name="Regions" sheetId="5" r:id="rId5"/>
+    <sheet name="Which Channel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="189">
   <si>
     <t>Screen</t>
   </si>
@@ -581,9 +582,6 @@
     <t>freqCenter</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -591,6 +589,24 @@
   </si>
   <si>
     <t>Array</t>
+  </si>
+  <si>
+    <t>Channel Width</t>
+  </si>
+  <si>
+    <t>Spacing</t>
+  </si>
+  <si>
+    <t>Freq Max</t>
+  </si>
+  <si>
+    <t>Freq Min</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -706,7 +722,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,6 +766,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -759,8 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1093,9 +1115,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C985E-F91F-471A-B04D-0671E5EAB4DD}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1142,7 @@
       </c>
       <c r="D2">
         <f>D1-COUNTIF(D6:D502,TRUE)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,7 +1151,7 @@
       </c>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
-        <v>0.7142857142857143</v>
+        <v>0.74725274725274726</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1783,10 +1805,10 @@
         <v>42</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -1800,7 +1822,9 @@
       <c r="C54" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -1812,7 +1836,9 @@
       <c r="C55" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -1824,7 +1850,9 @@
       <c r="C56" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -2392,30 +2420,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="21"/>
+      <c r="C1" s="25"/>
       <c r="D1">
         <f>COUNTA(A6:A501)</f>
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="25"/>
       <c r="D2">
         <f>D1-COUNTIF(D6:D501,TRUE)</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
         <v>0.77777777777777779</v>
@@ -2888,12 +2916,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2970,12 +2998,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3245,8 +3273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF93ECA-C690-4B39-9562-29175E5C2593}">
   <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,28 +3283,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4">
         <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="4">
         <v>928</v>
       </c>
@@ -3304,18 +3332,18 @@
       </c>
       <c r="B6" s="17">
         <f>$C$2+(($C$1+C6)/2)</f>
-        <v>902.1</v>
+        <v>902.25</v>
       </c>
       <c r="C6" s="4">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="17">
         <f>B6-(C6/2)</f>
-        <v>902.03750000000002</v>
+        <v>902</v>
       </c>
       <c r="E6" s="17">
         <f>D6+C6</f>
-        <v>902.16250000000002</v>
+        <v>902.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,19 +3353,19 @@
       </c>
       <c r="B7" s="17">
         <f>B6+$C$1+C7</f>
-        <v>902.30000000000007</v>
+        <v>902.75</v>
       </c>
       <c r="C7" s="17">
         <f>C6</f>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7:D70" si="0">B7-(C7/2)</f>
-        <v>902.23750000000007</v>
+        <v>902.5</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" ref="E7:E70" si="1">D7+C7</f>
-        <v>902.36250000000007</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,19 +3375,19 @@
       </c>
       <c r="B8" s="17">
         <f t="shared" ref="B8:B71" si="3">B7+$C$1+C8</f>
-        <v>902.50000000000011</v>
+        <v>903.25</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" ref="C8:C71" si="4">C7</f>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
-        <v>902.43750000000011</v>
+        <v>903</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="1"/>
-        <v>902.56250000000011</v>
+        <v>903.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3369,19 +3397,19 @@
       </c>
       <c r="B9" s="17">
         <f t="shared" si="3"/>
-        <v>902.70000000000016</v>
+        <v>903.75</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>902.63750000000016</v>
+        <v>903.5</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="1"/>
-        <v>902.76250000000016</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3391,19 +3419,19 @@
       </c>
       <c r="B10" s="17">
         <f t="shared" si="3"/>
-        <v>902.9000000000002</v>
+        <v>904.25</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>902.8375000000002</v>
+        <v>904</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" si="1"/>
-        <v>902.9625000000002</v>
+        <v>904.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3413,19 +3441,19 @@
       </c>
       <c r="B11" s="17">
         <f t="shared" si="3"/>
-        <v>903.10000000000025</v>
+        <v>904.75</v>
       </c>
       <c r="C11" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>903.03750000000025</v>
+        <v>904.5</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" si="1"/>
-        <v>903.16250000000025</v>
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,19 +3463,19 @@
       </c>
       <c r="B12" s="17">
         <f t="shared" si="3"/>
-        <v>903.3000000000003</v>
+        <v>905.25</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>903.2375000000003</v>
+        <v>905</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" si="1"/>
-        <v>903.3625000000003</v>
+        <v>905.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,19 +3485,19 @@
       </c>
       <c r="B13" s="17">
         <f t="shared" si="3"/>
-        <v>903.50000000000034</v>
+        <v>905.75</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>903.43750000000034</v>
+        <v>905.5</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" si="1"/>
-        <v>903.56250000000034</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,19 +3507,19 @@
       </c>
       <c r="B14" s="17">
         <f t="shared" si="3"/>
-        <v>903.70000000000039</v>
+        <v>906.25</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="0"/>
-        <v>903.63750000000039</v>
+        <v>906</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" si="1"/>
-        <v>903.76250000000039</v>
+        <v>906.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3501,19 +3529,19 @@
       </c>
       <c r="B15" s="17">
         <f t="shared" si="3"/>
-        <v>903.90000000000043</v>
+        <v>906.75</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
-        <v>903.83750000000043</v>
+        <v>906.5</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" si="1"/>
-        <v>903.96250000000043</v>
+        <v>907</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3523,19 +3551,19 @@
       </c>
       <c r="B16" s="17">
         <f t="shared" si="3"/>
-        <v>904.10000000000048</v>
+        <v>907.25</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="0"/>
-        <v>904.03750000000048</v>
+        <v>907</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
-        <v>904.16250000000048</v>
+        <v>907.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,19 +3573,19 @@
       </c>
       <c r="B17" s="17">
         <f t="shared" si="3"/>
-        <v>904.30000000000052</v>
+        <v>907.75</v>
       </c>
       <c r="C17" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" si="0"/>
-        <v>904.23750000000052</v>
+        <v>907.5</v>
       </c>
       <c r="E17" s="17">
         <f t="shared" si="1"/>
-        <v>904.36250000000052</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3567,19 +3595,19 @@
       </c>
       <c r="B18" s="17">
         <f t="shared" si="3"/>
-        <v>904.50000000000057</v>
+        <v>908.25</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="0"/>
-        <v>904.43750000000057</v>
+        <v>908</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" si="1"/>
-        <v>904.56250000000057</v>
+        <v>908.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,19 +3617,19 @@
       </c>
       <c r="B19" s="17">
         <f t="shared" si="3"/>
-        <v>904.70000000000061</v>
+        <v>908.75</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" si="0"/>
-        <v>904.63750000000061</v>
+        <v>908.5</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" si="1"/>
-        <v>904.76250000000061</v>
+        <v>909</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3611,19 +3639,19 @@
       </c>
       <c r="B20" s="17">
         <f t="shared" si="3"/>
-        <v>904.90000000000066</v>
+        <v>909.25</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
-        <v>904.83750000000066</v>
+        <v>909</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="1"/>
-        <v>904.96250000000066</v>
+        <v>909.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3633,19 +3661,19 @@
       </c>
       <c r="B21" s="17">
         <f t="shared" si="3"/>
-        <v>905.1000000000007</v>
+        <v>909.75</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" si="0"/>
-        <v>905.0375000000007</v>
+        <v>909.5</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="1"/>
-        <v>905.1625000000007</v>
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3655,19 +3683,19 @@
       </c>
       <c r="B22" s="17">
         <f t="shared" si="3"/>
-        <v>905.30000000000075</v>
+        <v>910.25</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="0"/>
-        <v>905.23750000000075</v>
+        <v>910</v>
       </c>
       <c r="E22" s="17">
         <f t="shared" si="1"/>
-        <v>905.36250000000075</v>
+        <v>910.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,19 +3705,19 @@
       </c>
       <c r="B23" s="17">
         <f t="shared" si="3"/>
-        <v>905.5000000000008</v>
+        <v>910.75</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="17">
         <f t="shared" si="0"/>
-        <v>905.4375000000008</v>
+        <v>910.5</v>
       </c>
       <c r="E23" s="17">
         <f t="shared" si="1"/>
-        <v>905.5625000000008</v>
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3699,19 +3727,19 @@
       </c>
       <c r="B24" s="17">
         <f t="shared" si="3"/>
-        <v>905.70000000000084</v>
+        <v>911.25</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="0"/>
-        <v>905.63750000000084</v>
+        <v>911</v>
       </c>
       <c r="E24" s="17">
         <f t="shared" si="1"/>
-        <v>905.76250000000084</v>
+        <v>911.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,19 +3749,19 @@
       </c>
       <c r="B25" s="17">
         <f t="shared" si="3"/>
-        <v>905.90000000000089</v>
+        <v>911.75</v>
       </c>
       <c r="C25" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D25" s="17">
         <f t="shared" si="0"/>
-        <v>905.83750000000089</v>
+        <v>911.5</v>
       </c>
       <c r="E25" s="17">
         <f t="shared" si="1"/>
-        <v>905.96250000000089</v>
+        <v>912</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,19 +3771,19 @@
       </c>
       <c r="B26" s="17">
         <f t="shared" si="3"/>
-        <v>906.10000000000093</v>
+        <v>912.25</v>
       </c>
       <c r="C26" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D26" s="17">
         <f t="shared" si="0"/>
-        <v>906.03750000000093</v>
+        <v>912</v>
       </c>
       <c r="E26" s="17">
         <f t="shared" si="1"/>
-        <v>906.16250000000093</v>
+        <v>912.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,19 +3793,19 @@
       </c>
       <c r="B27" s="17">
         <f t="shared" si="3"/>
-        <v>906.30000000000098</v>
+        <v>912.75</v>
       </c>
       <c r="C27" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="0"/>
-        <v>906.23750000000098</v>
+        <v>912.5</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="1"/>
-        <v>906.36250000000098</v>
+        <v>913</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3787,19 +3815,19 @@
       </c>
       <c r="B28" s="17">
         <f t="shared" si="3"/>
-        <v>906.50000000000102</v>
+        <v>913.25</v>
       </c>
       <c r="C28" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="0"/>
-        <v>906.43750000000102</v>
+        <v>913</v>
       </c>
       <c r="E28" s="17">
         <f t="shared" si="1"/>
-        <v>906.56250000000102</v>
+        <v>913.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,19 +3837,19 @@
       </c>
       <c r="B29" s="17">
         <f t="shared" si="3"/>
-        <v>906.70000000000107</v>
+        <v>913.75</v>
       </c>
       <c r="C29" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D29" s="17">
         <f t="shared" si="0"/>
-        <v>906.63750000000107</v>
+        <v>913.5</v>
       </c>
       <c r="E29" s="17">
         <f t="shared" si="1"/>
-        <v>906.76250000000107</v>
+        <v>914</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3831,19 +3859,19 @@
       </c>
       <c r="B30" s="17">
         <f t="shared" si="3"/>
-        <v>906.90000000000111</v>
+        <v>914.25</v>
       </c>
       <c r="C30" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="0"/>
-        <v>906.83750000000111</v>
+        <v>914</v>
       </c>
       <c r="E30" s="17">
         <f t="shared" si="1"/>
-        <v>906.96250000000111</v>
+        <v>914.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,19 +3881,19 @@
       </c>
       <c r="B31" s="17">
         <f t="shared" si="3"/>
-        <v>907.10000000000116</v>
+        <v>914.75</v>
       </c>
       <c r="C31" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D31" s="17">
         <f t="shared" si="0"/>
-        <v>907.03750000000116</v>
+        <v>914.5</v>
       </c>
       <c r="E31" s="17">
         <f t="shared" si="1"/>
-        <v>907.16250000000116</v>
+        <v>915</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3875,19 +3903,19 @@
       </c>
       <c r="B32" s="17">
         <f t="shared" si="3"/>
-        <v>907.30000000000121</v>
+        <v>915.25</v>
       </c>
       <c r="C32" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="0"/>
-        <v>907.23750000000121</v>
+        <v>915</v>
       </c>
       <c r="E32" s="17">
         <f t="shared" si="1"/>
-        <v>907.36250000000121</v>
+        <v>915.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3897,19 +3925,19 @@
       </c>
       <c r="B33" s="17">
         <f t="shared" si="3"/>
-        <v>907.50000000000125</v>
+        <v>915.75</v>
       </c>
       <c r="C33" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D33" s="17">
         <f t="shared" si="0"/>
-        <v>907.43750000000125</v>
+        <v>915.5</v>
       </c>
       <c r="E33" s="17">
         <f t="shared" si="1"/>
-        <v>907.56250000000125</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,19 +3947,19 @@
       </c>
       <c r="B34" s="17">
         <f t="shared" si="3"/>
-        <v>907.7000000000013</v>
+        <v>916.25</v>
       </c>
       <c r="C34" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="0"/>
-        <v>907.6375000000013</v>
+        <v>916</v>
       </c>
       <c r="E34" s="17">
         <f t="shared" si="1"/>
-        <v>907.7625000000013</v>
+        <v>916.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3941,19 +3969,19 @@
       </c>
       <c r="B35" s="17">
         <f t="shared" si="3"/>
-        <v>907.90000000000134</v>
+        <v>916.75</v>
       </c>
       <c r="C35" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
-        <v>907.83750000000134</v>
+        <v>916.5</v>
       </c>
       <c r="E35" s="17">
         <f t="shared" si="1"/>
-        <v>907.96250000000134</v>
+        <v>917</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3963,19 +3991,19 @@
       </c>
       <c r="B36" s="17">
         <f t="shared" si="3"/>
-        <v>908.10000000000139</v>
+        <v>917.25</v>
       </c>
       <c r="C36" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="0"/>
-        <v>908.03750000000139</v>
+        <v>917</v>
       </c>
       <c r="E36" s="17">
         <f t="shared" si="1"/>
-        <v>908.16250000000139</v>
+        <v>917.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,19 +4013,19 @@
       </c>
       <c r="B37" s="17">
         <f t="shared" si="3"/>
-        <v>908.30000000000143</v>
+        <v>917.75</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="17">
         <f t="shared" si="0"/>
-        <v>908.23750000000143</v>
+        <v>917.5</v>
       </c>
       <c r="E37" s="17">
         <f t="shared" si="1"/>
-        <v>908.36250000000143</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4007,19 +4035,19 @@
       </c>
       <c r="B38" s="17">
         <f t="shared" si="3"/>
-        <v>908.50000000000148</v>
+        <v>918.25</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D38" s="17">
         <f t="shared" si="0"/>
-        <v>908.43750000000148</v>
+        <v>918</v>
       </c>
       <c r="E38" s="17">
         <f t="shared" si="1"/>
-        <v>908.56250000000148</v>
+        <v>918.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4029,19 +4057,19 @@
       </c>
       <c r="B39" s="17">
         <f t="shared" si="3"/>
-        <v>908.70000000000152</v>
+        <v>918.75</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D39" s="17">
         <f t="shared" si="0"/>
-        <v>908.63750000000152</v>
+        <v>918.5</v>
       </c>
       <c r="E39" s="17">
         <f t="shared" si="1"/>
-        <v>908.76250000000152</v>
+        <v>919</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4051,19 +4079,19 @@
       </c>
       <c r="B40" s="17">
         <f t="shared" si="3"/>
-        <v>908.90000000000157</v>
+        <v>919.25</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D40" s="17">
         <f t="shared" si="0"/>
-        <v>908.83750000000157</v>
+        <v>919</v>
       </c>
       <c r="E40" s="17">
         <f t="shared" si="1"/>
-        <v>908.96250000000157</v>
+        <v>919.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,19 +4101,19 @@
       </c>
       <c r="B41" s="17">
         <f t="shared" si="3"/>
-        <v>909.10000000000161</v>
+        <v>919.75</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D41" s="17">
         <f t="shared" si="0"/>
-        <v>909.03750000000161</v>
+        <v>919.5</v>
       </c>
       <c r="E41" s="17">
         <f t="shared" si="1"/>
-        <v>909.16250000000161</v>
+        <v>920</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4095,19 +4123,19 @@
       </c>
       <c r="B42" s="17">
         <f t="shared" si="3"/>
-        <v>909.30000000000166</v>
+        <v>920.25</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D42" s="17">
         <f t="shared" si="0"/>
-        <v>909.23750000000166</v>
+        <v>920</v>
       </c>
       <c r="E42" s="17">
         <f t="shared" si="1"/>
-        <v>909.36250000000166</v>
+        <v>920.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4117,19 +4145,19 @@
       </c>
       <c r="B43" s="17">
         <f t="shared" si="3"/>
-        <v>909.50000000000171</v>
+        <v>920.75</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D43" s="17">
         <f t="shared" si="0"/>
-        <v>909.43750000000171</v>
+        <v>920.5</v>
       </c>
       <c r="E43" s="17">
         <f t="shared" si="1"/>
-        <v>909.56250000000171</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4139,19 +4167,19 @@
       </c>
       <c r="B44" s="17">
         <f t="shared" si="3"/>
-        <v>909.70000000000175</v>
+        <v>921.25</v>
       </c>
       <c r="C44" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D44" s="17">
         <f t="shared" si="0"/>
-        <v>909.63750000000175</v>
+        <v>921</v>
       </c>
       <c r="E44" s="17">
         <f t="shared" si="1"/>
-        <v>909.76250000000175</v>
+        <v>921.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4161,19 +4189,19 @@
       </c>
       <c r="B45" s="17">
         <f t="shared" si="3"/>
-        <v>909.9000000000018</v>
+        <v>921.75</v>
       </c>
       <c r="C45" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D45" s="17">
         <f t="shared" si="0"/>
-        <v>909.8375000000018</v>
+        <v>921.5</v>
       </c>
       <c r="E45" s="17">
         <f t="shared" si="1"/>
-        <v>909.9625000000018</v>
+        <v>922</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4183,19 +4211,19 @@
       </c>
       <c r="B46" s="17">
         <f t="shared" si="3"/>
-        <v>910.10000000000184</v>
+        <v>922.25</v>
       </c>
       <c r="C46" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D46" s="17">
         <f t="shared" si="0"/>
-        <v>910.03750000000184</v>
+        <v>922</v>
       </c>
       <c r="E46" s="17">
         <f t="shared" si="1"/>
-        <v>910.16250000000184</v>
+        <v>922.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4205,19 +4233,19 @@
       </c>
       <c r="B47" s="17">
         <f t="shared" si="3"/>
-        <v>910.30000000000189</v>
+        <v>922.75</v>
       </c>
       <c r="C47" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D47" s="17">
         <f t="shared" si="0"/>
-        <v>910.23750000000189</v>
+        <v>922.5</v>
       </c>
       <c r="E47" s="17">
         <f t="shared" si="1"/>
-        <v>910.36250000000189</v>
+        <v>923</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4227,19 +4255,19 @@
       </c>
       <c r="B48" s="17">
         <f t="shared" si="3"/>
-        <v>910.50000000000193</v>
+        <v>923.25</v>
       </c>
       <c r="C48" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D48" s="17">
         <f t="shared" si="0"/>
-        <v>910.43750000000193</v>
+        <v>923</v>
       </c>
       <c r="E48" s="17">
         <f t="shared" si="1"/>
-        <v>910.56250000000193</v>
+        <v>923.5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4249,19 +4277,19 @@
       </c>
       <c r="B49" s="17">
         <f t="shared" si="3"/>
-        <v>910.70000000000198</v>
+        <v>923.75</v>
       </c>
       <c r="C49" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D49" s="17">
         <f t="shared" si="0"/>
-        <v>910.63750000000198</v>
+        <v>923.5</v>
       </c>
       <c r="E49" s="17">
         <f t="shared" si="1"/>
-        <v>910.76250000000198</v>
+        <v>924</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4271,19 +4299,19 @@
       </c>
       <c r="B50" s="17">
         <f t="shared" si="3"/>
-        <v>910.90000000000202</v>
+        <v>924.25</v>
       </c>
       <c r="C50" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D50" s="17">
         <f t="shared" si="0"/>
-        <v>910.83750000000202</v>
+        <v>924</v>
       </c>
       <c r="E50" s="17">
         <f t="shared" si="1"/>
-        <v>910.96250000000202</v>
+        <v>924.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,19 +4321,19 @@
       </c>
       <c r="B51" s="17">
         <f t="shared" si="3"/>
-        <v>911.10000000000207</v>
+        <v>924.75</v>
       </c>
       <c r="C51" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D51" s="17">
         <f t="shared" si="0"/>
-        <v>911.03750000000207</v>
+        <v>924.5</v>
       </c>
       <c r="E51" s="17">
         <f t="shared" si="1"/>
-        <v>911.16250000000207</v>
+        <v>925</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4315,19 +4343,19 @@
       </c>
       <c r="B52" s="17">
         <f t="shared" si="3"/>
-        <v>911.30000000000211</v>
+        <v>925.25</v>
       </c>
       <c r="C52" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D52" s="17">
         <f t="shared" si="0"/>
-        <v>911.23750000000211</v>
+        <v>925</v>
       </c>
       <c r="E52" s="17">
         <f t="shared" si="1"/>
-        <v>911.36250000000211</v>
+        <v>925.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4337,19 +4365,19 @@
       </c>
       <c r="B53" s="17">
         <f t="shared" si="3"/>
-        <v>911.50000000000216</v>
+        <v>925.75</v>
       </c>
       <c r="C53" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D53" s="17">
         <f t="shared" si="0"/>
-        <v>911.43750000000216</v>
+        <v>925.5</v>
       </c>
       <c r="E53" s="17">
         <f t="shared" si="1"/>
-        <v>911.56250000000216</v>
+        <v>926</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4359,19 +4387,19 @@
       </c>
       <c r="B54" s="17">
         <f t="shared" si="3"/>
-        <v>911.70000000000221</v>
+        <v>926.25</v>
       </c>
       <c r="C54" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D54" s="17">
         <f t="shared" si="0"/>
-        <v>911.63750000000221</v>
+        <v>926</v>
       </c>
       <c r="E54" s="17">
         <f t="shared" si="1"/>
-        <v>911.76250000000221</v>
+        <v>926.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4381,19 +4409,19 @@
       </c>
       <c r="B55" s="17">
         <f t="shared" si="3"/>
-        <v>911.90000000000225</v>
+        <v>926.75</v>
       </c>
       <c r="C55" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" si="0"/>
-        <v>911.83750000000225</v>
+        <v>926.5</v>
       </c>
       <c r="E55" s="17">
         <f t="shared" si="1"/>
-        <v>911.96250000000225</v>
+        <v>927</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4403,19 +4431,19 @@
       </c>
       <c r="B56" s="17">
         <f t="shared" si="3"/>
-        <v>912.1000000000023</v>
+        <v>927.25</v>
       </c>
       <c r="C56" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="17">
         <f t="shared" si="0"/>
-        <v>912.0375000000023</v>
+        <v>927</v>
       </c>
       <c r="E56" s="17">
         <f t="shared" si="1"/>
-        <v>912.1625000000023</v>
+        <v>927.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4425,19 +4453,19 @@
       </c>
       <c r="B57" s="17">
         <f t="shared" si="3"/>
-        <v>912.30000000000234</v>
+        <v>927.75</v>
       </c>
       <c r="C57" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D57" s="17">
         <f t="shared" si="0"/>
-        <v>912.23750000000234</v>
+        <v>927.5</v>
       </c>
       <c r="E57" s="17">
         <f t="shared" si="1"/>
-        <v>912.36250000000234</v>
+        <v>928</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,19 +4475,19 @@
       </c>
       <c r="B58" s="17">
         <f t="shared" si="3"/>
-        <v>912.50000000000239</v>
+        <v>928.25</v>
       </c>
       <c r="C58" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D58" s="17">
         <f t="shared" si="0"/>
-        <v>912.43750000000239</v>
+        <v>928</v>
       </c>
       <c r="E58" s="17">
         <f t="shared" si="1"/>
-        <v>912.56250000000239</v>
+        <v>928.5</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4469,19 +4497,19 @@
       </c>
       <c r="B59" s="17">
         <f t="shared" si="3"/>
-        <v>912.70000000000243</v>
+        <v>928.75</v>
       </c>
       <c r="C59" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D59" s="17">
         <f t="shared" si="0"/>
-        <v>912.63750000000243</v>
+        <v>928.5</v>
       </c>
       <c r="E59" s="17">
         <f t="shared" si="1"/>
-        <v>912.76250000000243</v>
+        <v>929</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4491,19 +4519,19 @@
       </c>
       <c r="B60" s="17">
         <f t="shared" si="3"/>
-        <v>912.90000000000248</v>
+        <v>929.25</v>
       </c>
       <c r="C60" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D60" s="17">
         <f t="shared" si="0"/>
-        <v>912.83750000000248</v>
+        <v>929</v>
       </c>
       <c r="E60" s="17">
         <f t="shared" si="1"/>
-        <v>912.96250000000248</v>
+        <v>929.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4513,19 +4541,19 @@
       </c>
       <c r="B61" s="17">
         <f t="shared" si="3"/>
-        <v>913.10000000000252</v>
+        <v>929.75</v>
       </c>
       <c r="C61" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D61" s="17">
         <f t="shared" si="0"/>
-        <v>913.03750000000252</v>
+        <v>929.5</v>
       </c>
       <c r="E61" s="17">
         <f t="shared" si="1"/>
-        <v>913.16250000000252</v>
+        <v>930</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,19 +4563,19 @@
       </c>
       <c r="B62" s="17">
         <f t="shared" si="3"/>
-        <v>913.30000000000257</v>
+        <v>930.25</v>
       </c>
       <c r="C62" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D62" s="17">
         <f t="shared" si="0"/>
-        <v>913.23750000000257</v>
+        <v>930</v>
       </c>
       <c r="E62" s="17">
         <f t="shared" si="1"/>
-        <v>913.36250000000257</v>
+        <v>930.5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4557,19 +4585,19 @@
       </c>
       <c r="B63" s="17">
         <f t="shared" si="3"/>
-        <v>913.50000000000261</v>
+        <v>930.75</v>
       </c>
       <c r="C63" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D63" s="17">
         <f t="shared" si="0"/>
-        <v>913.43750000000261</v>
+        <v>930.5</v>
       </c>
       <c r="E63" s="17">
         <f t="shared" si="1"/>
-        <v>913.56250000000261</v>
+        <v>931</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4579,19 +4607,19 @@
       </c>
       <c r="B64" s="17">
         <f t="shared" si="3"/>
-        <v>913.70000000000266</v>
+        <v>931.25</v>
       </c>
       <c r="C64" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D64" s="17">
         <f t="shared" si="0"/>
-        <v>913.63750000000266</v>
+        <v>931</v>
       </c>
       <c r="E64" s="17">
         <f t="shared" si="1"/>
-        <v>913.76250000000266</v>
+        <v>931.5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4601,19 +4629,19 @@
       </c>
       <c r="B65" s="17">
         <f t="shared" si="3"/>
-        <v>913.90000000000271</v>
+        <v>931.75</v>
       </c>
       <c r="C65" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D65" s="17">
         <f t="shared" si="0"/>
-        <v>913.83750000000271</v>
+        <v>931.5</v>
       </c>
       <c r="E65" s="17">
         <f t="shared" si="1"/>
-        <v>913.96250000000271</v>
+        <v>932</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4623,19 +4651,19 @@
       </c>
       <c r="B66" s="17">
         <f t="shared" si="3"/>
-        <v>914.10000000000275</v>
+        <v>932.25</v>
       </c>
       <c r="C66" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D66" s="17">
         <f t="shared" si="0"/>
-        <v>914.03750000000275</v>
+        <v>932</v>
       </c>
       <c r="E66" s="17">
         <f t="shared" si="1"/>
-        <v>914.16250000000275</v>
+        <v>932.5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,19 +4673,19 @@
       </c>
       <c r="B67" s="17">
         <f t="shared" si="3"/>
-        <v>914.3000000000028</v>
+        <v>932.75</v>
       </c>
       <c r="C67" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D67" s="17">
         <f t="shared" si="0"/>
-        <v>914.2375000000028</v>
+        <v>932.5</v>
       </c>
       <c r="E67" s="17">
         <f t="shared" si="1"/>
-        <v>914.3625000000028</v>
+        <v>933</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4667,19 +4695,19 @@
       </c>
       <c r="B68" s="17">
         <f t="shared" si="3"/>
-        <v>914.50000000000284</v>
+        <v>933.25</v>
       </c>
       <c r="C68" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D68" s="17">
         <f t="shared" si="0"/>
-        <v>914.43750000000284</v>
+        <v>933</v>
       </c>
       <c r="E68" s="17">
         <f t="shared" si="1"/>
-        <v>914.56250000000284</v>
+        <v>933.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4689,19 +4717,19 @@
       </c>
       <c r="B69" s="17">
         <f t="shared" si="3"/>
-        <v>914.70000000000289</v>
+        <v>933.75</v>
       </c>
       <c r="C69" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D69" s="17">
         <f t="shared" si="0"/>
-        <v>914.63750000000289</v>
+        <v>933.5</v>
       </c>
       <c r="E69" s="17">
         <f t="shared" si="1"/>
-        <v>914.76250000000289</v>
+        <v>934</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4711,19 +4739,19 @@
       </c>
       <c r="B70" s="17">
         <f t="shared" si="3"/>
-        <v>914.90000000000293</v>
+        <v>934.25</v>
       </c>
       <c r="C70" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D70" s="17">
         <f t="shared" si="0"/>
-        <v>914.83750000000293</v>
+        <v>934</v>
       </c>
       <c r="E70" s="17">
         <f t="shared" si="1"/>
-        <v>914.96250000000293</v>
+        <v>934.5</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,19 +4761,19 @@
       </c>
       <c r="B71" s="17">
         <f t="shared" si="3"/>
-        <v>915.10000000000298</v>
+        <v>934.75</v>
       </c>
       <c r="C71" s="17">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D71" s="17">
         <f t="shared" ref="D71:D134" si="8">B71-(C71/2)</f>
-        <v>915.03750000000298</v>
+        <v>934.5</v>
       </c>
       <c r="E71" s="17">
         <f t="shared" ref="E71:E134" si="9">D71+C71</f>
-        <v>915.16250000000298</v>
+        <v>935</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4755,19 +4783,19 @@
       </c>
       <c r="B72" s="17">
         <f t="shared" ref="B72:B135" si="10">B71+$C$1+C72</f>
-        <v>915.30000000000302</v>
+        <v>935.25</v>
       </c>
       <c r="C72" s="17">
         <f t="shared" ref="C72:C135" si="11">C71</f>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D72" s="17">
         <f t="shared" si="8"/>
-        <v>915.23750000000302</v>
+        <v>935</v>
       </c>
       <c r="E72" s="17">
         <f t="shared" si="9"/>
-        <v>915.36250000000302</v>
+        <v>935.5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4777,19 +4805,19 @@
       </c>
       <c r="B73" s="17">
         <f t="shared" si="10"/>
-        <v>915.50000000000307</v>
+        <v>935.75</v>
       </c>
       <c r="C73" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D73" s="17">
         <f t="shared" si="8"/>
-        <v>915.43750000000307</v>
+        <v>935.5</v>
       </c>
       <c r="E73" s="17">
         <f t="shared" si="9"/>
-        <v>915.56250000000307</v>
+        <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4799,19 +4827,19 @@
       </c>
       <c r="B74" s="17">
         <f t="shared" si="10"/>
-        <v>915.70000000000312</v>
+        <v>936.25</v>
       </c>
       <c r="C74" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D74" s="17">
         <f t="shared" si="8"/>
-        <v>915.63750000000312</v>
+        <v>936</v>
       </c>
       <c r="E74" s="17">
         <f t="shared" si="9"/>
-        <v>915.76250000000312</v>
+        <v>936.5</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4821,19 +4849,19 @@
       </c>
       <c r="B75" s="17">
         <f t="shared" si="10"/>
-        <v>915.90000000000316</v>
+        <v>936.75</v>
       </c>
       <c r="C75" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D75" s="17">
         <f t="shared" si="8"/>
-        <v>915.83750000000316</v>
+        <v>936.5</v>
       </c>
       <c r="E75" s="17">
         <f t="shared" si="9"/>
-        <v>915.96250000000316</v>
+        <v>937</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4843,19 +4871,19 @@
       </c>
       <c r="B76" s="17">
         <f t="shared" si="10"/>
-        <v>916.10000000000321</v>
+        <v>937.25</v>
       </c>
       <c r="C76" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D76" s="17">
         <f t="shared" si="8"/>
-        <v>916.03750000000321</v>
+        <v>937</v>
       </c>
       <c r="E76" s="17">
         <f t="shared" si="9"/>
-        <v>916.16250000000321</v>
+        <v>937.5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4865,19 +4893,19 @@
       </c>
       <c r="B77" s="17">
         <f t="shared" si="10"/>
-        <v>916.30000000000325</v>
+        <v>937.75</v>
       </c>
       <c r="C77" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D77" s="17">
         <f t="shared" si="8"/>
-        <v>916.23750000000325</v>
+        <v>937.5</v>
       </c>
       <c r="E77" s="17">
         <f t="shared" si="9"/>
-        <v>916.36250000000325</v>
+        <v>938</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4887,19 +4915,19 @@
       </c>
       <c r="B78" s="17">
         <f t="shared" si="10"/>
-        <v>916.5000000000033</v>
+        <v>938.25</v>
       </c>
       <c r="C78" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D78" s="17">
         <f t="shared" si="8"/>
-        <v>916.4375000000033</v>
+        <v>938</v>
       </c>
       <c r="E78" s="17">
         <f t="shared" si="9"/>
-        <v>916.5625000000033</v>
+        <v>938.5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,19 +4937,19 @@
       </c>
       <c r="B79" s="17">
         <f t="shared" si="10"/>
-        <v>916.70000000000334</v>
+        <v>938.75</v>
       </c>
       <c r="C79" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D79" s="17">
         <f t="shared" si="8"/>
-        <v>916.63750000000334</v>
+        <v>938.5</v>
       </c>
       <c r="E79" s="17">
         <f t="shared" si="9"/>
-        <v>916.76250000000334</v>
+        <v>939</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4931,19 +4959,19 @@
       </c>
       <c r="B80" s="17">
         <f t="shared" si="10"/>
-        <v>916.90000000000339</v>
+        <v>939.25</v>
       </c>
       <c r="C80" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="8"/>
-        <v>916.83750000000339</v>
+        <v>939</v>
       </c>
       <c r="E80" s="17">
         <f t="shared" si="9"/>
-        <v>916.96250000000339</v>
+        <v>939.5</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,19 +4981,19 @@
       </c>
       <c r="B81" s="17">
         <f t="shared" si="10"/>
-        <v>917.10000000000343</v>
+        <v>939.75</v>
       </c>
       <c r="C81" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D81" s="17">
         <f t="shared" si="8"/>
-        <v>917.03750000000343</v>
+        <v>939.5</v>
       </c>
       <c r="E81" s="17">
         <f t="shared" si="9"/>
-        <v>917.16250000000343</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4975,19 +5003,19 @@
       </c>
       <c r="B82" s="17">
         <f t="shared" si="10"/>
-        <v>917.30000000000348</v>
+        <v>940.25</v>
       </c>
       <c r="C82" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D82" s="17">
         <f t="shared" si="8"/>
-        <v>917.23750000000348</v>
+        <v>940</v>
       </c>
       <c r="E82" s="17">
         <f t="shared" si="9"/>
-        <v>917.36250000000348</v>
+        <v>940.5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4997,19 +5025,19 @@
       </c>
       <c r="B83" s="17">
         <f t="shared" si="10"/>
-        <v>917.50000000000352</v>
+        <v>940.75</v>
       </c>
       <c r="C83" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D83" s="17">
         <f t="shared" si="8"/>
-        <v>917.43750000000352</v>
+        <v>940.5</v>
       </c>
       <c r="E83" s="17">
         <f t="shared" si="9"/>
-        <v>917.56250000000352</v>
+        <v>941</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5019,19 +5047,19 @@
       </c>
       <c r="B84" s="17">
         <f t="shared" si="10"/>
-        <v>917.70000000000357</v>
+        <v>941.25</v>
       </c>
       <c r="C84" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D84" s="17">
         <f t="shared" si="8"/>
-        <v>917.63750000000357</v>
+        <v>941</v>
       </c>
       <c r="E84" s="17">
         <f t="shared" si="9"/>
-        <v>917.76250000000357</v>
+        <v>941.5</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5041,19 +5069,19 @@
       </c>
       <c r="B85" s="17">
         <f t="shared" si="10"/>
-        <v>917.90000000000362</v>
+        <v>941.75</v>
       </c>
       <c r="C85" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D85" s="17">
         <f t="shared" si="8"/>
-        <v>917.83750000000362</v>
+        <v>941.5</v>
       </c>
       <c r="E85" s="17">
         <f t="shared" si="9"/>
-        <v>917.96250000000362</v>
+        <v>942</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5063,19 +5091,19 @@
       </c>
       <c r="B86" s="17">
         <f t="shared" si="10"/>
-        <v>918.10000000000366</v>
+        <v>942.25</v>
       </c>
       <c r="C86" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D86" s="17">
         <f t="shared" si="8"/>
-        <v>918.03750000000366</v>
+        <v>942</v>
       </c>
       <c r="E86" s="17">
         <f t="shared" si="9"/>
-        <v>918.16250000000366</v>
+        <v>942.5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5085,19 +5113,19 @@
       </c>
       <c r="B87" s="17">
         <f t="shared" si="10"/>
-        <v>918.30000000000371</v>
+        <v>942.75</v>
       </c>
       <c r="C87" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D87" s="17">
         <f t="shared" si="8"/>
-        <v>918.23750000000371</v>
+        <v>942.5</v>
       </c>
       <c r="E87" s="17">
         <f t="shared" si="9"/>
-        <v>918.36250000000371</v>
+        <v>943</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5107,19 +5135,19 @@
       </c>
       <c r="B88" s="17">
         <f t="shared" si="10"/>
-        <v>918.50000000000375</v>
+        <v>943.25</v>
       </c>
       <c r="C88" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D88" s="17">
         <f t="shared" si="8"/>
-        <v>918.43750000000375</v>
+        <v>943</v>
       </c>
       <c r="E88" s="17">
         <f t="shared" si="9"/>
-        <v>918.56250000000375</v>
+        <v>943.5</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5129,19 +5157,19 @@
       </c>
       <c r="B89" s="17">
         <f t="shared" si="10"/>
-        <v>918.7000000000038</v>
+        <v>943.75</v>
       </c>
       <c r="C89" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D89" s="17">
         <f t="shared" si="8"/>
-        <v>918.6375000000038</v>
+        <v>943.5</v>
       </c>
       <c r="E89" s="17">
         <f t="shared" si="9"/>
-        <v>918.7625000000038</v>
+        <v>944</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5151,19 +5179,19 @@
       </c>
       <c r="B90" s="17">
         <f t="shared" si="10"/>
-        <v>918.90000000000384</v>
+        <v>944.25</v>
       </c>
       <c r="C90" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D90" s="17">
         <f t="shared" si="8"/>
-        <v>918.83750000000384</v>
+        <v>944</v>
       </c>
       <c r="E90" s="17">
         <f t="shared" si="9"/>
-        <v>918.96250000000384</v>
+        <v>944.5</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5173,19 +5201,19 @@
       </c>
       <c r="B91" s="17">
         <f t="shared" si="10"/>
-        <v>919.10000000000389</v>
+        <v>944.75</v>
       </c>
       <c r="C91" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D91" s="17">
         <f t="shared" si="8"/>
-        <v>919.03750000000389</v>
+        <v>944.5</v>
       </c>
       <c r="E91" s="17">
         <f t="shared" si="9"/>
-        <v>919.16250000000389</v>
+        <v>945</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5195,19 +5223,19 @@
       </c>
       <c r="B92" s="17">
         <f t="shared" si="10"/>
-        <v>919.30000000000393</v>
+        <v>945.25</v>
       </c>
       <c r="C92" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D92" s="17">
         <f t="shared" si="8"/>
-        <v>919.23750000000393</v>
+        <v>945</v>
       </c>
       <c r="E92" s="17">
         <f t="shared" si="9"/>
-        <v>919.36250000000393</v>
+        <v>945.5</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,19 +5245,19 @@
       </c>
       <c r="B93" s="17">
         <f t="shared" si="10"/>
-        <v>919.50000000000398</v>
+        <v>945.75</v>
       </c>
       <c r="C93" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D93" s="17">
         <f t="shared" si="8"/>
-        <v>919.43750000000398</v>
+        <v>945.5</v>
       </c>
       <c r="E93" s="17">
         <f t="shared" si="9"/>
-        <v>919.56250000000398</v>
+        <v>946</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5239,19 +5267,19 @@
       </c>
       <c r="B94" s="17">
         <f t="shared" si="10"/>
-        <v>919.70000000000402</v>
+        <v>946.25</v>
       </c>
       <c r="C94" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D94" s="17">
         <f t="shared" si="8"/>
-        <v>919.63750000000402</v>
+        <v>946</v>
       </c>
       <c r="E94" s="17">
         <f t="shared" si="9"/>
-        <v>919.76250000000402</v>
+        <v>946.5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,19 +5289,19 @@
       </c>
       <c r="B95" s="17">
         <f t="shared" si="10"/>
-        <v>919.90000000000407</v>
+        <v>946.75</v>
       </c>
       <c r="C95" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D95" s="17">
         <f t="shared" si="8"/>
-        <v>919.83750000000407</v>
+        <v>946.5</v>
       </c>
       <c r="E95" s="17">
         <f t="shared" si="9"/>
-        <v>919.96250000000407</v>
+        <v>947</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5283,19 +5311,19 @@
       </c>
       <c r="B96" s="17">
         <f t="shared" si="10"/>
-        <v>920.10000000000412</v>
+        <v>947.25</v>
       </c>
       <c r="C96" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D96" s="17">
         <f t="shared" si="8"/>
-        <v>920.03750000000412</v>
+        <v>947</v>
       </c>
       <c r="E96" s="17">
         <f t="shared" si="9"/>
-        <v>920.16250000000412</v>
+        <v>947.5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5305,19 +5333,19 @@
       </c>
       <c r="B97" s="17">
         <f t="shared" si="10"/>
-        <v>920.30000000000416</v>
+        <v>947.75</v>
       </c>
       <c r="C97" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D97" s="17">
         <f t="shared" si="8"/>
-        <v>920.23750000000416</v>
+        <v>947.5</v>
       </c>
       <c r="E97" s="17">
         <f t="shared" si="9"/>
-        <v>920.36250000000416</v>
+        <v>948</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5327,19 +5355,19 @@
       </c>
       <c r="B98" s="17">
         <f t="shared" si="10"/>
-        <v>920.50000000000421</v>
+        <v>948.25</v>
       </c>
       <c r="C98" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D98" s="17">
         <f t="shared" si="8"/>
-        <v>920.43750000000421</v>
+        <v>948</v>
       </c>
       <c r="E98" s="17">
         <f t="shared" si="9"/>
-        <v>920.56250000000421</v>
+        <v>948.5</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5349,19 +5377,19 @@
       </c>
       <c r="B99" s="17">
         <f t="shared" si="10"/>
-        <v>920.70000000000425</v>
+        <v>948.75</v>
       </c>
       <c r="C99" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D99" s="17">
         <f t="shared" si="8"/>
-        <v>920.63750000000425</v>
+        <v>948.5</v>
       </c>
       <c r="E99" s="17">
         <f t="shared" si="9"/>
-        <v>920.76250000000425</v>
+        <v>949</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -5371,19 +5399,19 @@
       </c>
       <c r="B100" s="17">
         <f t="shared" si="10"/>
-        <v>920.9000000000043</v>
+        <v>949.25</v>
       </c>
       <c r="C100" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D100" s="17">
         <f t="shared" si="8"/>
-        <v>920.8375000000043</v>
+        <v>949</v>
       </c>
       <c r="E100" s="17">
         <f t="shared" si="9"/>
-        <v>920.9625000000043</v>
+        <v>949.5</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -5393,19 +5421,19 @@
       </c>
       <c r="B101" s="17">
         <f t="shared" si="10"/>
-        <v>921.10000000000434</v>
+        <v>949.75</v>
       </c>
       <c r="C101" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D101" s="17">
         <f t="shared" si="8"/>
-        <v>921.03750000000434</v>
+        <v>949.5</v>
       </c>
       <c r="E101" s="17">
         <f t="shared" si="9"/>
-        <v>921.16250000000434</v>
+        <v>950</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -5415,19 +5443,19 @@
       </c>
       <c r="B102" s="17">
         <f t="shared" si="10"/>
-        <v>921.30000000000439</v>
+        <v>950.25</v>
       </c>
       <c r="C102" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D102" s="17">
         <f t="shared" si="8"/>
-        <v>921.23750000000439</v>
+        <v>950</v>
       </c>
       <c r="E102" s="17">
         <f t="shared" si="9"/>
-        <v>921.36250000000439</v>
+        <v>950.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -5437,19 +5465,19 @@
       </c>
       <c r="B103" s="17">
         <f t="shared" si="10"/>
-        <v>921.50000000000443</v>
+        <v>950.75</v>
       </c>
       <c r="C103" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D103" s="17">
         <f t="shared" si="8"/>
-        <v>921.43750000000443</v>
+        <v>950.5</v>
       </c>
       <c r="E103" s="17">
         <f t="shared" si="9"/>
-        <v>921.56250000000443</v>
+        <v>951</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -5459,19 +5487,19 @@
       </c>
       <c r="B104" s="17">
         <f t="shared" si="10"/>
-        <v>921.70000000000448</v>
+        <v>951.25</v>
       </c>
       <c r="C104" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D104" s="17">
         <f t="shared" si="8"/>
-        <v>921.63750000000448</v>
+        <v>951</v>
       </c>
       <c r="E104" s="17">
         <f t="shared" si="9"/>
-        <v>921.76250000000448</v>
+        <v>951.5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5481,19 +5509,19 @@
       </c>
       <c r="B105" s="17">
         <f t="shared" si="10"/>
-        <v>921.90000000000452</v>
+        <v>951.75</v>
       </c>
       <c r="C105" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D105" s="17">
         <f t="shared" si="8"/>
-        <v>921.83750000000452</v>
+        <v>951.5</v>
       </c>
       <c r="E105" s="17">
         <f t="shared" si="9"/>
-        <v>921.96250000000452</v>
+        <v>952</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5503,19 +5531,19 @@
       </c>
       <c r="B106" s="17">
         <f t="shared" si="10"/>
-        <v>922.10000000000457</v>
+        <v>952.25</v>
       </c>
       <c r="C106" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D106" s="17">
         <f t="shared" si="8"/>
-        <v>922.03750000000457</v>
+        <v>952</v>
       </c>
       <c r="E106" s="17">
         <f t="shared" si="9"/>
-        <v>922.16250000000457</v>
+        <v>952.5</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5525,19 +5553,19 @@
       </c>
       <c r="B107" s="17">
         <f t="shared" si="10"/>
-        <v>922.30000000000462</v>
+        <v>952.75</v>
       </c>
       <c r="C107" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D107" s="17">
         <f t="shared" si="8"/>
-        <v>922.23750000000462</v>
+        <v>952.5</v>
       </c>
       <c r="E107" s="17">
         <f t="shared" si="9"/>
-        <v>922.36250000000462</v>
+        <v>953</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5547,19 +5575,19 @@
       </c>
       <c r="B108" s="17">
         <f t="shared" si="10"/>
-        <v>922.50000000000466</v>
+        <v>953.25</v>
       </c>
       <c r="C108" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D108" s="17">
         <f t="shared" si="8"/>
-        <v>922.43750000000466</v>
+        <v>953</v>
       </c>
       <c r="E108" s="17">
         <f t="shared" si="9"/>
-        <v>922.56250000000466</v>
+        <v>953.5</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5569,19 +5597,19 @@
       </c>
       <c r="B109" s="17">
         <f t="shared" si="10"/>
-        <v>922.70000000000471</v>
+        <v>953.75</v>
       </c>
       <c r="C109" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D109" s="17">
         <f t="shared" si="8"/>
-        <v>922.63750000000471</v>
+        <v>953.5</v>
       </c>
       <c r="E109" s="17">
         <f t="shared" si="9"/>
-        <v>922.76250000000471</v>
+        <v>954</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5591,19 +5619,19 @@
       </c>
       <c r="B110" s="17">
         <f t="shared" si="10"/>
-        <v>922.90000000000475</v>
+        <v>954.25</v>
       </c>
       <c r="C110" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D110" s="17">
         <f t="shared" si="8"/>
-        <v>922.83750000000475</v>
+        <v>954</v>
       </c>
       <c r="E110" s="17">
         <f t="shared" si="9"/>
-        <v>922.96250000000475</v>
+        <v>954.5</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5613,19 +5641,19 @@
       </c>
       <c r="B111" s="17">
         <f t="shared" si="10"/>
-        <v>923.1000000000048</v>
+        <v>954.75</v>
       </c>
       <c r="C111" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D111" s="17">
         <f t="shared" si="8"/>
-        <v>923.0375000000048</v>
+        <v>954.5</v>
       </c>
       <c r="E111" s="17">
         <f t="shared" si="9"/>
-        <v>923.1625000000048</v>
+        <v>955</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5635,19 +5663,19 @@
       </c>
       <c r="B112" s="17">
         <f t="shared" si="10"/>
-        <v>923.30000000000484</v>
+        <v>955.25</v>
       </c>
       <c r="C112" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D112" s="17">
         <f t="shared" si="8"/>
-        <v>923.23750000000484</v>
+        <v>955</v>
       </c>
       <c r="E112" s="17">
         <f t="shared" si="9"/>
-        <v>923.36250000000484</v>
+        <v>955.5</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,19 +5685,19 @@
       </c>
       <c r="B113" s="17">
         <f t="shared" si="10"/>
-        <v>923.50000000000489</v>
+        <v>955.75</v>
       </c>
       <c r="C113" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D113" s="17">
         <f t="shared" si="8"/>
-        <v>923.43750000000489</v>
+        <v>955.5</v>
       </c>
       <c r="E113" s="17">
         <f t="shared" si="9"/>
-        <v>923.56250000000489</v>
+        <v>956</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5679,19 +5707,19 @@
       </c>
       <c r="B114" s="17">
         <f t="shared" si="10"/>
-        <v>923.70000000000493</v>
+        <v>956.25</v>
       </c>
       <c r="C114" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D114" s="17">
         <f t="shared" si="8"/>
-        <v>923.63750000000493</v>
+        <v>956</v>
       </c>
       <c r="E114" s="17">
         <f t="shared" si="9"/>
-        <v>923.76250000000493</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5701,19 +5729,19 @@
       </c>
       <c r="B115" s="17">
         <f t="shared" si="10"/>
-        <v>923.90000000000498</v>
+        <v>956.75</v>
       </c>
       <c r="C115" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D115" s="17">
         <f t="shared" si="8"/>
-        <v>923.83750000000498</v>
+        <v>956.5</v>
       </c>
       <c r="E115" s="17">
         <f t="shared" si="9"/>
-        <v>923.96250000000498</v>
+        <v>957</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5723,19 +5751,19 @@
       </c>
       <c r="B116" s="17">
         <f t="shared" si="10"/>
-        <v>924.10000000000502</v>
+        <v>957.25</v>
       </c>
       <c r="C116" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D116" s="17">
         <f t="shared" si="8"/>
-        <v>924.03750000000502</v>
+        <v>957</v>
       </c>
       <c r="E116" s="17">
         <f t="shared" si="9"/>
-        <v>924.16250000000502</v>
+        <v>957.5</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5745,19 +5773,19 @@
       </c>
       <c r="B117" s="17">
         <f t="shared" si="10"/>
-        <v>924.30000000000507</v>
+        <v>957.75</v>
       </c>
       <c r="C117" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D117" s="17">
         <f t="shared" si="8"/>
-        <v>924.23750000000507</v>
+        <v>957.5</v>
       </c>
       <c r="E117" s="17">
         <f t="shared" si="9"/>
-        <v>924.36250000000507</v>
+        <v>958</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5767,19 +5795,19 @@
       </c>
       <c r="B118" s="17">
         <f t="shared" si="10"/>
-        <v>924.50000000000512</v>
+        <v>958.25</v>
       </c>
       <c r="C118" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D118" s="17">
         <f t="shared" si="8"/>
-        <v>924.43750000000512</v>
+        <v>958</v>
       </c>
       <c r="E118" s="17">
         <f t="shared" si="9"/>
-        <v>924.56250000000512</v>
+        <v>958.5</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5789,19 +5817,19 @@
       </c>
       <c r="B119" s="17">
         <f t="shared" si="10"/>
-        <v>924.70000000000516</v>
+        <v>958.75</v>
       </c>
       <c r="C119" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D119" s="17">
         <f t="shared" si="8"/>
-        <v>924.63750000000516</v>
+        <v>958.5</v>
       </c>
       <c r="E119" s="17">
         <f t="shared" si="9"/>
-        <v>924.76250000000516</v>
+        <v>959</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5811,19 +5839,19 @@
       </c>
       <c r="B120" s="17">
         <f t="shared" si="10"/>
-        <v>924.90000000000521</v>
+        <v>959.25</v>
       </c>
       <c r="C120" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D120" s="17">
         <f t="shared" si="8"/>
-        <v>924.83750000000521</v>
+        <v>959</v>
       </c>
       <c r="E120" s="17">
         <f t="shared" si="9"/>
-        <v>924.96250000000521</v>
+        <v>959.5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5833,19 +5861,19 @@
       </c>
       <c r="B121" s="17">
         <f t="shared" si="10"/>
-        <v>925.10000000000525</v>
+        <v>959.75</v>
       </c>
       <c r="C121" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D121" s="17">
         <f t="shared" si="8"/>
-        <v>925.03750000000525</v>
+        <v>959.5</v>
       </c>
       <c r="E121" s="17">
         <f t="shared" si="9"/>
-        <v>925.16250000000525</v>
+        <v>960</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5855,19 +5883,19 @@
       </c>
       <c r="B122" s="17">
         <f t="shared" si="10"/>
-        <v>925.3000000000053</v>
+        <v>960.25</v>
       </c>
       <c r="C122" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D122" s="17">
         <f t="shared" si="8"/>
-        <v>925.2375000000053</v>
+        <v>960</v>
       </c>
       <c r="E122" s="17">
         <f t="shared" si="9"/>
-        <v>925.3625000000053</v>
+        <v>960.5</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5877,19 +5905,19 @@
       </c>
       <c r="B123" s="17">
         <f t="shared" si="10"/>
-        <v>925.50000000000534</v>
+        <v>960.75</v>
       </c>
       <c r="C123" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D123" s="17">
         <f t="shared" si="8"/>
-        <v>925.43750000000534</v>
+        <v>960.5</v>
       </c>
       <c r="E123" s="17">
         <f t="shared" si="9"/>
-        <v>925.56250000000534</v>
+        <v>961</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -5899,19 +5927,19 @@
       </c>
       <c r="B124" s="17">
         <f t="shared" si="10"/>
-        <v>925.70000000000539</v>
+        <v>961.25</v>
       </c>
       <c r="C124" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D124" s="17">
         <f t="shared" si="8"/>
-        <v>925.63750000000539</v>
+        <v>961</v>
       </c>
       <c r="E124" s="17">
         <f t="shared" si="9"/>
-        <v>925.76250000000539</v>
+        <v>961.5</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -5921,19 +5949,19 @@
       </c>
       <c r="B125" s="17">
         <f t="shared" si="10"/>
-        <v>925.90000000000543</v>
+        <v>961.75</v>
       </c>
       <c r="C125" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D125" s="17">
         <f t="shared" si="8"/>
-        <v>925.83750000000543</v>
+        <v>961.5</v>
       </c>
       <c r="E125" s="17">
         <f t="shared" si="9"/>
-        <v>925.96250000000543</v>
+        <v>962</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -5943,19 +5971,19 @@
       </c>
       <c r="B126" s="17">
         <f t="shared" si="10"/>
-        <v>926.10000000000548</v>
+        <v>962.25</v>
       </c>
       <c r="C126" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D126" s="17">
         <f t="shared" si="8"/>
-        <v>926.03750000000548</v>
+        <v>962</v>
       </c>
       <c r="E126" s="17">
         <f t="shared" si="9"/>
-        <v>926.16250000000548</v>
+        <v>962.5</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -5965,19 +5993,19 @@
       </c>
       <c r="B127" s="17">
         <f t="shared" si="10"/>
-        <v>926.30000000000553</v>
+        <v>962.75</v>
       </c>
       <c r="C127" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D127" s="17">
         <f t="shared" si="8"/>
-        <v>926.23750000000553</v>
+        <v>962.5</v>
       </c>
       <c r="E127" s="17">
         <f t="shared" si="9"/>
-        <v>926.36250000000553</v>
+        <v>963</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -5987,19 +6015,19 @@
       </c>
       <c r="B128" s="17">
         <f t="shared" si="10"/>
-        <v>926.50000000000557</v>
+        <v>963.25</v>
       </c>
       <c r="C128" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D128" s="17">
         <f t="shared" si="8"/>
-        <v>926.43750000000557</v>
+        <v>963</v>
       </c>
       <c r="E128" s="17">
         <f t="shared" si="9"/>
-        <v>926.56250000000557</v>
+        <v>963.5</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -6009,19 +6037,19 @@
       </c>
       <c r="B129" s="17">
         <f t="shared" si="10"/>
-        <v>926.70000000000562</v>
+        <v>963.75</v>
       </c>
       <c r="C129" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D129" s="17">
         <f t="shared" si="8"/>
-        <v>926.63750000000562</v>
+        <v>963.5</v>
       </c>
       <c r="E129" s="17">
         <f t="shared" si="9"/>
-        <v>926.76250000000562</v>
+        <v>964</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -6031,19 +6059,19 @@
       </c>
       <c r="B130" s="17">
         <f t="shared" si="10"/>
-        <v>926.90000000000566</v>
+        <v>964.25</v>
       </c>
       <c r="C130" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D130" s="17">
         <f t="shared" si="8"/>
-        <v>926.83750000000566</v>
+        <v>964</v>
       </c>
       <c r="E130" s="17">
         <f t="shared" si="9"/>
-        <v>926.96250000000566</v>
+        <v>964.5</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -6053,19 +6081,19 @@
       </c>
       <c r="B131" s="17">
         <f t="shared" si="10"/>
-        <v>927.10000000000571</v>
+        <v>964.75</v>
       </c>
       <c r="C131" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D131" s="17">
         <f t="shared" si="8"/>
-        <v>927.03750000000571</v>
+        <v>964.5</v>
       </c>
       <c r="E131" s="17">
         <f t="shared" si="9"/>
-        <v>927.16250000000571</v>
+        <v>965</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6075,19 +6103,19 @@
       </c>
       <c r="B132" s="17">
         <f t="shared" si="10"/>
-        <v>927.30000000000575</v>
+        <v>965.25</v>
       </c>
       <c r="C132" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D132" s="17">
         <f t="shared" si="8"/>
-        <v>927.23750000000575</v>
+        <v>965</v>
       </c>
       <c r="E132" s="17">
         <f t="shared" si="9"/>
-        <v>927.36250000000575</v>
+        <v>965.5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -6097,19 +6125,19 @@
       </c>
       <c r="B133" s="17">
         <f t="shared" si="10"/>
-        <v>927.5000000000058</v>
+        <v>965.75</v>
       </c>
       <c r="C133" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D133" s="17">
         <f t="shared" si="8"/>
-        <v>927.4375000000058</v>
+        <v>965.5</v>
       </c>
       <c r="E133" s="17">
         <f t="shared" si="9"/>
-        <v>927.5625000000058</v>
+        <v>966</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -6119,19 +6147,19 @@
       </c>
       <c r="B134" s="17">
         <f t="shared" si="10"/>
-        <v>927.70000000000584</v>
+        <v>966.25</v>
       </c>
       <c r="C134" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D134" s="17">
         <f t="shared" si="8"/>
-        <v>927.63750000000584</v>
+        <v>966</v>
       </c>
       <c r="E134" s="17">
         <f t="shared" si="9"/>
-        <v>927.76250000000584</v>
+        <v>966.5</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -6141,19 +6169,19 @@
       </c>
       <c r="B135" s="17">
         <f t="shared" si="10"/>
-        <v>927.90000000000589</v>
+        <v>966.75</v>
       </c>
       <c r="C135" s="17">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D135" s="17">
         <f t="shared" ref="D135:D198" si="14">B135-(C135/2)</f>
-        <v>927.83750000000589</v>
+        <v>966.5</v>
       </c>
       <c r="E135" s="17">
         <f t="shared" ref="E135:E198" si="15">D135+C135</f>
-        <v>927.96250000000589</v>
+        <v>967</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -6163,19 +6191,19 @@
       </c>
       <c r="B136" s="17">
         <f t="shared" ref="B136:B199" si="16">B135+$C$1+C136</f>
-        <v>928.10000000000593</v>
+        <v>967.25</v>
       </c>
       <c r="C136" s="17">
         <f t="shared" ref="C136:C199" si="17">C135</f>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D136" s="17">
         <f t="shared" si="14"/>
-        <v>928.03750000000593</v>
+        <v>967</v>
       </c>
       <c r="E136" s="17">
         <f t="shared" si="15"/>
-        <v>928.16250000000593</v>
+        <v>967.5</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,19 +6213,19 @@
       </c>
       <c r="B137" s="17">
         <f t="shared" si="16"/>
-        <v>928.30000000000598</v>
+        <v>967.75</v>
       </c>
       <c r="C137" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D137" s="17">
         <f t="shared" si="14"/>
-        <v>928.23750000000598</v>
+        <v>967.5</v>
       </c>
       <c r="E137" s="17">
         <f t="shared" si="15"/>
-        <v>928.36250000000598</v>
+        <v>968</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -6207,19 +6235,19 @@
       </c>
       <c r="B138" s="17">
         <f t="shared" si="16"/>
-        <v>928.50000000000603</v>
+        <v>968.25</v>
       </c>
       <c r="C138" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D138" s="17">
         <f t="shared" si="14"/>
-        <v>928.43750000000603</v>
+        <v>968</v>
       </c>
       <c r="E138" s="17">
         <f t="shared" si="15"/>
-        <v>928.56250000000603</v>
+        <v>968.5</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -6229,19 +6257,19 @@
       </c>
       <c r="B139" s="17">
         <f t="shared" si="16"/>
-        <v>928.70000000000607</v>
+        <v>968.75</v>
       </c>
       <c r="C139" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D139" s="17">
         <f t="shared" si="14"/>
-        <v>928.63750000000607</v>
+        <v>968.5</v>
       </c>
       <c r="E139" s="17">
         <f t="shared" si="15"/>
-        <v>928.76250000000607</v>
+        <v>969</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -6251,19 +6279,19 @@
       </c>
       <c r="B140" s="17">
         <f t="shared" si="16"/>
-        <v>928.90000000000612</v>
+        <v>969.25</v>
       </c>
       <c r="C140" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D140" s="17">
         <f t="shared" si="14"/>
-        <v>928.83750000000612</v>
+        <v>969</v>
       </c>
       <c r="E140" s="17">
         <f t="shared" si="15"/>
-        <v>928.96250000000612</v>
+        <v>969.5</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6273,19 +6301,19 @@
       </c>
       <c r="B141" s="17">
         <f t="shared" si="16"/>
-        <v>929.10000000000616</v>
+        <v>969.75</v>
       </c>
       <c r="C141" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D141" s="17">
         <f t="shared" si="14"/>
-        <v>929.03750000000616</v>
+        <v>969.5</v>
       </c>
       <c r="E141" s="17">
         <f t="shared" si="15"/>
-        <v>929.16250000000616</v>
+        <v>970</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -6295,19 +6323,19 @@
       </c>
       <c r="B142" s="17">
         <f t="shared" si="16"/>
-        <v>929.30000000000621</v>
+        <v>970.25</v>
       </c>
       <c r="C142" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D142" s="17">
         <f t="shared" si="14"/>
-        <v>929.23750000000621</v>
+        <v>970</v>
       </c>
       <c r="E142" s="17">
         <f t="shared" si="15"/>
-        <v>929.36250000000621</v>
+        <v>970.5</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6317,19 +6345,19 @@
       </c>
       <c r="B143" s="17">
         <f t="shared" si="16"/>
-        <v>929.50000000000625</v>
+        <v>970.75</v>
       </c>
       <c r="C143" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D143" s="17">
         <f t="shared" si="14"/>
-        <v>929.43750000000625</v>
+        <v>970.5</v>
       </c>
       <c r="E143" s="17">
         <f t="shared" si="15"/>
-        <v>929.56250000000625</v>
+        <v>971</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -6339,19 +6367,19 @@
       </c>
       <c r="B144" s="17">
         <f t="shared" si="16"/>
-        <v>929.7000000000063</v>
+        <v>971.25</v>
       </c>
       <c r="C144" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D144" s="17">
         <f t="shared" si="14"/>
-        <v>929.6375000000063</v>
+        <v>971</v>
       </c>
       <c r="E144" s="17">
         <f t="shared" si="15"/>
-        <v>929.7625000000063</v>
+        <v>971.5</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6361,19 +6389,19 @@
       </c>
       <c r="B145" s="17">
         <f t="shared" si="16"/>
-        <v>929.90000000000634</v>
+        <v>971.75</v>
       </c>
       <c r="C145" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D145" s="17">
         <f t="shared" si="14"/>
-        <v>929.83750000000634</v>
+        <v>971.5</v>
       </c>
       <c r="E145" s="17">
         <f t="shared" si="15"/>
-        <v>929.96250000000634</v>
+        <v>972</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -6383,19 +6411,19 @@
       </c>
       <c r="B146" s="17">
         <f t="shared" si="16"/>
-        <v>930.10000000000639</v>
+        <v>972.25</v>
       </c>
       <c r="C146" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D146" s="17">
         <f t="shared" si="14"/>
-        <v>930.03750000000639</v>
+        <v>972</v>
       </c>
       <c r="E146" s="17">
         <f t="shared" si="15"/>
-        <v>930.16250000000639</v>
+        <v>972.5</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6405,19 +6433,19 @@
       </c>
       <c r="B147" s="17">
         <f t="shared" si="16"/>
-        <v>930.30000000000643</v>
+        <v>972.75</v>
       </c>
       <c r="C147" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D147" s="17">
         <f t="shared" si="14"/>
-        <v>930.23750000000643</v>
+        <v>972.5</v>
       </c>
       <c r="E147" s="17">
         <f t="shared" si="15"/>
-        <v>930.36250000000643</v>
+        <v>973</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -6427,19 +6455,19 @@
       </c>
       <c r="B148" s="17">
         <f t="shared" si="16"/>
-        <v>930.50000000000648</v>
+        <v>973.25</v>
       </c>
       <c r="C148" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D148" s="17">
         <f t="shared" si="14"/>
-        <v>930.43750000000648</v>
+        <v>973</v>
       </c>
       <c r="E148" s="17">
         <f t="shared" si="15"/>
-        <v>930.56250000000648</v>
+        <v>973.5</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6449,19 +6477,19 @@
       </c>
       <c r="B149" s="17">
         <f t="shared" si="16"/>
-        <v>930.70000000000653</v>
+        <v>973.75</v>
       </c>
       <c r="C149" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D149" s="17">
         <f t="shared" si="14"/>
-        <v>930.63750000000653</v>
+        <v>973.5</v>
       </c>
       <c r="E149" s="17">
         <f t="shared" si="15"/>
-        <v>930.76250000000653</v>
+        <v>974</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -6471,19 +6499,19 @@
       </c>
       <c r="B150" s="17">
         <f t="shared" si="16"/>
-        <v>930.90000000000657</v>
+        <v>974.25</v>
       </c>
       <c r="C150" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D150" s="17">
         <f t="shared" si="14"/>
-        <v>930.83750000000657</v>
+        <v>974</v>
       </c>
       <c r="E150" s="17">
         <f t="shared" si="15"/>
-        <v>930.96250000000657</v>
+        <v>974.5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -6493,19 +6521,19 @@
       </c>
       <c r="B151" s="17">
         <f t="shared" si="16"/>
-        <v>931.10000000000662</v>
+        <v>974.75</v>
       </c>
       <c r="C151" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D151" s="17">
         <f t="shared" si="14"/>
-        <v>931.03750000000662</v>
+        <v>974.5</v>
       </c>
       <c r="E151" s="17">
         <f t="shared" si="15"/>
-        <v>931.16250000000662</v>
+        <v>975</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6515,19 +6543,19 @@
       </c>
       <c r="B152" s="17">
         <f t="shared" si="16"/>
-        <v>931.30000000000666</v>
+        <v>975.25</v>
       </c>
       <c r="C152" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D152" s="17">
         <f t="shared" si="14"/>
-        <v>931.23750000000666</v>
+        <v>975</v>
       </c>
       <c r="E152" s="17">
         <f t="shared" si="15"/>
-        <v>931.36250000000666</v>
+        <v>975.5</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -6537,19 +6565,19 @@
       </c>
       <c r="B153" s="17">
         <f t="shared" si="16"/>
-        <v>931.50000000000671</v>
+        <v>975.75</v>
       </c>
       <c r="C153" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D153" s="17">
         <f t="shared" si="14"/>
-        <v>931.43750000000671</v>
+        <v>975.5</v>
       </c>
       <c r="E153" s="17">
         <f t="shared" si="15"/>
-        <v>931.56250000000671</v>
+        <v>976</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -6559,19 +6587,19 @@
       </c>
       <c r="B154" s="17">
         <f t="shared" si="16"/>
-        <v>931.70000000000675</v>
+        <v>976.25</v>
       </c>
       <c r="C154" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D154" s="17">
         <f t="shared" si="14"/>
-        <v>931.63750000000675</v>
+        <v>976</v>
       </c>
       <c r="E154" s="17">
         <f t="shared" si="15"/>
-        <v>931.76250000000675</v>
+        <v>976.5</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6581,19 +6609,19 @@
       </c>
       <c r="B155" s="17">
         <f t="shared" si="16"/>
-        <v>931.9000000000068</v>
+        <v>976.75</v>
       </c>
       <c r="C155" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D155" s="17">
         <f t="shared" si="14"/>
-        <v>931.8375000000068</v>
+        <v>976.5</v>
       </c>
       <c r="E155" s="17">
         <f t="shared" si="15"/>
-        <v>931.9625000000068</v>
+        <v>977</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6603,19 +6631,19 @@
       </c>
       <c r="B156" s="17">
         <f t="shared" si="16"/>
-        <v>932.10000000000684</v>
+        <v>977.25</v>
       </c>
       <c r="C156" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D156" s="17">
         <f t="shared" si="14"/>
-        <v>932.03750000000684</v>
+        <v>977</v>
       </c>
       <c r="E156" s="17">
         <f t="shared" si="15"/>
-        <v>932.16250000000684</v>
+        <v>977.5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6625,19 +6653,19 @@
       </c>
       <c r="B157" s="17">
         <f t="shared" si="16"/>
-        <v>932.30000000000689</v>
+        <v>977.75</v>
       </c>
       <c r="C157" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D157" s="17">
         <f t="shared" si="14"/>
-        <v>932.23750000000689</v>
+        <v>977.5</v>
       </c>
       <c r="E157" s="17">
         <f t="shared" si="15"/>
-        <v>932.36250000000689</v>
+        <v>978</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6647,19 +6675,19 @@
       </c>
       <c r="B158" s="17">
         <f t="shared" si="16"/>
-        <v>932.50000000000693</v>
+        <v>978.25</v>
       </c>
       <c r="C158" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D158" s="17">
         <f t="shared" si="14"/>
-        <v>932.43750000000693</v>
+        <v>978</v>
       </c>
       <c r="E158" s="17">
         <f t="shared" si="15"/>
-        <v>932.56250000000693</v>
+        <v>978.5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -6669,19 +6697,19 @@
       </c>
       <c r="B159" s="17">
         <f t="shared" si="16"/>
-        <v>932.70000000000698</v>
+        <v>978.75</v>
       </c>
       <c r="C159" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D159" s="17">
         <f t="shared" si="14"/>
-        <v>932.63750000000698</v>
+        <v>978.5</v>
       </c>
       <c r="E159" s="17">
         <f t="shared" si="15"/>
-        <v>932.76250000000698</v>
+        <v>979</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6691,19 +6719,19 @@
       </c>
       <c r="B160" s="17">
         <f t="shared" si="16"/>
-        <v>932.90000000000703</v>
+        <v>979.25</v>
       </c>
       <c r="C160" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D160" s="17">
         <f t="shared" si="14"/>
-        <v>932.83750000000703</v>
+        <v>979</v>
       </c>
       <c r="E160" s="17">
         <f t="shared" si="15"/>
-        <v>932.96250000000703</v>
+        <v>979.5</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6713,19 +6741,19 @@
       </c>
       <c r="B161" s="17">
         <f t="shared" si="16"/>
-        <v>933.10000000000707</v>
+        <v>979.75</v>
       </c>
       <c r="C161" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D161" s="17">
         <f t="shared" si="14"/>
-        <v>933.03750000000707</v>
+        <v>979.5</v>
       </c>
       <c r="E161" s="17">
         <f t="shared" si="15"/>
-        <v>933.16250000000707</v>
+        <v>980</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6735,19 +6763,19 @@
       </c>
       <c r="B162" s="17">
         <f t="shared" si="16"/>
-        <v>933.30000000000712</v>
+        <v>980.25</v>
       </c>
       <c r="C162" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D162" s="17">
         <f t="shared" si="14"/>
-        <v>933.23750000000712</v>
+        <v>980</v>
       </c>
       <c r="E162" s="17">
         <f t="shared" si="15"/>
-        <v>933.36250000000712</v>
+        <v>980.5</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6757,19 +6785,19 @@
       </c>
       <c r="B163" s="17">
         <f t="shared" si="16"/>
-        <v>933.50000000000716</v>
+        <v>980.75</v>
       </c>
       <c r="C163" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D163" s="17">
         <f t="shared" si="14"/>
-        <v>933.43750000000716</v>
+        <v>980.5</v>
       </c>
       <c r="E163" s="17">
         <f t="shared" si="15"/>
-        <v>933.56250000000716</v>
+        <v>981</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6779,19 +6807,19 @@
       </c>
       <c r="B164" s="17">
         <f t="shared" si="16"/>
-        <v>933.70000000000721</v>
+        <v>981.25</v>
       </c>
       <c r="C164" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D164" s="17">
         <f t="shared" si="14"/>
-        <v>933.63750000000721</v>
+        <v>981</v>
       </c>
       <c r="E164" s="17">
         <f t="shared" si="15"/>
-        <v>933.76250000000721</v>
+        <v>981.5</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6801,19 +6829,19 @@
       </c>
       <c r="B165" s="17">
         <f t="shared" si="16"/>
-        <v>933.90000000000725</v>
+        <v>981.75</v>
       </c>
       <c r="C165" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D165" s="17">
         <f t="shared" si="14"/>
-        <v>933.83750000000725</v>
+        <v>981.5</v>
       </c>
       <c r="E165" s="17">
         <f t="shared" si="15"/>
-        <v>933.96250000000725</v>
+        <v>982</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6823,19 +6851,19 @@
       </c>
       <c r="B166" s="17">
         <f t="shared" si="16"/>
-        <v>934.1000000000073</v>
+        <v>982.25</v>
       </c>
       <c r="C166" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D166" s="17">
         <f t="shared" si="14"/>
-        <v>934.0375000000073</v>
+        <v>982</v>
       </c>
       <c r="E166" s="17">
         <f t="shared" si="15"/>
-        <v>934.1625000000073</v>
+        <v>982.5</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6845,19 +6873,19 @@
       </c>
       <c r="B167" s="17">
         <f t="shared" si="16"/>
-        <v>934.30000000000734</v>
+        <v>982.75</v>
       </c>
       <c r="C167" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D167" s="17">
         <f t="shared" si="14"/>
-        <v>934.23750000000734</v>
+        <v>982.5</v>
       </c>
       <c r="E167" s="17">
         <f t="shared" si="15"/>
-        <v>934.36250000000734</v>
+        <v>983</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6867,19 +6895,19 @@
       </c>
       <c r="B168" s="17">
         <f t="shared" si="16"/>
-        <v>934.50000000000739</v>
+        <v>983.25</v>
       </c>
       <c r="C168" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D168" s="17">
         <f t="shared" si="14"/>
-        <v>934.43750000000739</v>
+        <v>983</v>
       </c>
       <c r="E168" s="17">
         <f t="shared" si="15"/>
-        <v>934.56250000000739</v>
+        <v>983.5</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6889,19 +6917,19 @@
       </c>
       <c r="B169" s="17">
         <f t="shared" si="16"/>
-        <v>934.70000000000744</v>
+        <v>983.75</v>
       </c>
       <c r="C169" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D169" s="17">
         <f t="shared" si="14"/>
-        <v>934.63750000000744</v>
+        <v>983.5</v>
       </c>
       <c r="E169" s="17">
         <f t="shared" si="15"/>
-        <v>934.76250000000744</v>
+        <v>984</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -6911,19 +6939,19 @@
       </c>
       <c r="B170" s="17">
         <f t="shared" si="16"/>
-        <v>934.90000000000748</v>
+        <v>984.25</v>
       </c>
       <c r="C170" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D170" s="17">
         <f t="shared" si="14"/>
-        <v>934.83750000000748</v>
+        <v>984</v>
       </c>
       <c r="E170" s="17">
         <f t="shared" si="15"/>
-        <v>934.96250000000748</v>
+        <v>984.5</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -6933,19 +6961,19 @@
       </c>
       <c r="B171" s="17">
         <f t="shared" si="16"/>
-        <v>935.10000000000753</v>
+        <v>984.75</v>
       </c>
       <c r="C171" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D171" s="17">
         <f t="shared" si="14"/>
-        <v>935.03750000000753</v>
+        <v>984.5</v>
       </c>
       <c r="E171" s="17">
         <f t="shared" si="15"/>
-        <v>935.16250000000753</v>
+        <v>985</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -6955,19 +6983,19 @@
       </c>
       <c r="B172" s="17">
         <f t="shared" si="16"/>
-        <v>935.30000000000757</v>
+        <v>985.25</v>
       </c>
       <c r="C172" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D172" s="17">
         <f t="shared" si="14"/>
-        <v>935.23750000000757</v>
+        <v>985</v>
       </c>
       <c r="E172" s="17">
         <f t="shared" si="15"/>
-        <v>935.36250000000757</v>
+        <v>985.5</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -6977,19 +7005,19 @@
       </c>
       <c r="B173" s="17">
         <f t="shared" si="16"/>
-        <v>935.50000000000762</v>
+        <v>985.75</v>
       </c>
       <c r="C173" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D173" s="17">
         <f t="shared" si="14"/>
-        <v>935.43750000000762</v>
+        <v>985.5</v>
       </c>
       <c r="E173" s="17">
         <f t="shared" si="15"/>
-        <v>935.56250000000762</v>
+        <v>986</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -6999,19 +7027,19 @@
       </c>
       <c r="B174" s="17">
         <f t="shared" si="16"/>
-        <v>935.70000000000766</v>
+        <v>986.25</v>
       </c>
       <c r="C174" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D174" s="17">
         <f t="shared" si="14"/>
-        <v>935.63750000000766</v>
+        <v>986</v>
       </c>
       <c r="E174" s="17">
         <f t="shared" si="15"/>
-        <v>935.76250000000766</v>
+        <v>986.5</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -7021,19 +7049,19 @@
       </c>
       <c r="B175" s="17">
         <f t="shared" si="16"/>
-        <v>935.90000000000771</v>
+        <v>986.75</v>
       </c>
       <c r="C175" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D175" s="17">
         <f t="shared" si="14"/>
-        <v>935.83750000000771</v>
+        <v>986.5</v>
       </c>
       <c r="E175" s="17">
         <f t="shared" si="15"/>
-        <v>935.96250000000771</v>
+        <v>987</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -7043,19 +7071,19 @@
       </c>
       <c r="B176" s="17">
         <f t="shared" si="16"/>
-        <v>936.10000000000775</v>
+        <v>987.25</v>
       </c>
       <c r="C176" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D176" s="17">
         <f t="shared" si="14"/>
-        <v>936.03750000000775</v>
+        <v>987</v>
       </c>
       <c r="E176" s="17">
         <f t="shared" si="15"/>
-        <v>936.16250000000775</v>
+        <v>987.5</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,19 +7093,19 @@
       </c>
       <c r="B177" s="17">
         <f t="shared" si="16"/>
-        <v>936.3000000000078</v>
+        <v>987.75</v>
       </c>
       <c r="C177" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D177" s="17">
         <f t="shared" si="14"/>
-        <v>936.2375000000078</v>
+        <v>987.5</v>
       </c>
       <c r="E177" s="17">
         <f t="shared" si="15"/>
-        <v>936.3625000000078</v>
+        <v>988</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -7087,19 +7115,19 @@
       </c>
       <c r="B178" s="17">
         <f t="shared" si="16"/>
-        <v>936.50000000000784</v>
+        <v>988.25</v>
       </c>
       <c r="C178" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D178" s="17">
         <f t="shared" si="14"/>
-        <v>936.43750000000784</v>
+        <v>988</v>
       </c>
       <c r="E178" s="17">
         <f t="shared" si="15"/>
-        <v>936.56250000000784</v>
+        <v>988.5</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -7109,19 +7137,19 @@
       </c>
       <c r="B179" s="17">
         <f t="shared" si="16"/>
-        <v>936.70000000000789</v>
+        <v>988.75</v>
       </c>
       <c r="C179" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D179" s="17">
         <f t="shared" si="14"/>
-        <v>936.63750000000789</v>
+        <v>988.5</v>
       </c>
       <c r="E179" s="17">
         <f t="shared" si="15"/>
-        <v>936.76250000000789</v>
+        <v>989</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -7131,19 +7159,19 @@
       </c>
       <c r="B180" s="17">
         <f t="shared" si="16"/>
-        <v>936.90000000000794</v>
+        <v>989.25</v>
       </c>
       <c r="C180" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D180" s="17">
         <f t="shared" si="14"/>
-        <v>936.83750000000794</v>
+        <v>989</v>
       </c>
       <c r="E180" s="17">
         <f t="shared" si="15"/>
-        <v>936.96250000000794</v>
+        <v>989.5</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -7153,19 +7181,19 @@
       </c>
       <c r="B181" s="17">
         <f t="shared" si="16"/>
-        <v>937.10000000000798</v>
+        <v>989.75</v>
       </c>
       <c r="C181" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D181" s="17">
         <f t="shared" si="14"/>
-        <v>937.03750000000798</v>
+        <v>989.5</v>
       </c>
       <c r="E181" s="17">
         <f t="shared" si="15"/>
-        <v>937.16250000000798</v>
+        <v>990</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -7175,19 +7203,19 @@
       </c>
       <c r="B182" s="17">
         <f t="shared" si="16"/>
-        <v>937.30000000000803</v>
+        <v>990.25</v>
       </c>
       <c r="C182" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D182" s="17">
         <f t="shared" si="14"/>
-        <v>937.23750000000803</v>
+        <v>990</v>
       </c>
       <c r="E182" s="17">
         <f t="shared" si="15"/>
-        <v>937.36250000000803</v>
+        <v>990.5</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -7197,19 +7225,19 @@
       </c>
       <c r="B183" s="17">
         <f t="shared" si="16"/>
-        <v>937.50000000000807</v>
+        <v>990.75</v>
       </c>
       <c r="C183" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D183" s="17">
         <f t="shared" si="14"/>
-        <v>937.43750000000807</v>
+        <v>990.5</v>
       </c>
       <c r="E183" s="17">
         <f t="shared" si="15"/>
-        <v>937.56250000000807</v>
+        <v>991</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -7219,19 +7247,19 @@
       </c>
       <c r="B184" s="17">
         <f t="shared" si="16"/>
-        <v>937.70000000000812</v>
+        <v>991.25</v>
       </c>
       <c r="C184" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D184" s="17">
         <f t="shared" si="14"/>
-        <v>937.63750000000812</v>
+        <v>991</v>
       </c>
       <c r="E184" s="17">
         <f t="shared" si="15"/>
-        <v>937.76250000000812</v>
+        <v>991.5</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -7241,19 +7269,19 @@
       </c>
       <c r="B185" s="17">
         <f t="shared" si="16"/>
-        <v>937.90000000000816</v>
+        <v>991.75</v>
       </c>
       <c r="C185" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D185" s="17">
         <f t="shared" si="14"/>
-        <v>937.83750000000816</v>
+        <v>991.5</v>
       </c>
       <c r="E185" s="17">
         <f t="shared" si="15"/>
-        <v>937.96250000000816</v>
+        <v>992</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -7263,19 +7291,19 @@
       </c>
       <c r="B186" s="17">
         <f t="shared" si="16"/>
-        <v>938.10000000000821</v>
+        <v>992.25</v>
       </c>
       <c r="C186" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D186" s="17">
         <f t="shared" si="14"/>
-        <v>938.03750000000821</v>
+        <v>992</v>
       </c>
       <c r="E186" s="17">
         <f t="shared" si="15"/>
-        <v>938.16250000000821</v>
+        <v>992.5</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -7285,19 +7313,19 @@
       </c>
       <c r="B187" s="17">
         <f t="shared" si="16"/>
-        <v>938.30000000000825</v>
+        <v>992.75</v>
       </c>
       <c r="C187" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D187" s="17">
         <f t="shared" si="14"/>
-        <v>938.23750000000825</v>
+        <v>992.5</v>
       </c>
       <c r="E187" s="17">
         <f t="shared" si="15"/>
-        <v>938.36250000000825</v>
+        <v>993</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -7307,19 +7335,19 @@
       </c>
       <c r="B188" s="17">
         <f t="shared" si="16"/>
-        <v>938.5000000000083</v>
+        <v>993.25</v>
       </c>
       <c r="C188" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D188" s="17">
         <f t="shared" si="14"/>
-        <v>938.4375000000083</v>
+        <v>993</v>
       </c>
       <c r="E188" s="17">
         <f t="shared" si="15"/>
-        <v>938.5625000000083</v>
+        <v>993.5</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -7329,19 +7357,19 @@
       </c>
       <c r="B189" s="17">
         <f t="shared" si="16"/>
-        <v>938.70000000000834</v>
+        <v>993.75</v>
       </c>
       <c r="C189" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D189" s="17">
         <f t="shared" si="14"/>
-        <v>938.63750000000834</v>
+        <v>993.5</v>
       </c>
       <c r="E189" s="17">
         <f t="shared" si="15"/>
-        <v>938.76250000000834</v>
+        <v>994</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -7351,19 +7379,19 @@
       </c>
       <c r="B190" s="17">
         <f t="shared" si="16"/>
-        <v>938.90000000000839</v>
+        <v>994.25</v>
       </c>
       <c r="C190" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D190" s="17">
         <f t="shared" si="14"/>
-        <v>938.83750000000839</v>
+        <v>994</v>
       </c>
       <c r="E190" s="17">
         <f t="shared" si="15"/>
-        <v>938.96250000000839</v>
+        <v>994.5</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -7373,19 +7401,19 @@
       </c>
       <c r="B191" s="17">
         <f t="shared" si="16"/>
-        <v>939.10000000000844</v>
+        <v>994.75</v>
       </c>
       <c r="C191" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D191" s="17">
         <f t="shared" si="14"/>
-        <v>939.03750000000844</v>
+        <v>994.5</v>
       </c>
       <c r="E191" s="17">
         <f t="shared" si="15"/>
-        <v>939.16250000000844</v>
+        <v>995</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -7395,19 +7423,19 @@
       </c>
       <c r="B192" s="17">
         <f t="shared" si="16"/>
-        <v>939.30000000000848</v>
+        <v>995.25</v>
       </c>
       <c r="C192" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D192" s="17">
         <f t="shared" si="14"/>
-        <v>939.23750000000848</v>
+        <v>995</v>
       </c>
       <c r="E192" s="17">
         <f t="shared" si="15"/>
-        <v>939.36250000000848</v>
+        <v>995.5</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,19 +7445,19 @@
       </c>
       <c r="B193" s="17">
         <f t="shared" si="16"/>
-        <v>939.50000000000853</v>
+        <v>995.75</v>
       </c>
       <c r="C193" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D193" s="17">
         <f t="shared" si="14"/>
-        <v>939.43750000000853</v>
+        <v>995.5</v>
       </c>
       <c r="E193" s="17">
         <f t="shared" si="15"/>
-        <v>939.56250000000853</v>
+        <v>996</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -7439,19 +7467,19 @@
       </c>
       <c r="B194" s="17">
         <f t="shared" si="16"/>
-        <v>939.70000000000857</v>
+        <v>996.25</v>
       </c>
       <c r="C194" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D194" s="17">
         <f t="shared" si="14"/>
-        <v>939.63750000000857</v>
+        <v>996</v>
       </c>
       <c r="E194" s="17">
         <f t="shared" si="15"/>
-        <v>939.76250000000857</v>
+        <v>996.5</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -7461,19 +7489,19 @@
       </c>
       <c r="B195" s="17">
         <f t="shared" si="16"/>
-        <v>939.90000000000862</v>
+        <v>996.75</v>
       </c>
       <c r="C195" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D195" s="17">
         <f t="shared" si="14"/>
-        <v>939.83750000000862</v>
+        <v>996.5</v>
       </c>
       <c r="E195" s="17">
         <f t="shared" si="15"/>
-        <v>939.96250000000862</v>
+        <v>997</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -7483,19 +7511,19 @@
       </c>
       <c r="B196" s="17">
         <f t="shared" si="16"/>
-        <v>940.10000000000866</v>
+        <v>997.25</v>
       </c>
       <c r="C196" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D196" s="17">
         <f t="shared" si="14"/>
-        <v>940.03750000000866</v>
+        <v>997</v>
       </c>
       <c r="E196" s="17">
         <f t="shared" si="15"/>
-        <v>940.16250000000866</v>
+        <v>997.5</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -7505,19 +7533,19 @@
       </c>
       <c r="B197" s="17">
         <f t="shared" si="16"/>
-        <v>940.30000000000871</v>
+        <v>997.75</v>
       </c>
       <c r="C197" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D197" s="17">
         <f t="shared" si="14"/>
-        <v>940.23750000000871</v>
+        <v>997.5</v>
       </c>
       <c r="E197" s="17">
         <f t="shared" si="15"/>
-        <v>940.36250000000871</v>
+        <v>998</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -7527,19 +7555,19 @@
       </c>
       <c r="B198" s="17">
         <f t="shared" si="16"/>
-        <v>940.50000000000875</v>
+        <v>998.25</v>
       </c>
       <c r="C198" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D198" s="17">
         <f t="shared" si="14"/>
-        <v>940.43750000000875</v>
+        <v>998</v>
       </c>
       <c r="E198" s="17">
         <f t="shared" si="15"/>
-        <v>940.56250000000875</v>
+        <v>998.5</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -7549,19 +7577,19 @@
       </c>
       <c r="B199" s="17">
         <f t="shared" si="16"/>
-        <v>940.7000000000088</v>
+        <v>998.75</v>
       </c>
       <c r="C199" s="17">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D199" s="17">
         <f t="shared" ref="D199:D214" si="20">B199-(C199/2)</f>
-        <v>940.6375000000088</v>
+        <v>998.5</v>
       </c>
       <c r="E199" s="17">
         <f t="shared" ref="E199:E214" si="21">D199+C199</f>
-        <v>940.7625000000088</v>
+        <v>999</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -7571,19 +7599,19 @@
       </c>
       <c r="B200" s="17">
         <f t="shared" ref="B200:B214" si="22">B199+$C$1+C200</f>
-        <v>940.90000000000884</v>
+        <v>999.25</v>
       </c>
       <c r="C200" s="17">
         <f t="shared" ref="C200:C214" si="23">C199</f>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D200" s="17">
         <f t="shared" si="20"/>
-        <v>940.83750000000884</v>
+        <v>999</v>
       </c>
       <c r="E200" s="17">
         <f t="shared" si="21"/>
-        <v>940.96250000000884</v>
+        <v>999.5</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -7593,19 +7621,19 @@
       </c>
       <c r="B201" s="17">
         <f t="shared" si="22"/>
-        <v>941.10000000000889</v>
+        <v>999.75</v>
       </c>
       <c r="C201" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D201" s="17">
         <f t="shared" si="20"/>
-        <v>941.03750000000889</v>
+        <v>999.5</v>
       </c>
       <c r="E201" s="17">
         <f t="shared" si="21"/>
-        <v>941.16250000000889</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -7615,19 +7643,19 @@
       </c>
       <c r="B202" s="17">
         <f t="shared" si="22"/>
-        <v>941.30000000000894</v>
+        <v>1000.25</v>
       </c>
       <c r="C202" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D202" s="17">
         <f t="shared" si="20"/>
-        <v>941.23750000000894</v>
+        <v>1000</v>
       </c>
       <c r="E202" s="17">
         <f t="shared" si="21"/>
-        <v>941.36250000000894</v>
+        <v>1000.5</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -7637,19 +7665,19 @@
       </c>
       <c r="B203" s="17">
         <f t="shared" si="22"/>
-        <v>941.50000000000898</v>
+        <v>1000.75</v>
       </c>
       <c r="C203" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D203" s="17">
         <f t="shared" si="20"/>
-        <v>941.43750000000898</v>
+        <v>1000.5</v>
       </c>
       <c r="E203" s="17">
         <f t="shared" si="21"/>
-        <v>941.56250000000898</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -7659,19 +7687,19 @@
       </c>
       <c r="B204" s="17">
         <f t="shared" si="22"/>
-        <v>941.70000000000903</v>
+        <v>1001.25</v>
       </c>
       <c r="C204" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D204" s="17">
         <f t="shared" si="20"/>
-        <v>941.63750000000903</v>
+        <v>1001</v>
       </c>
       <c r="E204" s="17">
         <f t="shared" si="21"/>
-        <v>941.76250000000903</v>
+        <v>1001.5</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -7681,19 +7709,19 @@
       </c>
       <c r="B205" s="17">
         <f t="shared" si="22"/>
-        <v>941.90000000000907</v>
+        <v>1001.75</v>
       </c>
       <c r="C205" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D205" s="17">
         <f t="shared" si="20"/>
-        <v>941.83750000000907</v>
+        <v>1001.5</v>
       </c>
       <c r="E205" s="17">
         <f t="shared" si="21"/>
-        <v>941.96250000000907</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -7703,19 +7731,19 @@
       </c>
       <c r="B206" s="17">
         <f t="shared" si="22"/>
-        <v>942.10000000000912</v>
+        <v>1002.25</v>
       </c>
       <c r="C206" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D206" s="17">
         <f t="shared" si="20"/>
-        <v>942.03750000000912</v>
+        <v>1002</v>
       </c>
       <c r="E206" s="17">
         <f t="shared" si="21"/>
-        <v>942.16250000000912</v>
+        <v>1002.5</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,19 +7753,19 @@
       </c>
       <c r="B207" s="17">
         <f t="shared" si="22"/>
-        <v>942.30000000000916</v>
+        <v>1002.75</v>
       </c>
       <c r="C207" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D207" s="17">
         <f t="shared" si="20"/>
-        <v>942.23750000000916</v>
+        <v>1002.5</v>
       </c>
       <c r="E207" s="17">
         <f t="shared" si="21"/>
-        <v>942.36250000000916</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -7747,19 +7775,19 @@
       </c>
       <c r="B208" s="17">
         <f t="shared" si="22"/>
-        <v>942.50000000000921</v>
+        <v>1003.25</v>
       </c>
       <c r="C208" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D208" s="17">
         <f t="shared" si="20"/>
-        <v>942.43750000000921</v>
+        <v>1003</v>
       </c>
       <c r="E208" s="17">
         <f t="shared" si="21"/>
-        <v>942.56250000000921</v>
+        <v>1003.5</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -7769,19 +7797,19 @@
       </c>
       <c r="B209" s="17">
         <f t="shared" si="22"/>
-        <v>942.70000000000925</v>
+        <v>1003.75</v>
       </c>
       <c r="C209" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D209" s="17">
         <f t="shared" si="20"/>
-        <v>942.63750000000925</v>
+        <v>1003.5</v>
       </c>
       <c r="E209" s="17">
         <f t="shared" si="21"/>
-        <v>942.76250000000925</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -7791,19 +7819,19 @@
       </c>
       <c r="B210" s="17">
         <f t="shared" si="22"/>
-        <v>942.9000000000093</v>
+        <v>1004.25</v>
       </c>
       <c r="C210" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D210" s="17">
         <f t="shared" si="20"/>
-        <v>942.8375000000093</v>
+        <v>1004</v>
       </c>
       <c r="E210" s="17">
         <f t="shared" si="21"/>
-        <v>942.9625000000093</v>
+        <v>1004.5</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -7813,19 +7841,19 @@
       </c>
       <c r="B211" s="17">
         <f t="shared" si="22"/>
-        <v>943.10000000000935</v>
+        <v>1004.75</v>
       </c>
       <c r="C211" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D211" s="17">
         <f t="shared" si="20"/>
-        <v>943.03750000000935</v>
+        <v>1004.5</v>
       </c>
       <c r="E211" s="17">
         <f t="shared" si="21"/>
-        <v>943.16250000000935</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -7835,19 +7863,19 @@
       </c>
       <c r="B212" s="17">
         <f t="shared" si="22"/>
-        <v>943.30000000000939</v>
+        <v>1005.25</v>
       </c>
       <c r="C212" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D212" s="17">
         <f t="shared" si="20"/>
-        <v>943.23750000000939</v>
+        <v>1005</v>
       </c>
       <c r="E212" s="17">
         <f t="shared" si="21"/>
-        <v>943.36250000000939</v>
+        <v>1005.5</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -7857,19 +7885,19 @@
       </c>
       <c r="B213" s="17">
         <f t="shared" si="22"/>
-        <v>943.50000000000944</v>
+        <v>1005.75</v>
       </c>
       <c r="C213" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D213" s="17">
         <f t="shared" si="20"/>
-        <v>943.43750000000944</v>
+        <v>1005.5</v>
       </c>
       <c r="E213" s="17">
         <f t="shared" si="21"/>
-        <v>943.56250000000944</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -7879,19 +7907,19 @@
       </c>
       <c r="B214" s="17">
         <f t="shared" si="22"/>
-        <v>943.70000000000948</v>
+        <v>1006.25</v>
       </c>
       <c r="C214" s="17">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D214" s="17">
         <f t="shared" si="20"/>
-        <v>943.63750000000948</v>
+        <v>1006</v>
       </c>
       <c r="E214" s="17">
         <f t="shared" si="21"/>
-        <v>943.76250000000948</v>
+        <v>1006.5</v>
       </c>
     </row>
   </sheetData>
@@ -7914,8 +7942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0905176-8170-4141-BFF8-73C1F588C34D}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8448,10 +8476,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>179</v>
@@ -8471,14 +8499,14 @@
       <c r="H20" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="I20" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -8487,13 +8515,13 @@
       <c r="B21" s="7">
         <v>915</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>915</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>902</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>928</v>
       </c>
       <c r="F21" s="4">
@@ -8505,15 +8533,15 @@
       <c r="H21" s="4">
         <v>30</v>
       </c>
-      <c r="I21" s="26" t="str">
+      <c r="I21" s="28" t="str">
         <f>"{""" &amp;$A$20 &amp; """: """ &amp; A21 &amp; """, """  &amp; $C$20 &amp; """: " &amp; C21 &amp; ", """ &amp; $D$20 &amp; """: " &amp;D21 &amp; ", """ &amp; $E$20 &amp; """: " &amp; E21 &amp; ", """ &amp; $F$20 &amp; """: " &amp; F21 &amp; ", """ &amp; $G$20 &amp; """: " &amp; G21 &amp; ", """ &amp; $H$20 &amp; """: " &amp; H21 &amp; "},"</f>
         <v>{"region": "US", "freqCenter": 915, "freqStart": 902, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -8522,13 +8550,13 @@
       <c r="B22" s="7">
         <v>433</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>433.5</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>433</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>434</v>
       </c>
       <c r="F22" s="4">
@@ -8540,15 +8568,15 @@
       <c r="H22" s="4">
         <v>12</v>
       </c>
-      <c r="I22" s="26" t="str">
+      <c r="I22" s="28" t="str">
         <f t="shared" ref="I22:I33" si="2">"{""" &amp;$A$20 &amp; """: """ &amp; A22 &amp; """, """  &amp; $C$20 &amp; """: " &amp; C22 &amp; ", """ &amp; $D$20 &amp; """: " &amp;D22 &amp; ", """ &amp; $E$20 &amp; """: " &amp; E22 &amp; ", """ &amp; $F$20 &amp; """: " &amp; F22 &amp; ", """ &amp; $G$20 &amp; """: " &amp; G22 &amp; ", """ &amp; $H$20 &amp; """: " &amp; H22 &amp; "},"</f>
         <v>{"region": "EU433", "freqCenter": 433.5, "freqStart": 433, "freqEnd": 434, "dutyCycle": 10, "spacing": 0, "powerLimit": 12},</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -8557,13 +8585,13 @@
       <c r="B23" s="7">
         <v>868</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>869.52499999999998</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>869.4</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <v>869.65</v>
       </c>
       <c r="F23" s="4">
@@ -8575,15 +8603,15 @@
       <c r="H23" s="4">
         <v>16</v>
       </c>
-      <c r="I23" s="26" t="str">
+      <c r="I23" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "EU868", "freqCenter": 869.525, "freqStart": 869.4, "freqEnd": 869.65, "dutyCycle": 10, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -8592,13 +8620,13 @@
       <c r="B24" s="7">
         <v>433</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>490</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>470</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <v>510</v>
       </c>
       <c r="F24" s="4">
@@ -8610,15 +8638,15 @@
       <c r="H24" s="4">
         <v>19</v>
       </c>
-      <c r="I24" s="26" t="str">
+      <c r="I24" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "CN", "freqCenter": 490, "freqStart": 470, "freqEnd": 510, "dutyCycle": 100, "spacing": 0, "powerLimit": 19},</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -8627,13 +8655,13 @@
       <c r="B25" s="7">
         <v>915</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>924.3</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>920.8</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <v>927.8</v>
       </c>
       <c r="F25" s="4">
@@ -8645,15 +8673,15 @@
       <c r="H25" s="4">
         <v>16</v>
       </c>
-      <c r="I25" s="26" t="str">
+      <c r="I25" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "JP", "freqCenter": 924.3, "freqStart": 920.8, "freqEnd": 927.8, "dutyCycle": 100, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -8662,13 +8690,13 @@
       <c r="B26" s="7">
         <v>915</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>921.5</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>915</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="24">
         <v>928</v>
       </c>
       <c r="F26" s="4">
@@ -8680,15 +8708,15 @@
       <c r="H26" s="4">
         <v>30</v>
       </c>
-      <c r="I26" s="26" t="str">
+      <c r="I26" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "ANZ", "freqCenter": 921.5, "freqStart": 915, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -8697,13 +8725,13 @@
       <c r="B27" s="7">
         <v>868</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>868.95</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <v>868.7</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <v>869.2</v>
       </c>
       <c r="F27" s="4">
@@ -8715,15 +8743,15 @@
       <c r="H27" s="4">
         <v>20</v>
       </c>
-      <c r="I27" s="26" t="str">
+      <c r="I27" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "RU", "freqCenter": 868.95, "freqStart": 868.7, "freqEnd": 869.2, "dutyCycle": 100, "spacing": 0, "powerLimit": 20},</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -8732,13 +8760,13 @@
       <c r="B28" s="7">
         <v>915</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>921.5</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>920</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <v>923</v>
       </c>
       <c r="F28" s="4">
@@ -8750,15 +8778,15 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-      <c r="I28" s="26" t="str">
+      <c r="I28" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "KR", "freqCenter": 921.5, "freqStart": 920, "freqEnd": 923, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -8767,13 +8795,13 @@
       <c r="B29" s="7">
         <v>915</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>922.5</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <v>920</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="24">
         <v>925</v>
       </c>
       <c r="F29" s="4">
@@ -8785,15 +8813,15 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="I29" s="26" t="str">
+      <c r="I29" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "TW", "freqCenter": 922.5, "freqStart": 920, "freqEnd": 925, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -8802,13 +8830,13 @@
       <c r="B30" s="7">
         <v>866</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>866</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>865</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <v>867</v>
       </c>
       <c r="F30" s="4">
@@ -8820,15 +8848,15 @@
       <c r="H30" s="4">
         <v>30</v>
       </c>
-      <c r="I30" s="26" t="str">
+      <c r="I30" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "IN", "freqCenter": 866, "freqStart": 865, "freqEnd": 867, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -8837,13 +8865,13 @@
       <c r="B31" s="7">
         <v>866</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>866</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>864</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>868</v>
       </c>
       <c r="F31" s="4">
@@ -8855,15 +8883,15 @@
       <c r="H31" s="4">
         <v>0</v>
       </c>
-      <c r="I31" s="26" t="str">
+      <c r="I31" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "NZ865", "freqCenter": 866, "freqStart": 864, "freqEnd": 868, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -8872,13 +8900,13 @@
       <c r="B32" s="7">
         <v>915</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>922.5</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <v>920</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="24">
         <v>925</v>
       </c>
       <c r="F32" s="4">
@@ -8890,15 +8918,15 @@
       <c r="H32" s="4">
         <v>16</v>
       </c>
-      <c r="I32" s="26" t="str">
+      <c r="I32" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "TH", "freqCenter": 922.5, "freqStart": 920, "freqEnd": 925, "dutyCycle": 100, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -8907,13 +8935,13 @@
       <c r="B33" s="7">
         <v>915</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>915</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>902</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="24">
         <v>928</v>
       </c>
       <c r="F33" s="4">
@@ -8925,18 +8953,24 @@
       <c r="H33" s="4">
         <v>30</v>
       </c>
-      <c r="I33" s="26" t="str">
+      <c r="I33" s="28" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "Unset", "freqCenter": 915, "freqStart": 902, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="I33:N33"/>
     <mergeCell ref="I26:N26"/>
@@ -8945,14 +8979,481 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="I30:N30"/>
     <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8E34FB-3ED4-4B5C-A3F3-4412D813A60F}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="4">
+        <v>915</v>
+      </c>
+      <c r="C2" s="24">
+        <v>915</v>
+      </c>
+      <c r="D2" s="24">
+        <v>902</v>
+      </c>
+      <c r="E2" s="24">
+        <v>928</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="4">
+        <v>433</v>
+      </c>
+      <c r="C3" s="24">
+        <v>433.5</v>
+      </c>
+      <c r="D3" s="24">
+        <v>433</v>
+      </c>
+      <c r="E3" s="24">
+        <v>434</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="4">
+        <v>868</v>
+      </c>
+      <c r="C4" s="24">
+        <v>869.52499999999998</v>
+      </c>
+      <c r="D4" s="24">
+        <v>869.4</v>
+      </c>
+      <c r="E4" s="24">
+        <v>869.65</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="4">
+        <v>433</v>
+      </c>
+      <c r="C5" s="24">
+        <v>490</v>
+      </c>
+      <c r="D5" s="24">
+        <v>470</v>
+      </c>
+      <c r="E5" s="24">
+        <v>510</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="4">
+        <v>915</v>
+      </c>
+      <c r="C6" s="24">
+        <v>924.3</v>
+      </c>
+      <c r="D6" s="24">
+        <v>920.8</v>
+      </c>
+      <c r="E6" s="24">
+        <v>927.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="4">
+        <v>915</v>
+      </c>
+      <c r="C7" s="24">
+        <v>921.5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>915</v>
+      </c>
+      <c r="E7" s="24">
+        <v>928</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="4">
+        <v>868</v>
+      </c>
+      <c r="C8" s="24">
+        <v>868.95</v>
+      </c>
+      <c r="D8" s="24">
+        <v>868.7</v>
+      </c>
+      <c r="E8" s="24">
+        <v>869.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="4">
+        <v>915</v>
+      </c>
+      <c r="C9" s="24">
+        <v>921.5</v>
+      </c>
+      <c r="D9" s="24">
+        <v>920</v>
+      </c>
+      <c r="E9" s="24">
+        <v>923</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="4">
+        <v>915</v>
+      </c>
+      <c r="C10" s="24">
+        <v>922.5</v>
+      </c>
+      <c r="D10" s="24">
+        <v>920</v>
+      </c>
+      <c r="E10" s="24">
+        <v>925</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="4">
+        <v>866</v>
+      </c>
+      <c r="C11" s="24">
+        <v>866</v>
+      </c>
+      <c r="D11" s="24">
+        <v>865</v>
+      </c>
+      <c r="E11" s="24">
+        <v>867</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="4">
+        <v>866</v>
+      </c>
+      <c r="C12" s="24">
+        <v>866</v>
+      </c>
+      <c r="D12" s="24">
+        <v>864</v>
+      </c>
+      <c r="E12" s="24">
+        <v>868</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="4">
+        <v>915</v>
+      </c>
+      <c r="C13" s="24">
+        <v>922.5</v>
+      </c>
+      <c r="D13" s="24">
+        <v>920</v>
+      </c>
+      <c r="E13" s="24">
+        <v>925</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="4">
+        <v>915</v>
+      </c>
+      <c r="C14" s="24">
+        <v>915</v>
+      </c>
+      <c r="D14" s="24">
+        <v>902</v>
+      </c>
+      <c r="E14" s="24">
+        <v>928</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="4">
+        <v>125</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4">
+        <v>902.18799999999999</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="4">
+        <f>VLOOKUP($B$17,$A$2:$H$14,4,FALSE)</f>
+        <v>902</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="4">
+        <f>VLOOKUP($B$17,$A$2:$H$14,5,FALSE)</f>
+        <v>928</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="4">
+        <f>VLOOKUP($B$17,$A$2:$H$14,7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="4">
+        <f>(B16+B21)/1000</f>
+        <v>0.125</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="4">
+        <f>_xlfn.FLOOR.MATH((B18-B19)/B22)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009C190-854C-4AA8-B191-F23D1848AB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538E2677-64B3-411D-A0B9-1E26355D2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D2">
         <f>D1-COUNTIF(D6:D502,TRUE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
-        <v>0.74725274725274726</v>
+        <v>0.75824175824175821</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,9 @@
       <c r="C53" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -8965,12 +8967,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="I33:N33"/>
     <mergeCell ref="I26:N26"/>
@@ -8979,6 +8975,12 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="I30:N30"/>
     <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538E2677-64B3-411D-A0B9-1E26355D2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD72D78-3CA0-4DBF-8729-0197B1638A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="191">
   <si>
     <t>Screen</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>bw (KHz)</t>
+  </si>
+  <si>
+    <t>bw (MHz)</t>
   </si>
 </sst>
 </file>
@@ -722,7 +728,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,6 +780,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -786,6 +795,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1115,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C985E-F91F-471A-B04D-0671E5EAB4DD}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -2422,30 +2435,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="D1">
         <f>COUNTA(A6:A501)</f>
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2">
         <f>D1-COUNTIF(D6:D501,TRUE)</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
         <v>0.77777777777777779</v>
@@ -2918,12 +2931,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -3000,12 +3013,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3285,28 +3298,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="4">
         <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="4">
         <v>928</v>
       </c>
@@ -7942,19 +7955,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0905176-8170-4141-BFF8-73C1F588C34D}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -8501,14 +8514,14 @@
       <c r="H20" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -8535,15 +8548,15 @@
       <c r="H21" s="4">
         <v>30</v>
       </c>
-      <c r="I21" s="28" t="str">
+      <c r="I21" s="29" t="str">
         <f>"{""" &amp;$A$20 &amp; """: """ &amp; A21 &amp; """, """  &amp; $C$20 &amp; """: " &amp; C21 &amp; ", """ &amp; $D$20 &amp; """: " &amp;D21 &amp; ", """ &amp; $E$20 &amp; """: " &amp; E21 &amp; ", """ &amp; $F$20 &amp; """: " &amp; F21 &amp; ", """ &amp; $G$20 &amp; """: " &amp; G21 &amp; ", """ &amp; $H$20 &amp; """: " &amp; H21 &amp; "},"</f>
         <v>{"region": "US", "freqCenter": 915, "freqStart": 902, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -8570,15 +8583,15 @@
       <c r="H22" s="4">
         <v>12</v>
       </c>
-      <c r="I22" s="28" t="str">
+      <c r="I22" s="29" t="str">
         <f t="shared" ref="I22:I33" si="2">"{""" &amp;$A$20 &amp; """: """ &amp; A22 &amp; """, """  &amp; $C$20 &amp; """: " &amp; C22 &amp; ", """ &amp; $D$20 &amp; """: " &amp;D22 &amp; ", """ &amp; $E$20 &amp; """: " &amp; E22 &amp; ", """ &amp; $F$20 &amp; """: " &amp; F22 &amp; ", """ &amp; $G$20 &amp; """: " &amp; G22 &amp; ", """ &amp; $H$20 &amp; """: " &amp; H22 &amp; "},"</f>
         <v>{"region": "EU433", "freqCenter": 433.5, "freqStart": 433, "freqEnd": 434, "dutyCycle": 10, "spacing": 0, "powerLimit": 12},</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -8605,15 +8618,15 @@
       <c r="H23" s="4">
         <v>16</v>
       </c>
-      <c r="I23" s="28" t="str">
+      <c r="I23" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "EU868", "freqCenter": 869.525, "freqStart": 869.4, "freqEnd": 869.65, "dutyCycle": 10, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -8640,15 +8653,15 @@
       <c r="H24" s="4">
         <v>19</v>
       </c>
-      <c r="I24" s="28" t="str">
+      <c r="I24" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "CN", "freqCenter": 490, "freqStart": 470, "freqEnd": 510, "dutyCycle": 100, "spacing": 0, "powerLimit": 19},</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -8675,15 +8688,15 @@
       <c r="H25" s="4">
         <v>16</v>
       </c>
-      <c r="I25" s="28" t="str">
+      <c r="I25" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "JP", "freqCenter": 924.3, "freqStart": 920.8, "freqEnd": 927.8, "dutyCycle": 100, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -8710,15 +8723,15 @@
       <c r="H26" s="4">
         <v>30</v>
       </c>
-      <c r="I26" s="28" t="str">
+      <c r="I26" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "ANZ", "freqCenter": 921.5, "freqStart": 915, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -8745,15 +8758,15 @@
       <c r="H27" s="4">
         <v>20</v>
       </c>
-      <c r="I27" s="28" t="str">
+      <c r="I27" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "RU", "freqCenter": 868.95, "freqStart": 868.7, "freqEnd": 869.2, "dutyCycle": 100, "spacing": 0, "powerLimit": 20},</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -8780,15 +8793,15 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-      <c r="I28" s="28" t="str">
+      <c r="I28" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "KR", "freqCenter": 921.5, "freqStart": 920, "freqEnd": 923, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -8815,15 +8828,15 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="I29" s="28" t="str">
+      <c r="I29" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "TW", "freqCenter": 922.5, "freqStart": 920, "freqEnd": 925, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -8850,15 +8863,15 @@
       <c r="H30" s="4">
         <v>30</v>
       </c>
-      <c r="I30" s="28" t="str">
+      <c r="I30" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "IN", "freqCenter": 866, "freqStart": 865, "freqEnd": 867, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -8885,15 +8898,15 @@
       <c r="H31" s="4">
         <v>0</v>
       </c>
-      <c r="I31" s="28" t="str">
+      <c r="I31" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "NZ865", "freqCenter": 866, "freqStart": 864, "freqEnd": 868, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -8920,15 +8933,15 @@
       <c r="H32" s="4">
         <v>16</v>
       </c>
-      <c r="I32" s="28" t="str">
+      <c r="I32" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "TH", "freqCenter": 922.5, "freqStart": 920, "freqEnd": 925, "dutyCycle": 100, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -8955,18 +8968,204 @@
       <c r="H33" s="4">
         <v>30</v>
       </c>
-      <c r="I33" s="28" t="str">
+      <c r="I33" s="29" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "Unset", "freqCenter": 915, "freqStart": 902, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="23">
+        <f>E21-D21</f>
+        <v>26</v>
+      </c>
+      <c r="C37" s="30">
+        <f>B37*1000</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="23">
+        <f t="shared" ref="B38:B49" si="3">E22-D22</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="30">
+        <f t="shared" ref="C38:C49" si="4">B38*1000</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="32">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="C39" s="33">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="23">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C40" s="30">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="23">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C41" s="30">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="23">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C42" s="30">
+        <f t="shared" si="4"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="23">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="30">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="23">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C44" s="30">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C45" s="30">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="30">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C47" s="30">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C48" s="30">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="23">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C49" s="30">
+        <f t="shared" si="4"/>
+        <v>26000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="I33:N33"/>
     <mergeCell ref="I26:N26"/>
@@ -8975,12 +9174,6 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="I30:N30"/>
     <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat-circuitpython\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD72D78-3CA0-4DBF-8729-0197B1638A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA13B15-36D3-4F84-8EDB-78C6765B832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -783,6 +783,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -795,17 +799,61 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1128,9 +1176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C985E-F91F-471A-B04D-0671E5EAB4DD}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,6 +2460,11 @@
       <c r="D96" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A6:D96">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR($D6="",NOT($D6))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2435,30 +2488,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="30"/>
       <c r="D1">
         <f>COUNTA(A6:A501)</f>
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="30"/>
       <c r="D2">
         <f>D1-COUNTIF(D6:D501,TRUE)</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
         <v>0.77777777777777779</v>
@@ -2931,12 +2984,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -3013,12 +3066,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3298,28 +3351,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="4">
         <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="4">
         <v>928</v>
       </c>
@@ -7944,7 +7997,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:E214">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$E6&gt;$C$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7957,7 +8010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0905176-8170-4141-BFF8-73C1F588C34D}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -8514,14 +8567,14 @@
       <c r="H20" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -8548,15 +8601,15 @@
       <c r="H21" s="4">
         <v>30</v>
       </c>
-      <c r="I21" s="29" t="str">
+      <c r="I21" s="33" t="str">
         <f>"{""" &amp;$A$20 &amp; """: """ &amp; A21 &amp; """, """  &amp; $C$20 &amp; """: " &amp; C21 &amp; ", """ &amp; $D$20 &amp; """: " &amp;D21 &amp; ", """ &amp; $E$20 &amp; """: " &amp; E21 &amp; ", """ &amp; $F$20 &amp; """: " &amp; F21 &amp; ", """ &amp; $G$20 &amp; """: " &amp; G21 &amp; ", """ &amp; $H$20 &amp; """: " &amp; H21 &amp; "},"</f>
         <v>{"region": "US", "freqCenter": 915, "freqStart": 902, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -8583,15 +8636,15 @@
       <c r="H22" s="4">
         <v>12</v>
       </c>
-      <c r="I22" s="29" t="str">
+      <c r="I22" s="33" t="str">
         <f t="shared" ref="I22:I33" si="2">"{""" &amp;$A$20 &amp; """: """ &amp; A22 &amp; """, """  &amp; $C$20 &amp; """: " &amp; C22 &amp; ", """ &amp; $D$20 &amp; """: " &amp;D22 &amp; ", """ &amp; $E$20 &amp; """: " &amp; E22 &amp; ", """ &amp; $F$20 &amp; """: " &amp; F22 &amp; ", """ &amp; $G$20 &amp; """: " &amp; G22 &amp; ", """ &amp; $H$20 &amp; """: " &amp; H22 &amp; "},"</f>
         <v>{"region": "EU433", "freqCenter": 433.5, "freqStart": 433, "freqEnd": 434, "dutyCycle": 10, "spacing": 0, "powerLimit": 12},</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -8618,15 +8671,15 @@
       <c r="H23" s="4">
         <v>16</v>
       </c>
-      <c r="I23" s="29" t="str">
+      <c r="I23" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "EU868", "freqCenter": 869.525, "freqStart": 869.4, "freqEnd": 869.65, "dutyCycle": 10, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -8653,15 +8706,15 @@
       <c r="H24" s="4">
         <v>19</v>
       </c>
-      <c r="I24" s="29" t="str">
+      <c r="I24" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "CN", "freqCenter": 490, "freqStart": 470, "freqEnd": 510, "dutyCycle": 100, "spacing": 0, "powerLimit": 19},</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -8688,15 +8741,15 @@
       <c r="H25" s="4">
         <v>16</v>
       </c>
-      <c r="I25" s="29" t="str">
+      <c r="I25" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "JP", "freqCenter": 924.3, "freqStart": 920.8, "freqEnd": 927.8, "dutyCycle": 100, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -8723,15 +8776,15 @@
       <c r="H26" s="4">
         <v>30</v>
       </c>
-      <c r="I26" s="29" t="str">
+      <c r="I26" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "ANZ", "freqCenter": 921.5, "freqStart": 915, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -8758,15 +8811,15 @@
       <c r="H27" s="4">
         <v>20</v>
       </c>
-      <c r="I27" s="29" t="str">
+      <c r="I27" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "RU", "freqCenter": 868.95, "freqStart": 868.7, "freqEnd": 869.2, "dutyCycle": 100, "spacing": 0, "powerLimit": 20},</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -8793,15 +8846,15 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-      <c r="I28" s="29" t="str">
+      <c r="I28" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "KR", "freqCenter": 921.5, "freqStart": 920, "freqEnd": 923, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -8828,15 +8881,15 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="I29" s="29" t="str">
+      <c r="I29" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "TW", "freqCenter": 922.5, "freqStart": 920, "freqEnd": 925, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -8863,15 +8916,15 @@
       <c r="H30" s="4">
         <v>30</v>
       </c>
-      <c r="I30" s="29" t="str">
+      <c r="I30" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "IN", "freqCenter": 866, "freqStart": 865, "freqEnd": 867, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -8898,15 +8951,15 @@
       <c r="H31" s="4">
         <v>0</v>
       </c>
-      <c r="I31" s="29" t="str">
+      <c r="I31" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "NZ865", "freqCenter": 866, "freqStart": 864, "freqEnd": 868, "dutyCycle": 100, "spacing": 0, "powerLimit": 0},</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -8933,15 +8986,15 @@
       <c r="H32" s="4">
         <v>16</v>
       </c>
-      <c r="I32" s="29" t="str">
+      <c r="I32" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "TH", "freqCenter": 922.5, "freqStart": 920, "freqEnd": 925, "dutyCycle": 100, "spacing": 0, "powerLimit": 16},</v>
       </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -8968,15 +9021,15 @@
       <c r="H33" s="4">
         <v>30</v>
       </c>
-      <c r="I33" s="29" t="str">
+      <c r="I33" s="33" t="str">
         <f t="shared" si="2"/>
         <v>{"region": "Unset", "freqCenter": 915, "freqStart": 902, "freqEnd": 928, "dutyCycle": 100, "spacing": 0, "powerLimit": 30},</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -8997,7 +9050,7 @@
         <f>E21-D21</f>
         <v>26</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="26">
         <f>B37*1000</f>
         <v>26000</v>
       </c>
@@ -9010,20 +9063,20 @@
         <f t="shared" ref="B38:B49" si="3">E22-D22</f>
         <v>1</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="26">
         <f t="shared" ref="C38:C49" si="4">B38*1000</f>
         <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="28">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="29">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
@@ -9036,7 +9089,7 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="26">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
@@ -9049,7 +9102,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="26">
         <f t="shared" si="4"/>
         <v>7000</v>
       </c>
@@ -9062,7 +9115,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="26">
         <f t="shared" si="4"/>
         <v>13000</v>
       </c>
@@ -9075,7 +9128,7 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="26">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
@@ -9088,7 +9141,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="26">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
@@ -9101,7 +9154,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="26">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
@@ -9114,7 +9167,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="26">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
@@ -9127,7 +9180,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="26">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
@@ -9140,7 +9193,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="26">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
@@ -9153,19 +9206,13 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="26">
         <f t="shared" si="4"/>
         <v>26000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="I33:N33"/>
     <mergeCell ref="I26:N26"/>
@@ -9174,6 +9221,12 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="I30:N30"/>
     <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA13B15-36D3-4F84-8EDB-78C6765B832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54F2146-A77F-43B6-888C-A736428BE749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
@@ -805,7 +805,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -829,40 +839,6 @@
           <color theme="2"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1177,8 +1153,8 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1179,7 @@
       </c>
       <c r="D2">
         <f>D1-COUNTIF(D6:D502,TRUE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1188,7 @@
       </c>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
-        <v>0.75824175824175821</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2053,7 +2029,9 @@
       <c r="C66" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
@@ -2461,7 +2439,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:D96">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>OR($D6="",NOT($D6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7997,7 +7975,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:E214">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$E6&gt;$C$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9213,6 +9191,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="I33:N33"/>
     <mergeCell ref="I26:N26"/>
@@ -9221,12 +9205,6 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="I30:N30"/>
     <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54F2146-A77F-43B6-888C-A736428BE749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B5859-1024-4DEA-8EEC-D12D6FE0F43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
@@ -1153,8 +1153,8 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D2">
         <f>D1-COUNTIF(D6:D502,TRUE)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
-        <v>0.76923076923076927</v>
+        <v>0.81318681318681318</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,9 @@
       <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2411,7 +2413,9 @@
       <c r="C94" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
@@ -2423,7 +2427,9 @@
       <c r="C95" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -2435,7 +2441,9 @@
       <c r="C96" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6:D96">
@@ -9191,12 +9199,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="I33:N33"/>
     <mergeCell ref="I26:N26"/>
@@ -9205,6 +9207,12 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="I30:N30"/>
     <mergeCell ref="I31:N31"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Documentation/Tasks.xlsx
+++ b/Documentation/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat\Armachat-circuitpython\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B5859-1024-4DEA-8EEC-D12D6FE0F43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A863127-C879-4F3C-8427-0E58956D3740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48331F84-D6AF-4212-9807-071E67B15285}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="192">
   <si>
     <t>Screen</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>bw (MHz)</t>
+  </si>
+  <si>
+    <t>B-Long</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1156,8 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="D2">
         <f>D1-COUNTIF(D6:D502,TRUE)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,7 +1191,7 @@
       </c>
       <c r="D3" s="9">
         <f>(D1-D2)/D1</f>
-        <v>0.81318681318681318</v>
+        <v>0.93406593406593408</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1341,7 +1344,9 @@
       <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1393,7 +1398,9 @@
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1405,31 +1412,37 @@
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1441,7 +1454,9 @@
       <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1453,7 +1468,9 @@
       <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1465,7 +1482,9 @@
       <c r="C25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1477,7 +1496,9 @@
       <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1489,7 +1510,9 @@
       <c r="C27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1501,7 +1524,9 @@
       <c r="C28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -9199,6 +9224,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
     <mergeCell ref="I32:N32"/>
     <mergeCell ref="I33:N33"/>
     <mergeCell ref="I26:N26"/>
@@ -9207,12 +9238,6 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="I30:N30"/>
     <mergeCell ref="I31:N31"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
